--- a/Inputdata.xlsx
+++ b/Inputdata.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sxj477\Documents\Documents\Berg\Matlab files\SocialSecurity\Version06.08.2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sxj477\Documents\GitHub\SocialSecurityDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12150" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12150"/>
   </bookViews>
   <sheets>
-    <sheet name="30year" sheetId="3" r:id="rId1"/>
-    <sheet name="PopulationData" sheetId="1" r:id="rId2"/>
-    <sheet name="Sample" sheetId="2" r:id="rId3"/>
+    <sheet name="30year_US" sheetId="6" r:id="rId1"/>
+    <sheet name="30year" sheetId="3" r:id="rId2"/>
+    <sheet name="PopulationData" sheetId="1" r:id="rId3"/>
+    <sheet name="Sample" sheetId="2" r:id="rId4"/>
+    <sheet name="PopulationDataUS" sheetId="4" r:id="rId5"/>
+    <sheet name="PopulationDependency" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
   <si>
     <t>nu_t</t>
   </si>
@@ -36,6 +39,30 @@
   <si>
     <t>U</t>
   </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>argentina</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>30y, A</t>
+  </si>
+  <si>
+    <t>30y, US</t>
+  </si>
+  <si>
+    <t>nu, A</t>
+  </si>
+  <si>
+    <t>nu, U</t>
+  </si>
 </sst>
 </file>
 
@@ -44,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,16 +79,324 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -69,18 +404,212 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="6" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="10" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="12" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="5" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="3" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="4" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="8" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="7" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="42"/>
+    <cellStyle name="Note" xfId="14" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="9" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title 2" xfId="41"/>
+    <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="13" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -360,8 +889,635 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T11"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AH11" sqref="AH11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1" s="6">
+        <f>O1+1</f>
+        <v>1</v>
+      </c>
+      <c r="Q1" s="6">
+        <f t="shared" ref="Q1:T11" si="0">P1+1</f>
+        <v>2</v>
+      </c>
+      <c r="R1" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="S1" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="T1" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!O1,0)</f>
+        <v>1950</v>
+      </c>
+      <c r="B2" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!P1,0)</f>
+        <v>1955</v>
+      </c>
+      <c r="C2" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!Q1,0)</f>
+        <v>1960</v>
+      </c>
+      <c r="D2" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!R1,0)</f>
+        <v>1965</v>
+      </c>
+      <c r="E2" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!S1,0)</f>
+        <v>1970</v>
+      </c>
+      <c r="F2" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!T1,0)</f>
+        <v>1975</v>
+      </c>
+      <c r="G2" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!O1,0)</f>
+        <v>1.5048400694489636</v>
+      </c>
+      <c r="H2" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!P1,0)</f>
+        <v>1.4592985137751266</v>
+      </c>
+      <c r="I2" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!Q1,0)</f>
+        <v>1.4080579729748428</v>
+      </c>
+      <c r="J2" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!R1,0)</f>
+        <v>1.4004004137345372</v>
+      </c>
+      <c r="K2" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!S1,0)</f>
+        <v>1.4096785008052279</v>
+      </c>
+      <c r="L2" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!T1,0)</f>
+        <v>1.405009215119043</v>
+      </c>
+      <c r="O2" s="6">
+        <f>O1+6</f>
+        <v>6</v>
+      </c>
+      <c r="P2" s="6">
+        <f t="shared" ref="P2:P11" si="1">O2+1</f>
+        <v>7</v>
+      </c>
+      <c r="Q2" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="R2" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="S2" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="T2" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!O2,0)</f>
+        <v>1980</v>
+      </c>
+      <c r="B3" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!P2,0)</f>
+        <v>1985</v>
+      </c>
+      <c r="C3" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!Q2,0)</f>
+        <v>1990</v>
+      </c>
+      <c r="D3" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!R2,0)</f>
+        <v>1995</v>
+      </c>
+      <c r="E3" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!S2,0)</f>
+        <v>2000</v>
+      </c>
+      <c r="F3" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!T2,0)</f>
+        <v>2005</v>
+      </c>
+      <c r="G3" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!O2,0)</f>
+        <v>1.3945631437566703</v>
+      </c>
+      <c r="H3" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!P2,0)</f>
+        <v>1.3804509783620471</v>
+      </c>
+      <c r="I3" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!Q2,0)</f>
+        <v>1.3541476552763243</v>
+      </c>
+      <c r="J3" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!R2,0)</f>
+        <v>1.2933926254374022</v>
+      </c>
+      <c r="K3" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!S2,0)</f>
+        <v>1.2470400291072312</v>
+      </c>
+      <c r="L3" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!T2,0)</f>
+        <v>1.212818965683067</v>
+      </c>
+      <c r="O3" s="6">
+        <f t="shared" ref="O3:O11" si="2">O2+6</f>
+        <v>12</v>
+      </c>
+      <c r="P3" s="6">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="Q3" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="R3" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="S3" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="T3" s="6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!O3,0)</f>
+        <v>2010</v>
+      </c>
+      <c r="B4" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!P3,0)</f>
+        <v>2015</v>
+      </c>
+      <c r="C4" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!Q3,0)</f>
+        <v>2020</v>
+      </c>
+      <c r="D4" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!R3,0)</f>
+        <v>2025</v>
+      </c>
+      <c r="E4" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!S3,0)</f>
+        <v>2030</v>
+      </c>
+      <c r="F4" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!T3,0)</f>
+        <v>2035</v>
+      </c>
+      <c r="G4" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!O3,0)</f>
+        <v>1.1781376958617369</v>
+      </c>
+      <c r="H4" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!P3,0)</f>
+        <v>1.1451209131073898</v>
+      </c>
+      <c r="I4" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!Q3,0)</f>
+        <v>1.1174308616674204</v>
+      </c>
+      <c r="J4" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!R3,0)</f>
+        <v>1.1005952170369069</v>
+      </c>
+      <c r="K4" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!S3,0)</f>
+        <v>1.0814961281162232</v>
+      </c>
+      <c r="L4" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!T3,0)</f>
+        <v>1.0660639950811133</v>
+      </c>
+      <c r="O4" s="6">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="P4" s="6">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="Q4" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="R4" s="6">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="S4" s="6">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="T4" s="6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!O4,0)</f>
+        <v>2040</v>
+      </c>
+      <c r="B5" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!P4,0)</f>
+        <v>2045</v>
+      </c>
+      <c r="C5" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!Q4,0)</f>
+        <v>2050</v>
+      </c>
+      <c r="D5" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!R4,0)</f>
+        <v>2055</v>
+      </c>
+      <c r="E5" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!S4,0)</f>
+        <v>2060</v>
+      </c>
+      <c r="F5" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!T4,0)</f>
+        <v>2065</v>
+      </c>
+      <c r="G5" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!O4,0)</f>
+        <v>1.0550686734444716</v>
+      </c>
+      <c r="H5" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!P4,0)</f>
+        <v>1.047550996535374</v>
+      </c>
+      <c r="I5" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!Q4,0)</f>
+        <v>1.0420267468539279</v>
+      </c>
+      <c r="J5" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!R4,0)</f>
+        <v>1.0371292659215032</v>
+      </c>
+      <c r="K5" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!S4,0)</f>
+        <v>1.0315610740699328</v>
+      </c>
+      <c r="L5" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!T4,0)</f>
+        <v>1.0252033489176173</v>
+      </c>
+      <c r="O5" s="6">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="P5" s="6">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="Q5" s="6">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="R5" s="6">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="S5" s="6">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="T5" s="6">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!O5,0)</f>
+        <v>2070</v>
+      </c>
+      <c r="B6" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!P5,0)</f>
+        <v>2075</v>
+      </c>
+      <c r="C6" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!Q5,0)</f>
+        <v>2080</v>
+      </c>
+      <c r="D6" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!R5,0)</f>
+        <v>2085</v>
+      </c>
+      <c r="E6" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!S5,0)</f>
+        <v>2090</v>
+      </c>
+      <c r="F6" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!T5,0)</f>
+        <v>2095</v>
+      </c>
+      <c r="G6" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!O5,0)</f>
+        <v>1.0187066847660389</v>
+      </c>
+      <c r="H6" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!P5,0)</f>
+        <v>1.0187066847660389</v>
+      </c>
+      <c r="I6" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!Q5,0)</f>
+        <v>1.0187066847660389</v>
+      </c>
+      <c r="J6" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!R5,0)</f>
+        <v>1.0187066847660389</v>
+      </c>
+      <c r="K6" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!S5,0)</f>
+        <v>1.0187066847660389</v>
+      </c>
+      <c r="L6" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!T5,0)</f>
+        <v>1.0187066847660389</v>
+      </c>
+      <c r="O6" s="6">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="P6" s="6">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="Q6" s="6">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="R6" s="6">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="S6" s="6">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="T6" s="6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!O6,0)</f>
+        <v>2100</v>
+      </c>
+      <c r="B7" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!P6,0)</f>
+        <v>2105</v>
+      </c>
+      <c r="C7" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!Q6,0)</f>
+        <v>2110</v>
+      </c>
+      <c r="D7" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!R6,0)</f>
+        <v>2115</v>
+      </c>
+      <c r="E7" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!S6,0)</f>
+        <v>2120</v>
+      </c>
+      <c r="F7" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!T6,0)</f>
+        <v>2125</v>
+      </c>
+      <c r="G7" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!O6,0)</f>
+        <v>1.0187066847660389</v>
+      </c>
+      <c r="H7" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!P6,0)</f>
+        <v>1.0187066847660389</v>
+      </c>
+      <c r="I7" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!Q6,0)</f>
+        <v>1.0187066847660389</v>
+      </c>
+      <c r="J7" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!R6,0)</f>
+        <v>1.0187066847660389</v>
+      </c>
+      <c r="K7" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!S6,0)</f>
+        <v>1.0187066847660389</v>
+      </c>
+      <c r="L7" s="6">
+        <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!T6,0)</f>
+        <v>1.0187066847660389</v>
+      </c>
+      <c r="O7" s="6">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="P7" s="6">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="Q7" s="6">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="R7" s="6">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="S7" s="6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="T7" s="6">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O8" s="6">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="P8" s="6">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="Q8" s="6">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="R8" s="6">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="S8" s="6">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="T8" s="6">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O9" s="6">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="P9" s="6">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="Q9" s="6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="R9" s="6">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="S9" s="6">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="T9" s="6">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O10" s="6">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="P10" s="6">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="Q10" s="6">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="R10" s="6">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="S10" s="6">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="T10" s="6">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O11" s="6">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="P11" s="6">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="Q11" s="6">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="R11" s="6">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="S11" s="6">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="T11" s="6">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T11"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,27 +1610,27 @@
       </c>
       <c r="G2">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!O1,0)</f>
-        <v>1.4468305615848982</v>
+        <v>1.6467991464437528</v>
       </c>
       <c r="H2">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!P1,0)</f>
-        <v>1.4019020485058193</v>
+        <v>1.6195721579640365</v>
       </c>
       <c r="I2">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!Q1,0)</f>
-        <v>1.3518138505119808</v>
+        <v>1.6038362448195906</v>
       </c>
       <c r="J2">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!R1,0)</f>
-        <v>1.3295204617218459</v>
+        <v>1.5845945033797333</v>
       </c>
       <c r="K2">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!S1,0)</f>
-        <v>1.3454137459584428</v>
+        <v>1.554799324559281</v>
       </c>
       <c r="L2">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!T1,0)</f>
-        <v>1.3463611800692989</v>
+        <v>1.5099384326344409</v>
       </c>
       <c r="O2">
         <f>O1+6</f>
@@ -528,27 +1684,27 @@
       </c>
       <c r="G3">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!O2,0)</f>
-        <v>1.3433029737087581</v>
+        <v>1.4665624232933949</v>
       </c>
       <c r="H3">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!P2,0)</f>
-        <v>1.3284764084261993</v>
+        <v>1.4282334347362007</v>
       </c>
       <c r="I3">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!Q2,0)</f>
-        <v>1.3124444605481447</v>
+        <v>1.3798794441647573</v>
       </c>
       <c r="J3">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!R2,0)</f>
-        <v>1.2920926492458003</v>
+        <v>1.3259707589771794</v>
       </c>
       <c r="K3">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!S2,0)</f>
-        <v>1.2579196237296448</v>
+        <v>1.286149595905389</v>
       </c>
       <c r="L3">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!T2,0)</f>
-        <v>1.2368599911670639</v>
+        <v>1.2519153004974266</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O11" si="2">O2+6</f>
@@ -602,27 +1758,27 @@
       </c>
       <c r="G4">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!O3,0)</f>
-        <v>1.211985050961619</v>
+        <v>1.2168939007798101</v>
       </c>
       <c r="H4">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!P3,0)</f>
-        <v>1.1941982738041241</v>
+        <v>1.1772593869403902</v>
       </c>
       <c r="I4">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!Q3,0)</f>
-        <v>1.1754815792512971</v>
+        <v>1.1462194315875787</v>
       </c>
       <c r="J4">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!R3,0)</f>
-        <v>1.1566242370712603</v>
+        <v>1.123669005160397</v>
       </c>
       <c r="K4">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!S3,0)</f>
-        <v>1.1405382433569213</v>
+        <v>1.0962117543774024</v>
       </c>
       <c r="L4">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!T3,0)</f>
-        <v>1.1288117065476051</v>
+        <v>1.0681295128378863</v>
       </c>
       <c r="O4">
         <f t="shared" si="2"/>
@@ -676,27 +1832,27 @@
       </c>
       <c r="G5">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!O4,0)</f>
-        <v>1.1205470351610658</v>
+        <v>1.04026415225396</v>
       </c>
       <c r="H5">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!P4,0)</f>
-        <v>1.1136859351875823</v>
+        <v>1.0135529285571681</v>
       </c>
       <c r="I5">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!Q4,0)</f>
-        <v>1.1061952447375651</v>
+        <v>0.98866604644315048</v>
       </c>
       <c r="J5">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!R4,0)</f>
-        <v>1.0973451757408972</v>
+        <v>0.98866604644315048</v>
       </c>
       <c r="K5">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!S4,0)</f>
-        <v>1.0872813125348022</v>
+        <v>0.98866604644315048</v>
       </c>
       <c r="L5">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!T4,0)</f>
-        <v>1.0771272765689535</v>
+        <v>0.98866604644315048</v>
       </c>
       <c r="O5">
         <f t="shared" si="2"/>
@@ -750,27 +1906,27 @@
       </c>
       <c r="G6">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!O5,0)</f>
-        <v>1.0675670741437686</v>
+        <v>0.98866604644315048</v>
       </c>
       <c r="H6">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!P5,0)</f>
-        <v>1.0675670741437686</v>
+        <v>0.98866604644315048</v>
       </c>
       <c r="I6">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!Q5,0)</f>
-        <v>1.0675670741437686</v>
+        <v>0.98866604644315048</v>
       </c>
       <c r="J6">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!R5,0)</f>
-        <v>1.0675670741437686</v>
+        <v>0.98866604644315048</v>
       </c>
       <c r="K6">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!S5,0)</f>
-        <v>1.0675670741437686</v>
+        <v>0.98866604644315048</v>
       </c>
       <c r="L6">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!T5,0)</f>
-        <v>1.0675670741437686</v>
+        <v>0.98866604644315048</v>
       </c>
       <c r="O6">
         <f t="shared" si="2"/>
@@ -824,27 +1980,27 @@
       </c>
       <c r="G7">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!O6,0)</f>
-        <v>1.0675670741437686</v>
+        <v>0.98866604644315048</v>
       </c>
       <c r="H7">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!P6,0)</f>
-        <v>1.0675670741437686</v>
+        <v>0.98866604644315048</v>
       </c>
       <c r="I7">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!Q6,0)</f>
-        <v>1.0675670741437686</v>
+        <v>0.98866604644315048</v>
       </c>
       <c r="J7">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!R6,0)</f>
-        <v>1.0675670741437686</v>
+        <v>0.98866604644315048</v>
       </c>
       <c r="K7">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!S6,0)</f>
-        <v>1.0675670741437686</v>
+        <v>0.98866604644315048</v>
       </c>
       <c r="L7">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!T6,0)</f>
-        <v>1.0675670741437686</v>
+        <v>0.98866604644315048</v>
       </c>
       <c r="O7">
         <f t="shared" si="2"/>
@@ -980,12 +2136,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,7 +2159,7 @@
         <v>1950</v>
       </c>
       <c r="B2">
-        <v>1.4468305615848982</v>
+        <v>1.6467991464437528</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1011,7 +2167,7 @@
         <v>1955</v>
       </c>
       <c r="B3">
-        <v>1.4019020485058193</v>
+        <v>1.6195721579640365</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1022,7 +2178,7 @@
         <v>1960</v>
       </c>
       <c r="B4">
-        <v>1.3518138505119808</v>
+        <v>1.6038362448195906</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1033,7 +2189,7 @@
         <v>1965</v>
       </c>
       <c r="B5">
-        <v>1.3295204617218459</v>
+        <v>1.5845945033797333</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1044,7 +2200,7 @@
         <v>1970</v>
       </c>
       <c r="B6">
-        <v>1.3454137459584428</v>
+        <v>1.554799324559281</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="2"/>
@@ -1055,7 +2211,7 @@
         <v>1975</v>
       </c>
       <c r="B7">
-        <v>1.3463611800692989</v>
+        <v>1.5099384326344409</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1064,7 +2220,7 @@
         <v>1980</v>
       </c>
       <c r="B8">
-        <v>1.3433029737087581</v>
+        <v>1.4665624232933949</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1073,7 +2229,7 @@
         <v>1985</v>
       </c>
       <c r="B9">
-        <v>1.3284764084261993</v>
+        <v>1.4282334347362007</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1082,7 +2238,7 @@
         <v>1990</v>
       </c>
       <c r="B10">
-        <v>1.3124444605481447</v>
+        <v>1.3798794441647573</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1091,7 +2247,7 @@
         <v>1995</v>
       </c>
       <c r="B11">
-        <v>1.2920926492458003</v>
+        <v>1.3259707589771794</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1100,7 +2256,7 @@
         <v>2000</v>
       </c>
       <c r="B12">
-        <v>1.2579196237296448</v>
+        <v>1.286149595905389</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1109,7 +2265,7 @@
         <v>2005</v>
       </c>
       <c r="B13">
-        <v>1.2368599911670639</v>
+        <v>1.2519153004974266</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1118,7 +2274,7 @@
         <v>2010</v>
       </c>
       <c r="B14">
-        <v>1.211985050961619</v>
+        <v>1.2168939007798101</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1127,7 +2283,7 @@
         <v>2015</v>
       </c>
       <c r="B15">
-        <v>1.1941982738041241</v>
+        <v>1.1772593869403902</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1136,7 +2292,7 @@
         <v>2020</v>
       </c>
       <c r="B16">
-        <v>1.1754815792512971</v>
+        <v>1.1462194315875787</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1145,7 +2301,7 @@
         <v>2025</v>
       </c>
       <c r="B17">
-        <v>1.1566242370712603</v>
+        <v>1.123669005160397</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1154,7 +2310,7 @@
         <v>2030</v>
       </c>
       <c r="B18">
-        <v>1.1405382433569213</v>
+        <v>1.0962117543774024</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1163,7 +2319,7 @@
         <v>2035</v>
       </c>
       <c r="B19">
-        <v>1.1288117065476051</v>
+        <v>1.0681295128378863</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1172,7 +2328,7 @@
         <v>2040</v>
       </c>
       <c r="B20">
-        <v>1.1205470351610658</v>
+        <v>1.04026415225396</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1181,7 +2337,7 @@
         <v>2045</v>
       </c>
       <c r="B21">
-        <v>1.1136859351875823</v>
+        <v>1.0135529285571681</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1190,7 +2346,7 @@
         <v>2050</v>
       </c>
       <c r="B22">
-        <v>1.1061952447375651</v>
+        <v>0.98866604644315048</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1199,7 +2355,7 @@
         <v>2055</v>
       </c>
       <c r="B23">
-        <v>1.0973451757408972</v>
+        <v>0.98866604644315048</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1208,7 +2364,7 @@
         <v>2060</v>
       </c>
       <c r="B24">
-        <v>1.0872813125348022</v>
+        <v>0.98866604644315048</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1217,7 +2373,7 @@
         <v>2065</v>
       </c>
       <c r="B25">
-        <v>1.0771272765689535</v>
+        <v>0.98866604644315048</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1226,7 +2382,7 @@
         <v>2070</v>
       </c>
       <c r="B26">
-        <v>1.0675670741437686</v>
+        <v>0.98866604644315048</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1235,8 +2391,7 @@
         <v>2075</v>
       </c>
       <c r="B27">
-        <f>B26</f>
-        <v>1.0675670741437686</v>
+        <v>0.98866604644315048</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1245,8 +2400,7 @@
         <v>2080</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28:B38" si="1">B27</f>
-        <v>1.0675670741437686</v>
+        <v>0.98866604644315048</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1255,8 +2409,7 @@
         <v>2085</v>
       </c>
       <c r="B29">
-        <f t="shared" si="1"/>
-        <v>1.0675670741437686</v>
+        <v>0.98866604644315048</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1265,8 +2418,7 @@
         <v>2090</v>
       </c>
       <c r="B30">
-        <f t="shared" si="1"/>
-        <v>1.0675670741437686</v>
+        <v>0.98866604644315048</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1275,8 +2427,7 @@
         <v>2095</v>
       </c>
       <c r="B31">
-        <f t="shared" si="1"/>
-        <v>1.0675670741437686</v>
+        <v>0.98866604644315048</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1285,8 +2436,7 @@
         <v>2100</v>
       </c>
       <c r="B32">
-        <f t="shared" si="1"/>
-        <v>1.0675670741437686</v>
+        <v>0.98866604644315048</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1295,8 +2445,8 @@
         <v>2105</v>
       </c>
       <c r="B33">
-        <f t="shared" si="1"/>
-        <v>1.0675670741437686</v>
+        <f t="shared" ref="B33:B38" si="1">B32</f>
+        <v>0.98866604644315048</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1306,7 +2456,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
-        <v>1.0675670741437686</v>
+        <v>0.98866604644315048</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1316,7 +2466,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
-        <v>1.0675670741437686</v>
+        <v>0.98866604644315048</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1326,7 +2476,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
-        <v>1.0675670741437686</v>
+        <v>0.98866604644315048</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1336,7 +2486,7 @@
       </c>
       <c r="B37">
         <f t="shared" si="1"/>
-        <v>1.0675670741437686</v>
+        <v>0.98866604644315048</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1346,7 +2496,7 @@
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
-        <v>1.0675670741437686</v>
+        <v>0.98866604644315048</v>
       </c>
     </row>
   </sheetData>
@@ -1354,13 +2504,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1378,4 +2526,3852 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1950</v>
+      </c>
+      <c r="B2">
+        <v>1.5048400694489636</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1955</v>
+      </c>
+      <c r="B3">
+        <v>1.4592985137751266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>A3+5</f>
+        <v>1960</v>
+      </c>
+      <c r="B4">
+        <v>1.4080579729748428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" ref="A5:A32" si="0">A4+5</f>
+        <v>1965</v>
+      </c>
+      <c r="B5">
+        <v>1.4004004137345372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>1970</v>
+      </c>
+      <c r="B6">
+        <v>1.4096785008052279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>1975</v>
+      </c>
+      <c r="B7">
+        <v>1.405009215119043</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>1980</v>
+      </c>
+      <c r="B8">
+        <v>1.3945631437566703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>1985</v>
+      </c>
+      <c r="B9">
+        <v>1.3804509783620471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>1990</v>
+      </c>
+      <c r="B10">
+        <v>1.3541476552763243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>1995</v>
+      </c>
+      <c r="B11">
+        <v>1.2933926254374022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="B12">
+        <v>1.2470400291072312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>2005</v>
+      </c>
+      <c r="B13">
+        <v>1.212818965683067</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="B14">
+        <v>1.1781376958617369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="B15">
+        <v>1.1451209131073898</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="B16">
+        <v>1.1174308616674204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="B17">
+        <v>1.1005952170369069</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="B18">
+        <v>1.0814961281162232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="B19">
+        <v>1.0660639950811133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>2040</v>
+      </c>
+      <c r="B20">
+        <v>1.0550686734444716</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>2045</v>
+      </c>
+      <c r="B21">
+        <v>1.047550996535374</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>2050</v>
+      </c>
+      <c r="B22">
+        <v>1.0420267468539279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>2055</v>
+      </c>
+      <c r="B23">
+        <v>1.0371292659215032</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>2060</v>
+      </c>
+      <c r="B24">
+        <v>1.0315610740699328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>2065</v>
+      </c>
+      <c r="B25">
+        <v>1.0252033489176173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>2070</v>
+      </c>
+      <c r="B26">
+        <v>1.0187066847660389</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>2075</v>
+      </c>
+      <c r="B27">
+        <v>1.0187066847660389</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>2080</v>
+      </c>
+      <c r="B28">
+        <v>1.0187066847660389</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>2085</v>
+      </c>
+      <c r="B29">
+        <v>1.0187066847660389</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>2090</v>
+      </c>
+      <c r="B30">
+        <v>1.0187066847660389</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>2095</v>
+      </c>
+      <c r="B31">
+        <v>1.0187066847660389</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="B32">
+        <v>1.0187066847660389</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>A32+5</f>
+        <v>2105</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33:B38" si="1">B32</f>
+        <v>1.0187066847660389</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" ref="A34:A38" si="2">A33+5</f>
+        <v>2110</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>1.0187066847660389</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="2"/>
+        <v>2115</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>1.0187066847660389</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="2"/>
+        <v>2120</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>1.0187066847660389</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="2"/>
+        <v>2125</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>1.0187066847660389</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="2"/>
+        <v>2130</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>1.0187066847660389</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J173"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H33" sqref="H3:H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1950</v>
+      </c>
+      <c r="B3" s="4">
+        <v>17.017741999999998</v>
+      </c>
+      <c r="C3" s="5">
+        <v>148.28155000000001</v>
+      </c>
+      <c r="D3">
+        <f>B33/B3</f>
+        <v>1.6467991464437528</v>
+      </c>
+      <c r="E3">
+        <f>C33/C3</f>
+        <v>1.5048400694489636</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G17" ca="1" si="0">OFFSET(A$3,$J3,0)</f>
+        <v>1950</v>
+      </c>
+      <c r="H3">
+        <f ca="1">OFFSET(D$3,$J3,0)</f>
+        <v>1.6467991464437528</v>
+      </c>
+      <c r="I3" s="6">
+        <f ca="1">OFFSET(E$3,$J3,0)</f>
+        <v>1.5048400694489636</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>A3+1</f>
+        <v>1951</v>
+      </c>
+      <c r="B4" s="4">
+        <v>17.354611999999999</v>
+      </c>
+      <c r="C4" s="5">
+        <v>150.59845300000001</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:E4" si="1">B34/B4</f>
+        <v>1.6405601577263729</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>1.4983819787312158</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1955</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H15" ca="1" si="2">OFFSET(D$3,$J4,0)</f>
+        <v>1.6195721579640365</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" ref="I4:I17" ca="1" si="3">OFFSET(E$3,$J4,0)</f>
+        <v>1.4592985137751266</v>
+      </c>
+      <c r="J4">
+        <f>J3+5</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <f t="shared" ref="A5:A68" si="4">A4+1</f>
+        <v>1952</v>
+      </c>
+      <c r="B5" s="4">
+        <v>17.693853000000001</v>
+      </c>
+      <c r="C5" s="5">
+        <v>152.94172699999999</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:E5" si="5">B35/B5</f>
+        <v>1.6346220351214626</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="5"/>
+        <v>1.4907731426362147</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1960</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.6038362448195906</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.4080579729748428</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J33" si="6">J4+5</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <f t="shared" si="4"/>
+        <v>1953</v>
+      </c>
+      <c r="B6" s="4">
+        <v>18.03274</v>
+      </c>
+      <c r="C6" s="5">
+        <v>155.451199</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:E6" si="7">B36/B6</f>
+        <v>1.6291000147509476</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="7"/>
+        <v>1.4820726085232703</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1965</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.5845945033797333</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.4004004137345372</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <f t="shared" si="4"/>
+        <v>1954</v>
+      </c>
+      <c r="B7" s="4">
+        <v>18.369249</v>
+      </c>
+      <c r="C7" s="5">
+        <v>158.205873</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:E7" si="8">B37/B7</f>
+        <v>1.6240292131703371</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="8"/>
+        <v>1.471287225854125</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="0"/>
+        <v>1970</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.554799324559281</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.4096785008052279</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <f t="shared" si="4"/>
+        <v>1955</v>
+      </c>
+      <c r="B8" s="4">
+        <v>18.700686999999999</v>
+      </c>
+      <c r="C8" s="5">
+        <v>161.13645</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:E8" si="9">B38/B8</f>
+        <v>1.6195721579640365</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="9"/>
+        <v>1.4592985137751266</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1975</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.5099384326344409</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.405009215119043</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <f t="shared" si="4"/>
+        <v>1956</v>
+      </c>
+      <c r="B9" s="4">
+        <v>19.031192000000001</v>
+      </c>
+      <c r="C9" s="5">
+        <v>164.063412</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:E9" si="10">B39/B9</f>
+        <v>1.6156805627309103</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="10"/>
+        <v>1.4476889155517503</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1980</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.4665624232933949</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3945631437566703</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <f t="shared" si="4"/>
+        <v>1957</v>
+      </c>
+      <c r="B10" s="4">
+        <v>19.363786000000001</v>
+      </c>
+      <c r="C10" s="5">
+        <v>166.94912099999999</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:E10" si="11">B40/B10</f>
+        <v>1.6121048848608426</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="11"/>
+        <v>1.4366842278852132</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="0"/>
+        <v>1985</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.4282334347362007</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3804509783620471</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <f t="shared" si="4"/>
+        <v>1958</v>
+      </c>
+      <c r="B11" s="4">
+        <v>19.695352</v>
+      </c>
+      <c r="C11" s="5">
+        <v>170.14710099999999</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:E11" si="12">B41/B11</f>
+        <v>1.609049333060917</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="12"/>
+        <v>1.4239902565251465</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="0"/>
+        <v>1990</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.3798794441647573</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3541476552763243</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <f t="shared" si="4"/>
+        <v>1959</v>
+      </c>
+      <c r="B12" s="4">
+        <v>20.024525000000001</v>
+      </c>
+      <c r="C12" s="5">
+        <v>173.32460800000001</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:E12" si="13">B42/B12</f>
+        <v>1.6063185518757621</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="13"/>
+        <v>1.4132678378825467</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="0"/>
+        <v>1995</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.3259707589771794</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2933926254374022</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <f t="shared" si="4"/>
+        <v>1960</v>
+      </c>
+      <c r="B13" s="4">
+        <v>20.349744000000001</v>
+      </c>
+      <c r="C13" s="5">
+        <v>176.18857800000001</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:E13" si="14">B43/B13</f>
+        <v>1.6038362448195906</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="14"/>
+        <v>1.4080579729748428</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.286149595905389</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2470400291072312</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <f t="shared" si="4"/>
+        <v>1961</v>
+      </c>
+      <c r="B14" s="4">
+        <v>20.680653</v>
+      </c>
+      <c r="C14" s="5">
+        <v>179.087279</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:E14" si="15">B44/B14</f>
+        <v>1.6008083980713763</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="15"/>
+        <v>1.4046792737299896</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="0"/>
+        <v>2005</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2519153004974266</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.212818965683067</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <f t="shared" si="4"/>
+        <v>1962</v>
+      </c>
+      <c r="B15" s="4">
+        <v>21.02036</v>
+      </c>
+      <c r="C15" s="5">
+        <v>181.91780900000001</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:E15" si="16">B45/B15</f>
+        <v>1.5969415366815791</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="16"/>
+        <v>1.4026957580607184</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2168939007798101</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1781376958617369</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <f t="shared" si="4"/>
+        <v>1963</v>
+      </c>
+      <c r="B16" s="4">
+        <v>21.364017</v>
+      </c>
+      <c r="C16" s="5">
+        <v>184.64987400000001</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:E16" si="17">B46/B16</f>
+        <v>1.5927360477198647</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="17"/>
+        <v>1.4014618499008562</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" ref="H16:H17" ca="1" si="18">OFFSET(D$3,$J16,0)</f>
+        <v>1.1772593869403902</v>
+      </c>
+      <c r="I16" s="6">
+        <f ca="1">OFFSET(E$3,$J16,0)</f>
+        <v>1.1451209131073898</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="6"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <f t="shared" si="4"/>
+        <v>1964</v>
+      </c>
+      <c r="B17" s="4">
+        <v>21.708487000000002</v>
+      </c>
+      <c r="C17" s="5">
+        <v>187.277379</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:E17" si="19">B47/B17</f>
+        <v>1.588719471789996</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="19"/>
+        <v>1.4004552519928208</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" ca="1" si="18"/>
+        <v>1.1462194315875787</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1174308616674204</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <f t="shared" si="4"/>
+        <v>1965</v>
+      </c>
+      <c r="B18" s="4">
+        <v>22.053661000000002</v>
+      </c>
+      <c r="C18" s="5">
+        <v>189.703283</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:E18" si="20">B48/B18</f>
+        <v>1.5845945033797333</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="20"/>
+        <v>1.4004004137345372</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" ref="G18:G33" ca="1" si="21">OFFSET(A$3,$J18,0)</f>
+        <v>2025</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" ref="H18:H23" ca="1" si="22">OFFSET(D$3,$J18,0)</f>
+        <v>1.123669005160397</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" ref="I18:I23" ca="1" si="23">OFFSET(E$3,$J18,0)</f>
+        <v>1.1005952170369069</v>
+      </c>
+      <c r="J18" s="6">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <f t="shared" si="4"/>
+        <v>1966</v>
+      </c>
+      <c r="B19" s="4">
+        <v>22.403116000000001</v>
+      </c>
+      <c r="C19" s="5">
+        <v>191.830975</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19:E19" si="24">B49/B19</f>
+        <v>1.5796624898072213</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="24"/>
+        <v>1.4021945517401453</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>2030</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" ca="1" si="22"/>
+        <v>1.0962117543774024</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" ca="1" si="23"/>
+        <v>1.0814961281162232</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <f t="shared" si="4"/>
+        <v>1967</v>
+      </c>
+      <c r="B20" s="4">
+        <v>22.757014000000002</v>
+      </c>
+      <c r="C20" s="5">
+        <v>193.78243800000001</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20:E20" si="25">B50/B20</f>
+        <v>1.5738431676493232</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="25"/>
+        <v>1.4056766021284137</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>2035</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" ca="1" si="22"/>
+        <v>1.0681295128378863</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" ca="1" si="23"/>
+        <v>1.0660639950811133</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" si="6"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <f t="shared" si="4"/>
+        <v>1968</v>
+      </c>
+      <c r="B21" s="4">
+        <v>23.112971000000002</v>
+      </c>
+      <c r="C21" s="5">
+        <v>195.74342799999999</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:E21" si="26">B51/B21</f>
+        <v>1.5676563173120408</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="26"/>
+        <v>1.4091661764501233</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>2040</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" ca="1" si="22"/>
+        <v>1.04026415225396</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" ca="1" si="23"/>
+        <v>1.0550686734444716</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <f t="shared" si="4"/>
+        <v>1969</v>
+      </c>
+      <c r="B22" s="4">
+        <v>23.472028000000002</v>
+      </c>
+      <c r="C22" s="5">
+        <v>197.859329</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22:E22" si="27">B52/B22</f>
+        <v>1.5615621709381053</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="27"/>
+        <v>1.4110104558173246</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>2045</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" ca="1" si="22"/>
+        <v>1.0135529285571681</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" ca="1" si="23"/>
+        <v>1.047550996535374</v>
+      </c>
+      <c r="J22" s="6">
+        <f t="shared" si="6"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <f t="shared" si="4"/>
+        <v>1970</v>
+      </c>
+      <c r="B23" s="4">
+        <v>23.842803</v>
+      </c>
+      <c r="C23" s="5">
+        <v>200.32834</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:E23" si="28">B53/B23</f>
+        <v>1.554799324559281</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="28"/>
+        <v>1.4096785008052279</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>2050</v>
+      </c>
+      <c r="H23" s="6">
+        <f t="shared" ca="1" si="22"/>
+        <v>0.98866604644315048</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" ca="1" si="23"/>
+        <v>1.0420267468539279</v>
+      </c>
+      <c r="J23" s="6">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <f t="shared" si="4"/>
+        <v>1971</v>
+      </c>
+      <c r="B24" s="4">
+        <v>24.223379000000001</v>
+      </c>
+      <c r="C24" s="5">
+        <v>202.907917</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24:E24" si="29">B54/B24</f>
+        <v>1.5472859092036664</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="29"/>
+        <v>1.4068967747571919</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>2055</v>
+      </c>
+      <c r="H24" s="6">
+        <f ca="1">H23</f>
+        <v>0.98866604644315048</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" ref="I24:I33" ca="1" si="30">I23</f>
+        <v>1.0420267468539279</v>
+      </c>
+      <c r="J24" s="6">
+        <f t="shared" si="6"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <f t="shared" si="4"/>
+        <v>1972</v>
+      </c>
+      <c r="B25" s="4">
+        <v>24.612794000000001</v>
+      </c>
+      <c r="C25" s="5">
+        <v>205.23839000000001</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25:E25" si="31">B55/B25</f>
+        <v>1.5392412580221488</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="31"/>
+        <v>1.4049528063438814</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>2060</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" ref="H25:H33" ca="1" si="32">H24</f>
+        <v>0.98866604644315048</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" ca="1" si="30"/>
+        <v>1.0420267468539279</v>
+      </c>
+      <c r="J25" s="6">
+        <f t="shared" si="6"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <f t="shared" si="4"/>
+        <v>1973</v>
+      </c>
+      <c r="B26" s="4">
+        <v>25.020588</v>
+      </c>
+      <c r="C26" s="5">
+        <v>207.31476499999999</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:E26" si="33">B56/B26</f>
+        <v>1.5298666841882371</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="33"/>
+        <v>1.4041924172646363</v>
+      </c>
+      <c r="G26" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>2065</v>
+      </c>
+      <c r="H26" s="6">
+        <f t="shared" ca="1" si="32"/>
+        <v>0.98866604644315048</v>
+      </c>
+      <c r="I26" s="6">
+        <f t="shared" ca="1" si="30"/>
+        <v>1.0420267468539279</v>
+      </c>
+      <c r="J26" s="6">
+        <f t="shared" si="6"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <f t="shared" si="4"/>
+        <v>1974</v>
+      </c>
+      <c r="B27" s="4">
+        <v>25.449755</v>
+      </c>
+      <c r="C27" s="5">
+        <v>209.27796900000001</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27:E27" si="34">B57/B27</f>
+        <v>1.5194172596160551</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="34"/>
+        <v>1.4045811291297459</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>2070</v>
+      </c>
+      <c r="H27" s="6">
+        <f t="shared" ca="1" si="32"/>
+        <v>0.98866604644315048</v>
+      </c>
+      <c r="I27" s="6">
+        <f t="shared" ca="1" si="30"/>
+        <v>1.0420267468539279</v>
+      </c>
+      <c r="J27" s="6">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <f t="shared" si="4"/>
+        <v>1975</v>
+      </c>
+      <c r="B28" s="4">
+        <v>25.875558999999999</v>
+      </c>
+      <c r="C28" s="5">
+        <v>211.27453600000001</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:E28" si="35">B58/B28</f>
+        <v>1.5099384326344409</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="35"/>
+        <v>1.405009215119043</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>2075</v>
+      </c>
+      <c r="H28" s="6">
+        <f t="shared" ca="1" si="32"/>
+        <v>0.98866604644315048</v>
+      </c>
+      <c r="I28" s="6">
+        <f t="shared" ca="1" si="30"/>
+        <v>1.0420267468539279</v>
+      </c>
+      <c r="J28" s="6">
+        <f t="shared" si="6"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <f t="shared" si="4"/>
+        <v>1976</v>
+      </c>
+      <c r="B29" s="4">
+        <v>26.290257</v>
+      </c>
+      <c r="C29" s="5">
+        <v>213.27002200000001</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:E29" si="36">B59/B29</f>
+        <v>1.5015772192717631</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="36"/>
+        <v>1.4055097626425903</v>
+      </c>
+      <c r="G29" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>2080</v>
+      </c>
+      <c r="H29" s="6">
+        <f t="shared" ca="1" si="32"/>
+        <v>0.98866604644315048</v>
+      </c>
+      <c r="I29" s="6">
+        <f t="shared" ca="1" si="30"/>
+        <v>1.0420267468539279</v>
+      </c>
+      <c r="J29" s="6">
+        <f t="shared" si="6"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <f t="shared" si="4"/>
+        <v>1977</v>
+      </c>
+      <c r="B30" s="4">
+        <v>26.71378</v>
+      </c>
+      <c r="C30" s="5">
+        <v>215.43740600000001</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ref="D30:E30" si="37">B60/B30</f>
+        <v>1.4927169423421169</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="37"/>
+        <v>1.4052499267467042</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>2085</v>
+      </c>
+      <c r="H30" s="6">
+        <f t="shared" ca="1" si="32"/>
+        <v>0.98866604644315048</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" ca="1" si="30"/>
+        <v>1.0420267468539279</v>
+      </c>
+      <c r="J30" s="6">
+        <f t="shared" si="6"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <f t="shared" si="4"/>
+        <v>1978</v>
+      </c>
+      <c r="B31" s="4">
+        <v>27.146121000000001</v>
+      </c>
+      <c r="C31" s="5">
+        <v>217.88143700000001</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:E31" si="38">B61/B31</f>
+        <v>1.4835920388036288</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="38"/>
+        <v>1.4030332928270526</v>
+      </c>
+      <c r="G31" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>2090</v>
+      </c>
+      <c r="H31" s="6">
+        <f t="shared" ca="1" si="32"/>
+        <v>0.98866604644315048</v>
+      </c>
+      <c r="I31" s="6">
+        <f t="shared" ca="1" si="30"/>
+        <v>1.0420267468539279</v>
+      </c>
+      <c r="J31" s="6">
+        <f t="shared" si="6"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <f t="shared" si="4"/>
+        <v>1979</v>
+      </c>
+      <c r="B32" s="4">
+        <v>27.584133999999999</v>
+      </c>
+      <c r="C32" s="5">
+        <v>220.46311499999999</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:E32" si="39">B62/B32</f>
+        <v>1.4749181177846657</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="39"/>
+        <v>1.3993816425935923</v>
+      </c>
+      <c r="G32" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>2095</v>
+      </c>
+      <c r="H32" s="6">
+        <f t="shared" ca="1" si="32"/>
+        <v>0.98866604644315048</v>
+      </c>
+      <c r="I32" s="6">
+        <f t="shared" ca="1" si="30"/>
+        <v>1.0420267468539279</v>
+      </c>
+      <c r="J32" s="6">
+        <f t="shared" si="6"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <f t="shared" si="4"/>
+        <v>1980</v>
+      </c>
+      <c r="B33" s="4">
+        <v>28.024802999999999</v>
+      </c>
+      <c r="C33" s="5">
+        <v>223.140018</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33:E33" si="40">B63/B33</f>
+        <v>1.4665624232933949</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="40"/>
+        <v>1.3945631437566703</v>
+      </c>
+      <c r="G33" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>2100</v>
+      </c>
+      <c r="H33" s="6">
+        <f t="shared" ca="1" si="32"/>
+        <v>0.98866604644315048</v>
+      </c>
+      <c r="I33" s="6">
+        <f t="shared" ca="1" si="30"/>
+        <v>1.0420267468539279</v>
+      </c>
+      <c r="J33" s="6">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <f t="shared" si="4"/>
+        <v>1981</v>
+      </c>
+      <c r="B34" s="4">
+        <v>28.471285000000002</v>
+      </c>
+      <c r="C34" s="5">
+        <v>225.654008</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ref="D34:E34" si="41">B64/B34</f>
+        <v>1.458337409077251</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="41"/>
+        <v>1.3909640328657489</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <f t="shared" si="4"/>
+        <v>1982</v>
+      </c>
+      <c r="B35" s="4">
+        <v>28.922761999999999</v>
+      </c>
+      <c r="C35" s="5">
+        <v>228.001419</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ref="D35:E35" si="42">B65/B35</f>
+        <v>1.4504964982251696</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="42"/>
+        <v>1.3888129398001685</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <f t="shared" si="4"/>
+        <v>1983</v>
+      </c>
+      <c r="B36" s="4">
+        <v>29.377137000000001</v>
+      </c>
+      <c r="C36" s="5">
+        <v>230.38996399999999</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ref="D36:E36" si="43">B66/B36</f>
+        <v>1.442899932692556</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="43"/>
+        <v>1.38623731891377</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <f t="shared" si="4"/>
+        <v>1984</v>
+      </c>
+      <c r="B37" s="4">
+        <v>29.832197000000001</v>
+      </c>
+      <c r="C37" s="5">
+        <v>232.76627999999999</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37:E37" si="44">B67/B37</f>
+        <v>1.4354978280681103</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="44"/>
+        <v>1.3835078001848036</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <f t="shared" si="4"/>
+        <v>1985</v>
+      </c>
+      <c r="B38" s="4">
+        <v>30.287112</v>
+      </c>
+      <c r="C38" s="5">
+        <v>235.14618200000001</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38:E38" si="45">B68/B38</f>
+        <v>1.4282334347362007</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="45"/>
+        <v>1.3804509783620471</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <f t="shared" si="4"/>
+        <v>1986</v>
+      </c>
+      <c r="B39" s="4">
+        <v>30.748327</v>
+      </c>
+      <c r="C39" s="5">
+        <v>237.51278300000001</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39:E39" si="46">B69/B39</f>
+        <v>1.4201826980700445</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="46"/>
+        <v>1.3776529998387497</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <f t="shared" si="4"/>
+        <v>1987</v>
+      </c>
+      <c r="B40" s="4">
+        <v>31.216453999999999</v>
+      </c>
+      <c r="C40" s="5">
+        <v>239.85316900000001</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40:E40" si="47">B70/B40</f>
+        <v>1.411262662953326</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="47"/>
+        <v>1.3749713308978626</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <f t="shared" si="4"/>
+        <v>1988</v>
+      </c>
+      <c r="B41" s="4">
+        <v>31.690792999999999</v>
+      </c>
+      <c r="C41" s="5">
+        <v>242.287814</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41:E41" si="48">B71/B41</f>
+        <v>1.4014668550578713</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="48"/>
+        <v>1.3708491257426592</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <f t="shared" si="4"/>
+        <v>1989</v>
+      </c>
+      <c r="B42" s="4">
+        <v>32.165765999999998</v>
+      </c>
+      <c r="C42" s="5">
+        <v>244.954094</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42:E42" si="49">B72/B42</f>
+        <v>1.3910913857919629</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="49"/>
+        <v>1.3648258150770081</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <f t="shared" si="4"/>
+        <v>1990</v>
+      </c>
+      <c r="B43" s="4">
+        <v>32.637656999999997</v>
+      </c>
+      <c r="C43" s="5">
+        <v>248.083732</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43:E43" si="50">B73/B43</f>
+        <v>1.3798794441647573</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="50"/>
+        <v>1.3541476552763243</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <f t="shared" si="4"/>
+        <v>1991</v>
+      </c>
+      <c r="B44" s="4">
+        <v>33.105763000000003</v>
+      </c>
+      <c r="C44" s="5">
+        <v>251.56018900000001</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ref="D44:E44" si="51">B74/B44</f>
+        <v>1.3676404316674411</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="51"/>
+        <v>1.3396301908486798</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="J44" s="6"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <f t="shared" si="4"/>
+        <v>1992</v>
+      </c>
+      <c r="B45" s="4">
+        <v>33.568286000000001</v>
+      </c>
+      <c r="C45" s="5">
+        <v>255.17533900000001</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45:E45" si="52">B75/B45</f>
+        <v>1.3557534036739318</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="52"/>
+        <v>1.325715323141003</v>
+      </c>
+      <c r="G45" s="6"/>
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <f t="shared" si="4"/>
+        <v>1993</v>
+      </c>
+      <c r="B46" s="4">
+        <v>34.027239999999999</v>
+      </c>
+      <c r="C46" s="5">
+        <v>258.77975400000003</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46:E46" si="53">B76/B46</f>
+        <v>1.3452129529165457</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="53"/>
+        <v>1.3138453018237275</v>
+      </c>
+      <c r="G46" s="6"/>
+      <c r="J46" s="6"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <f t="shared" si="4"/>
+        <v>1994</v>
+      </c>
+      <c r="B47" s="4">
+        <v>34.488695999999997</v>
+      </c>
+      <c r="C47" s="5">
+        <v>262.27358900000002</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ref="D47:E47" si="54">B77/B47</f>
+        <v>1.3354482001870991</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="54"/>
+        <v>1.3032742690687011</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="J47" s="6"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <f t="shared" si="4"/>
+        <v>1995</v>
+      </c>
+      <c r="B48" s="4">
+        <v>34.946109999999997</v>
+      </c>
+      <c r="C48" s="5">
+        <v>265.66055599999999</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ref="D48:E48" si="55">B78/B48</f>
+        <v>1.3259707589771794</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="55"/>
+        <v>1.2933926254374022</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="J48" s="6"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <f t="shared" si="4"/>
+        <v>1996</v>
+      </c>
+      <c r="B49" s="4">
+        <v>35.389361999999998</v>
+      </c>
+      <c r="C49" s="5">
+        <v>268.98434800000001</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ref="D49:E49" si="56">B79/B49</f>
+        <v>1.3171612135872921</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="56"/>
+        <v>1.2839592324531834</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="J49" s="6"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <f t="shared" si="4"/>
+        <v>1997</v>
+      </c>
+      <c r="B50" s="4">
+        <v>35.815970999999998</v>
+      </c>
+      <c r="C50" s="5">
+        <v>272.39543900000001</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ref="D50:E50" si="57">B80/B50</f>
+        <v>1.3090796281915686</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="57"/>
+        <v>1.2742440265308552</v>
+      </c>
+      <c r="G50" s="6"/>
+      <c r="J50" s="6"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <f t="shared" si="4"/>
+        <v>1998</v>
+      </c>
+      <c r="B51" s="4">
+        <v>36.233195000000002</v>
+      </c>
+      <c r="C51" s="5">
+        <v>275.83501799999999</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ref="D51:E51" si="58">B81/B51</f>
+        <v>1.3014156217799726</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="58"/>
+        <v>1.2645415818813839</v>
+      </c>
+      <c r="G51" s="6"/>
+      <c r="J51" s="6"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <f t="shared" si="4"/>
+        <v>1999</v>
+      </c>
+      <c r="B52" s="4">
+        <v>36.653030999999999</v>
+      </c>
+      <c r="C52" s="5">
+        <v>279.18158199999999</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ref="D52:E52" si="59">B82/B52</f>
+        <v>1.293715654784457</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="59"/>
+        <v>1.2554314274213119</v>
+      </c>
+      <c r="G52" s="6"/>
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="B53" s="4">
+        <v>37.070774</v>
+      </c>
+      <c r="C53" s="5">
+        <v>282.39855399999999</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ref="D53:E53" si="60">B83/B53</f>
+        <v>1.286149595905389</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="60"/>
+        <v>1.2470400291072312</v>
+      </c>
+      <c r="G53" s="6"/>
+      <c r="J53" s="6"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <f t="shared" si="4"/>
+        <v>2001</v>
+      </c>
+      <c r="B54" s="4">
+        <v>37.480493000000003</v>
+      </c>
+      <c r="C54" s="5">
+        <v>285.47049399999997</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ref="D54:E54" si="61">B84/B54</f>
+        <v>1.2788924628072529</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="61"/>
+        <v>1.239367925709338</v>
+      </c>
+      <c r="G54" s="6"/>
+      <c r="J54" s="6"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <f t="shared" si="4"/>
+        <v>2002</v>
+      </c>
+      <c r="B55" s="4">
+        <v>37.885027999999998</v>
+      </c>
+      <c r="C55" s="5">
+        <v>288.35025200000001</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ref="D55:E55" si="62">B85/B55</f>
+        <v>1.2718553355695026</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="62"/>
+        <v>1.2325711440682214</v>
+      </c>
+      <c r="G55" s="6"/>
+      <c r="J55" s="6"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <f t="shared" si="4"/>
+        <v>2003</v>
+      </c>
+      <c r="B56" s="4">
+        <v>38.278163999999997</v>
+      </c>
+      <c r="C56" s="5">
+        <v>291.10982100000001</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ref="D56:E56" si="63">B86/B56</f>
+        <v>1.2652530042976984</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="63"/>
+        <v>1.2263105991192238</v>
+      </c>
+      <c r="G56" s="6"/>
+      <c r="J56" s="6"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <f t="shared" si="4"/>
+        <v>2004</v>
+      </c>
+      <c r="B57" s="4">
+        <v>38.668796999999998</v>
+      </c>
+      <c r="C57" s="5">
+        <v>293.94788599999998</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ref="D57:E57" si="64">B87/B57</f>
+        <v>1.2587578299888666</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="64"/>
+        <v>1.2197018351749602</v>
+      </c>
+      <c r="G57" s="6"/>
+      <c r="J57" s="6"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <f t="shared" si="4"/>
+        <v>2005</v>
+      </c>
+      <c r="B58" s="4">
+        <v>39.070501</v>
+      </c>
+      <c r="C58" s="5">
+        <v>296.84267</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ref="D58:E58" si="65">B88/B58</f>
+        <v>1.2519153004974266</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="65"/>
+        <v>1.212818965683067</v>
+      </c>
+      <c r="G58" s="6"/>
+      <c r="J58" s="6"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <f t="shared" si="4"/>
+        <v>2006</v>
+      </c>
+      <c r="B59" s="4">
+        <v>39.476851000000003</v>
+      </c>
+      <c r="C59" s="5">
+        <v>299.75309800000002</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ref="D59:E59" si="66">B89/B59</f>
+        <v>1.2449284518666393</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="66"/>
+        <v>1.2058476673358685</v>
+      </c>
+      <c r="G59" s="6"/>
+      <c r="J59" s="6"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <f t="shared" si="4"/>
+        <v>2007</v>
+      </c>
+      <c r="B60" s="4">
+        <v>39.876111999999999</v>
+      </c>
+      <c r="C60" s="5">
+        <v>302.74339900000001</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ref="D60:E60" si="67">B90/B60</f>
+        <v>1.2381779848546921</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="67"/>
+        <v>1.1985127973013212</v>
+      </c>
+      <c r="G60" s="6"/>
+      <c r="J60" s="6"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
+        <f t="shared" si="4"/>
+        <v>2008</v>
+      </c>
+      <c r="B61" s="4">
+        <v>40.273769000000001</v>
+      </c>
+      <c r="C61" s="5">
+        <v>305.69490999999999</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ref="D61:E61" si="68">B91/B61</f>
+        <v>1.2314509228078454</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="68"/>
+        <v>1.1912569103620338</v>
+      </c>
+      <c r="G61" s="6"/>
+      <c r="J61" s="6"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
+        <f t="shared" si="4"/>
+        <v>2009</v>
+      </c>
+      <c r="B62" s="4">
+        <v>40.684339000000001</v>
+      </c>
+      <c r="C62" s="5">
+        <v>308.51203600000002</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ref="D62:E62" si="69">B92/B62</f>
+        <v>1.2242685815787739</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="69"/>
+        <v>1.1844622489866163</v>
+      </c>
+      <c r="G62" s="6"/>
+      <c r="J62" s="6"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
+        <f t="shared" si="4"/>
+        <v>2010</v>
+      </c>
+      <c r="B63" s="4">
+        <v>41.100123000000004</v>
+      </c>
+      <c r="C63" s="5">
+        <v>311.18284499999999</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ref="D63:E78" si="70">B93/B63</f>
+        <v>1.2168939007798101</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="70"/>
+        <v>1.1781376958617369</v>
+      </c>
+      <c r="G63" s="6"/>
+      <c r="J63" s="6"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <f t="shared" si="4"/>
+        <v>2011</v>
+      </c>
+      <c r="B64" s="4">
+        <v>41.520740000000004</v>
+      </c>
+      <c r="C64" s="5">
+        <v>313.87660899999997</v>
+      </c>
+      <c r="D64" s="6">
+        <f t="shared" si="70"/>
+        <v>1.2093457149366797</v>
+      </c>
+      <c r="E64" s="6">
+        <f t="shared" si="70"/>
+        <v>1.1716368421706762</v>
+      </c>
+      <c r="G64" s="6"/>
+      <c r="J64" s="6"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
+        <f t="shared" si="4"/>
+        <v>2012</v>
+      </c>
+      <c r="B65" s="4">
+        <v>41.952365</v>
+      </c>
+      <c r="C65" s="5">
+        <v>316.651321</v>
+      </c>
+      <c r="D65" s="6">
+        <f t="shared" si="70"/>
+        <v>1.2014289778418927</v>
+      </c>
+      <c r="E65" s="6">
+        <f t="shared" si="70"/>
+        <v>1.164789715183282</v>
+      </c>
+      <c r="G65" s="6"/>
+      <c r="J65" s="6"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
+        <f t="shared" si="4"/>
+        <v>2013</v>
+      </c>
+      <c r="B66" s="4">
+        <v>42.388269000000001</v>
+      </c>
+      <c r="C66" s="5">
+        <v>319.37516599999998</v>
+      </c>
+      <c r="D66" s="6">
+        <f t="shared" si="70"/>
+        <v>1.1933685473214297</v>
+      </c>
+      <c r="E66" s="6">
+        <f t="shared" si="70"/>
+        <v>1.1580519976935215</v>
+      </c>
+      <c r="G66" s="6"/>
+      <c r="J66" s="6"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <f t="shared" si="4"/>
+        <v>2014</v>
+      </c>
+      <c r="B67" s="4">
+        <v>42.824053999999997</v>
+      </c>
+      <c r="C67" s="5">
+        <v>322.03396400000003</v>
+      </c>
+      <c r="D67" s="6">
+        <f t="shared" si="70"/>
+        <v>1.1852955350747505</v>
+      </c>
+      <c r="E67" s="6">
+        <f t="shared" si="70"/>
+        <v>1.1514789663614486</v>
+      </c>
+      <c r="G67" s="6"/>
+      <c r="J67" s="6"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
+        <f t="shared" si="4"/>
+        <v>2015</v>
+      </c>
+      <c r="B68" s="4">
+        <v>43.257066000000002</v>
+      </c>
+      <c r="C68" s="5">
+        <v>324.607777</v>
+      </c>
+      <c r="D68" s="6">
+        <f t="shared" si="70"/>
+        <v>1.1772593869403902</v>
+      </c>
+      <c r="E68" s="6">
+        <f t="shared" si="70"/>
+        <v>1.1451209131073898</v>
+      </c>
+      <c r="G68" s="6"/>
+      <c r="J68" s="6"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <f t="shared" ref="A69:A132" si="71">A68+1</f>
+        <v>2016</v>
+      </c>
+      <c r="B69" s="4">
+        <v>43.668241999999999</v>
+      </c>
+      <c r="C69" s="5">
+        <v>327.21019799999999</v>
+      </c>
+      <c r="D69" s="6">
+        <f t="shared" si="70"/>
+        <v>1.1697726233174213</v>
+      </c>
+      <c r="E69" s="6">
+        <f t="shared" si="70"/>
+        <v>1.1385706108096301</v>
+      </c>
+      <c r="G69" s="6"/>
+      <c r="J69" s="6"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
+        <f t="shared" si="71"/>
+        <v>2017</v>
+      </c>
+      <c r="B70" s="4">
+        <v>44.054616000000003</v>
+      </c>
+      <c r="C70" s="5">
+        <v>329.79123099999998</v>
+      </c>
+      <c r="D70" s="6">
+        <f t="shared" si="70"/>
+        <v>1.1629036557712815</v>
+      </c>
+      <c r="E70" s="6">
+        <f t="shared" si="70"/>
+        <v>1.1320360819417907</v>
+      </c>
+      <c r="G70" s="6"/>
+      <c r="J70" s="6"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
+        <f t="shared" si="71"/>
+        <v>2018</v>
+      </c>
+      <c r="B71" s="4">
+        <v>44.413595999999998</v>
+      </c>
+      <c r="C71" s="5">
+        <v>332.140038</v>
+      </c>
+      <c r="D71" s="6">
+        <f t="shared" si="70"/>
+        <v>1.1566637387344181</v>
+      </c>
+      <c r="E71" s="6">
+        <f t="shared" si="70"/>
+        <v>1.1262240055503334</v>
+      </c>
+      <c r="G71" s="6"/>
+      <c r="J71" s="6"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
+        <f t="shared" si="71"/>
+        <v>2019</v>
+      </c>
+      <c r="B72" s="4">
+        <v>44.745519999999999</v>
+      </c>
+      <c r="C72" s="5">
+        <v>334.31967100000003</v>
+      </c>
+      <c r="D72" s="6">
+        <f t="shared" si="70"/>
+        <v>1.1509827352548367</v>
+      </c>
+      <c r="E72" s="6">
+        <f t="shared" si="70"/>
+        <v>1.1209319148917205</v>
+      </c>
+      <c r="G72" s="6"/>
+      <c r="J72" s="6"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <f t="shared" si="71"/>
+        <v>2020</v>
+      </c>
+      <c r="B73" s="4">
+        <v>45.036031999999999</v>
+      </c>
+      <c r="C73" s="5">
+        <v>335.942004</v>
+      </c>
+      <c r="D73" s="6">
+        <f t="shared" si="70"/>
+        <v>1.1462194315875787</v>
+      </c>
+      <c r="E73" s="6">
+        <f t="shared" si="70"/>
+        <v>1.1174308616674204</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
+        <f t="shared" si="71"/>
+        <v>2021</v>
+      </c>
+      <c r="B74" s="4">
+        <v>45.276780000000002</v>
+      </c>
+      <c r="C74" s="5">
+        <v>336.99762399999997</v>
+      </c>
+      <c r="D74" s="6">
+        <f t="shared" si="70"/>
+        <v>1.1425490063560173</v>
+      </c>
+      <c r="E74" s="6">
+        <f t="shared" si="70"/>
+        <v>1.1156990026730871</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="6">
+        <f t="shared" si="71"/>
+        <v>2022</v>
+      </c>
+      <c r="B75" s="4">
+        <v>45.510317999999998</v>
+      </c>
+      <c r="C75" s="5">
+        <v>338.28985699999998</v>
+      </c>
+      <c r="D75" s="6">
+        <f t="shared" si="70"/>
+        <v>1.138878682412195</v>
+      </c>
+      <c r="E75" s="6">
+        <f t="shared" si="70"/>
+        <v>1.1131136190110482</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="6">
+        <f t="shared" si="71"/>
+        <v>2023</v>
+      </c>
+      <c r="B76" s="4">
+        <v>45.773884000000002</v>
+      </c>
+      <c r="C76" s="5">
+        <v>339.99656399999998</v>
+      </c>
+      <c r="D76" s="6">
+        <f t="shared" si="70"/>
+        <v>1.134272175810993</v>
+      </c>
+      <c r="E76" s="6">
+        <f t="shared" si="70"/>
+        <v>1.1091345205476841</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <f t="shared" si="71"/>
+        <v>2024</v>
+      </c>
+      <c r="B77" s="4">
+        <v>46.057867000000002</v>
+      </c>
+      <c r="C77" s="5">
+        <v>341.81441999999998</v>
+      </c>
+      <c r="D77" s="6">
+        <f t="shared" si="70"/>
+        <v>1.1289984401578996</v>
+      </c>
+      <c r="E77" s="6">
+        <f t="shared" si="70"/>
+        <v>1.1048042180315272</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <f t="shared" si="71"/>
+        <v>2025</v>
+      </c>
+      <c r="B78" s="4">
+        <v>46.337519999999998</v>
+      </c>
+      <c r="C78" s="5">
+        <v>343.60340400000001</v>
+      </c>
+      <c r="D78" s="6">
+        <f t="shared" si="70"/>
+        <v>1.123669005160397</v>
+      </c>
+      <c r="E78" s="6">
+        <f t="shared" si="70"/>
+        <v>1.1005952170369069</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
+        <f t="shared" si="71"/>
+        <v>2026</v>
+      </c>
+      <c r="B79" s="4">
+        <v>46.613495</v>
+      </c>
+      <c r="C79" s="5">
+        <v>345.364937</v>
+      </c>
+      <c r="D79" s="6">
+        <f t="shared" ref="D79:E123" si="72">B109/B79</f>
+        <v>1.1182741821869397</v>
+      </c>
+      <c r="E79" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0965124638579047</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
+        <f t="shared" si="71"/>
+        <v>2027</v>
+      </c>
+      <c r="B80" s="4">
+        <v>46.885958000000002</v>
+      </c>
+      <c r="C80" s="5">
+        <v>347.09826099999998</v>
+      </c>
+      <c r="D80" s="6">
+        <f t="shared" si="72"/>
+        <v>1.1128297303853747</v>
+      </c>
+      <c r="E80" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0925731921197959</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
+        <f t="shared" si="71"/>
+        <v>2028</v>
+      </c>
+      <c r="B81" s="4">
+        <v>47.154446</v>
+      </c>
+      <c r="C81" s="5">
+        <v>348.80484999999999</v>
+      </c>
+      <c r="D81" s="6">
+        <f t="shared" si="72"/>
+        <v>1.1073270164174975</v>
+      </c>
+      <c r="E81" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0887668907126722</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
+        <f t="shared" si="71"/>
+        <v>2029</v>
+      </c>
+      <c r="B82" s="4">
+        <v>47.418599999999998</v>
+      </c>
+      <c r="C82" s="5">
+        <v>350.49333200000001</v>
+      </c>
+      <c r="D82" s="6">
+        <f t="shared" si="72"/>
+        <v>1.1017829501503629</v>
+      </c>
+      <c r="E82" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0850722404042767</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <f t="shared" si="71"/>
+        <v>2030</v>
+      </c>
+      <c r="B83" s="4">
+        <v>47.678561000000002</v>
+      </c>
+      <c r="C83" s="5">
+        <v>352.16230100000001</v>
+      </c>
+      <c r="D83" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0962117543774024</v>
+      </c>
+      <c r="E83" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0814961281162232</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
+        <f t="shared" si="71"/>
+        <v>2031</v>
+      </c>
+      <c r="B84" s="4">
+        <v>47.933520000000001</v>
+      </c>
+      <c r="C84" s="5">
+        <v>353.80297400000001</v>
+      </c>
+      <c r="D84" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0906315246616565</v>
+      </c>
+      <c r="E84" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0780641318181796</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
+        <f t="shared" si="71"/>
+        <v>2032</v>
+      </c>
+      <c r="B85" s="4">
+        <v>48.184275</v>
+      </c>
+      <c r="C85" s="5">
+        <v>355.41219999999998</v>
+      </c>
+      <c r="D85" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0850232155615083</v>
+      </c>
+      <c r="E85" s="6">
+        <f t="shared" si="72"/>
+        <v>1.074795654172817</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
+        <f t="shared" si="71"/>
+        <v>2033</v>
+      </c>
+      <c r="B86" s="4">
+        <v>48.431562</v>
+      </c>
+      <c r="C86" s="5">
+        <v>356.99105900000001</v>
+      </c>
+      <c r="D86" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0793905841814477</v>
+      </c>
+      <c r="E86" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0716988292975707</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="6">
+        <f t="shared" si="71"/>
+        <v>2034</v>
+      </c>
+      <c r="B87" s="4">
+        <v>48.674650999999997</v>
+      </c>
+      <c r="C87" s="5">
+        <v>358.52877599999999</v>
+      </c>
+      <c r="D87" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0737507496458476</v>
+      </c>
+      <c r="E87" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0687878844068015</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="6">
+        <f t="shared" si="71"/>
+        <v>2035</v>
+      </c>
+      <c r="B88" s="4">
+        <v>48.912958000000003</v>
+      </c>
+      <c r="C88" s="5">
+        <v>360.01641999999998</v>
+      </c>
+      <c r="D88" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0681295128378863</v>
+      </c>
+      <c r="E88" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0660639950811133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="6">
+        <f t="shared" si="71"/>
+        <v>2036</v>
+      </c>
+      <c r="B89" s="4">
+        <v>49.145854999999997</v>
+      </c>
+      <c r="C89" s="5">
+        <v>361.45657399999999</v>
+      </c>
+      <c r="D89" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0625158113537756</v>
+      </c>
+      <c r="E89" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0635083953404594</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="6">
+        <f t="shared" si="71"/>
+        <v>2037</v>
+      </c>
+      <c r="B90" s="4">
+        <v>49.373724000000003</v>
+      </c>
+      <c r="C90" s="5">
+        <v>362.841838</v>
+      </c>
+      <c r="D90" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0568989084153344</v>
+      </c>
+      <c r="E90" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0611332312785826</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="6">
+        <f t="shared" si="71"/>
+        <v>2038</v>
+      </c>
+      <c r="B91" s="4">
+        <v>49.595170000000003</v>
+      </c>
+      <c r="C91" s="5">
+        <v>364.16117400000002</v>
+      </c>
+      <c r="D91" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0513117708841404</v>
+      </c>
+      <c r="E91" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0589664756517947</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="6">
+        <f t="shared" si="71"/>
+        <v>2039</v>
+      </c>
+      <c r="B92" s="4">
+        <v>49.808557999999998</v>
+      </c>
+      <c r="C92" s="5">
+        <v>365.42086</v>
+      </c>
+      <c r="D92" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0457687612638775</v>
+      </c>
+      <c r="E92" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0569503667634081</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="6">
+        <f t="shared" si="71"/>
+        <v>2040</v>
+      </c>
+      <c r="B93" s="4">
+        <v>50.014488999999998</v>
+      </c>
+      <c r="C93" s="5">
+        <v>366.61624</v>
+      </c>
+      <c r="D93" s="6">
+        <f t="shared" si="72"/>
+        <v>1.04026415225396</v>
+      </c>
+      <c r="E93" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0550686734444716</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
+        <f t="shared" si="71"/>
+        <v>2041</v>
+      </c>
+      <c r="B94" s="4">
+        <v>50.212929000000003</v>
+      </c>
+      <c r="C94" s="5">
+        <v>367.74939899999998</v>
+      </c>
+      <c r="D94" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0348039446175306</v>
+      </c>
+      <c r="E94" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0533582462768349</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="6">
+        <f t="shared" si="71"/>
+        <v>2042</v>
+      </c>
+      <c r="B95" s="4">
+        <v>50.402786999999996</v>
+      </c>
+      <c r="C95" s="5">
+        <v>368.832202</v>
+      </c>
+      <c r="D95" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0294135322318587</v>
+      </c>
+      <c r="E95" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0517665510128098</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="6">
+        <f t="shared" si="71"/>
+        <v>2043</v>
+      </c>
+      <c r="B96" s="4">
+        <v>50.584826999999997</v>
+      </c>
+      <c r="C96" s="5">
+        <v>369.853049</v>
+      </c>
+      <c r="D96" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0240797304693756</v>
+      </c>
+      <c r="E96" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0502781443880973</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="6">
+        <f t="shared" si="71"/>
+        <v>2044</v>
+      </c>
+      <c r="B97" s="4">
+        <v>50.759160000000001</v>
+      </c>
+      <c r="C97" s="5">
+        <v>370.815336</v>
+      </c>
+      <c r="D97" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0187917806362436</v>
+      </c>
+      <c r="E97" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0488695564630046</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="6">
+        <f t="shared" si="71"/>
+        <v>2045</v>
+      </c>
+      <c r="B98" s="4">
+        <v>50.924787000000002</v>
+      </c>
+      <c r="C98" s="5">
+        <v>371.71515399999998</v>
+      </c>
+      <c r="D98" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0135529285571681</v>
+      </c>
+      <c r="E98" s="6">
+        <f t="shared" si="72"/>
+        <v>1.047550996535374</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="6">
+        <f t="shared" si="71"/>
+        <v>2046</v>
+      </c>
+      <c r="B99" s="4">
+        <v>51.081913999999998</v>
+      </c>
+      <c r="C99" s="5">
+        <v>372.55191500000001</v>
+      </c>
+      <c r="D99" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0083862362714131</v>
+      </c>
+      <c r="E99" s="6">
+        <f t="shared" si="72"/>
+        <v>1.046326633430404</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="6">
+        <f t="shared" si="71"/>
+        <v>2047</v>
+      </c>
+      <c r="B100" s="4">
+        <v>51.231273999999999</v>
+      </c>
+      <c r="C100" s="5">
+        <v>373.33557300000001</v>
+      </c>
+      <c r="D100" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0033077061483968</v>
+      </c>
+      <c r="E100" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0451711575848144</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="6">
+        <f t="shared" si="71"/>
+        <v>2048</v>
+      </c>
+      <c r="B101" s="4">
+        <v>51.371595999999997</v>
+      </c>
+      <c r="C101" s="5">
+        <v>374.06408399999998</v>
+      </c>
+      <c r="D101" s="6">
+        <f t="shared" si="72"/>
+        <v>0.99831525576896629</v>
+      </c>
+      <c r="E101" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0440972461820206</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="6">
+        <f t="shared" si="71"/>
+        <v>2049</v>
+      </c>
+      <c r="B102" s="4">
+        <v>51.501320999999997</v>
+      </c>
+      <c r="C102" s="5">
+        <v>374.74958900000001</v>
+      </c>
+      <c r="D102" s="6">
+        <f t="shared" si="72"/>
+        <v>0.99344376040373805</v>
+      </c>
+      <c r="E102" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0430503580885848</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="6">
+        <f t="shared" si="71"/>
+        <v>2050</v>
+      </c>
+      <c r="B103" s="4">
+        <v>51.621175000000001</v>
+      </c>
+      <c r="C103" s="5">
+        <v>375.39196299999998</v>
+      </c>
+      <c r="D103" s="6">
+        <f t="shared" si="72"/>
+        <v>0.98866604644315048</v>
+      </c>
+      <c r="E103" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0420267468539279</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="6">
+        <f t="shared" si="71"/>
+        <v>2051</v>
+      </c>
+      <c r="B104" s="4">
+        <v>51.730939999999997</v>
+      </c>
+      <c r="C104" s="5">
+        <v>375.98791299999999</v>
+      </c>
+      <c r="D104" s="6">
+        <f t="shared" si="72"/>
+        <v>0.98396922615363269</v>
+      </c>
+      <c r="E104" s="6">
+        <f t="shared" si="72"/>
+        <v>1.04105574000194</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="6">
+        <f t="shared" si="71"/>
+        <v>2052</v>
+      </c>
+      <c r="B105" s="4">
+        <v>51.830731</v>
+      </c>
+      <c r="C105" s="5">
+        <v>376.555047</v>
+      </c>
+      <c r="D105" s="6">
+        <f t="shared" si="72"/>
+        <v>0.97937117653231631</v>
+      </c>
+      <c r="E105" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0400944114818889</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="6">
+        <f t="shared" si="71"/>
+        <v>2053</v>
+      </c>
+      <c r="B106" s="4">
+        <v>51.920043</v>
+      </c>
+      <c r="C106" s="5">
+        <v>377.10192599999999</v>
+      </c>
+      <c r="D106" s="6">
+        <f t="shared" si="72"/>
+        <v>0.97488438135538524</v>
+      </c>
+      <c r="E106" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0391273923114357</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="6">
+        <f t="shared" si="71"/>
+        <v>2054</v>
+      </c>
+      <c r="B107" s="4">
+        <v>51.99926</v>
+      </c>
+      <c r="C107" s="5">
+        <v>377.638013</v>
+      </c>
+      <c r="D107" s="6">
+        <f t="shared" si="72"/>
+        <v>0.97050356101221436</v>
+      </c>
+      <c r="E107" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0381436547808549</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="6">
+        <f t="shared" si="71"/>
+        <v>2055</v>
+      </c>
+      <c r="B108" s="4">
+        <v>52.068035000000002</v>
+      </c>
+      <c r="C108" s="5">
+        <v>378.16826300000002</v>
+      </c>
+      <c r="D108" s="6">
+        <f t="shared" si="72"/>
+        <v>0.96622451759510419</v>
+      </c>
+      <c r="E108" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0371292659215032</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="6">
+        <f t="shared" si="71"/>
+        <v>2056</v>
+      </c>
+      <c r="B109" s="4">
+        <v>52.126668000000002</v>
+      </c>
+      <c r="C109" s="5">
+        <v>378.696958</v>
+      </c>
+      <c r="D109" s="6">
+        <f t="shared" si="72"/>
+        <v>0.96205744437760721</v>
+      </c>
+      <c r="E109" s="6">
+        <f t="shared" si="72"/>
+        <v>1.036088639507899</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="6">
+        <f t="shared" si="71"/>
+        <v>2057</v>
+      </c>
+      <c r="B110" s="4">
+        <v>52.176088</v>
+      </c>
+      <c r="C110" s="5">
+        <v>379.230255</v>
+      </c>
+      <c r="D110" s="6">
+        <f t="shared" si="72"/>
+        <v>0.95798101996454776</v>
+      </c>
+      <c r="E110" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0350045699808419</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="6">
+        <f t="shared" si="71"/>
+        <v>2058</v>
+      </c>
+      <c r="B111" s="4">
+        <v>52.215392000000001</v>
+      </c>
+      <c r="C111" s="5">
+        <v>379.76717200000002</v>
+      </c>
+      <c r="D111" s="6">
+        <f t="shared" si="72"/>
+        <v>0.95400381174960813</v>
+      </c>
+      <c r="E111" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0338849535946724</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="6">
+        <f t="shared" si="71"/>
+        <v>2059</v>
+      </c>
+      <c r="B112" s="4">
+        <v>52.245004999999999</v>
+      </c>
+      <c r="C112" s="5">
+        <v>380.310585</v>
+      </c>
+      <c r="D112" s="6">
+        <f t="shared" si="72"/>
+        <v>0.95013965449902815</v>
+      </c>
+      <c r="E112" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0327440689035778</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="6">
+        <f t="shared" si="71"/>
+        <v>2060</v>
+      </c>
+      <c r="B113" s="4">
+        <v>52.265799000000001</v>
+      </c>
+      <c r="C113" s="5">
+        <v>380.862165</v>
+      </c>
+      <c r="D113" s="6">
+        <f t="shared" si="72"/>
+        <v>0.9463827196059893</v>
+      </c>
+      <c r="E113" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0315610740699328</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="6">
+        <f t="shared" si="71"/>
+        <v>2061</v>
+      </c>
+      <c r="B114" s="4">
+        <v>52.277808</v>
+      </c>
+      <c r="C114" s="5">
+        <v>381.42229600000002</v>
+      </c>
+      <c r="D114" s="6">
+        <f t="shared" si="72"/>
+        <v>0.94271886839631835</v>
+      </c>
+      <c r="E114" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0303517888739258</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="6">
+        <f t="shared" si="71"/>
+        <v>2062</v>
+      </c>
+      <c r="B115" s="4">
+        <v>52.281056999999997</v>
+      </c>
+      <c r="C115" s="5">
+        <v>381.99548800000002</v>
+      </c>
+      <c r="D115" s="6">
+        <f t="shared" si="72"/>
+        <v>0.93915951240236017</v>
+      </c>
+      <c r="E115" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0291198308604104</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="6">
+        <f t="shared" si="71"/>
+        <v>2063</v>
+      </c>
+      <c r="B116" s="4">
+        <v>52.276572000000002</v>
+      </c>
+      <c r="C116" s="5">
+        <v>382.58690000000001</v>
+      </c>
+      <c r="D116" s="6">
+        <f t="shared" si="72"/>
+        <v>0.93569750518454042</v>
+      </c>
+      <c r="E116" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0278360105900124</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="6">
+        <f t="shared" si="71"/>
+        <v>2064</v>
+      </c>
+      <c r="B117" s="4">
+        <v>52.264443</v>
+      </c>
+      <c r="C117" s="5">
+        <v>383.19121200000001</v>
+      </c>
+      <c r="D117" s="6">
+        <f t="shared" si="72"/>
+        <v>0.93231639338431282</v>
+      </c>
+      <c r="E117" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0265206656148471</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="6">
+        <f t="shared" si="71"/>
+        <v>2065</v>
+      </c>
+      <c r="B118" s="4">
+        <v>52.245373999999998</v>
+      </c>
+      <c r="C118" s="5">
+        <v>383.800543</v>
+      </c>
+      <c r="D118" s="6">
+        <f t="shared" si="72"/>
+        <v>0.92901428937995545</v>
+      </c>
+      <c r="E118" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0252033489176173</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="6">
+        <f t="shared" si="71"/>
+        <v>2066</v>
+      </c>
+      <c r="B119" s="4">
+        <v>52.218248000000003</v>
+      </c>
+      <c r="C119" s="5">
+        <v>384.41210100000001</v>
+      </c>
+      <c r="D119" s="6">
+        <f t="shared" si="72"/>
+        <v>0.92582569985879259</v>
+      </c>
+      <c r="E119" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0239083316474473</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="6">
+        <f t="shared" si="71"/>
+        <v>2067</v>
+      </c>
+      <c r="B120" s="4">
+        <v>52.183034999999997</v>
+      </c>
+      <c r="C120" s="5">
+        <v>385.02353199999999</v>
+      </c>
+      <c r="D120" s="6">
+        <f t="shared" si="72"/>
+        <v>0.92274213257239646</v>
+      </c>
+      <c r="E120" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0226096492200898</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="6">
+        <f t="shared" si="71"/>
+        <v>2068</v>
+      </c>
+      <c r="B121" s="4">
+        <v>52.139986</v>
+      </c>
+      <c r="C121" s="5">
+        <v>385.63447500000001</v>
+      </c>
+      <c r="D121" s="6">
+        <f t="shared" si="72"/>
+        <v>0.91975546368577854</v>
+      </c>
+      <c r="E121" s="6">
+        <f t="shared" si="72"/>
+        <v>1.021285835505241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="6">
+        <f t="shared" si="71"/>
+        <v>2069</v>
+      </c>
+      <c r="B122" s="4">
+        <v>52.088234</v>
+      </c>
+      <c r="C122" s="5">
+        <v>386.23171200000002</v>
+      </c>
+      <c r="D122" s="6">
+        <f t="shared" si="72"/>
+        <v>0.91689196066812328</v>
+      </c>
+      <c r="E122" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0199740486353435</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="6">
+        <f t="shared" si="71"/>
+        <v>2070</v>
+      </c>
+      <c r="B123" s="4">
+        <v>52.028280000000002</v>
+      </c>
+      <c r="C123" s="5">
+        <v>386.80531000000002</v>
+      </c>
+      <c r="D123" s="6">
+        <f t="shared" si="72"/>
+        <v>0.91414986234409434</v>
+      </c>
+      <c r="E123" s="6">
+        <f t="shared" si="72"/>
+        <v>1.0187066847660389</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="6">
+        <f t="shared" si="71"/>
+        <v>2071</v>
+      </c>
+      <c r="B124" s="4">
+        <v>51.960537000000002</v>
+      </c>
+      <c r="C124" s="5">
+        <v>387.37186200000002</v>
+      </c>
+      <c r="D124" s="6"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="6">
+        <f t="shared" si="71"/>
+        <v>2072</v>
+      </c>
+      <c r="B125" s="4">
+        <v>51.885311000000002</v>
+      </c>
+      <c r="C125" s="5">
+        <v>387.92537299999998</v>
+      </c>
+      <c r="D125" s="6"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="6">
+        <f t="shared" si="71"/>
+        <v>2073</v>
+      </c>
+      <c r="B126" s="4">
+        <v>51.802895999999997</v>
+      </c>
+      <c r="C126" s="5">
+        <v>388.44857400000001</v>
+      </c>
+      <c r="D126" s="6"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="6">
+        <f t="shared" si="71"/>
+        <v>2074</v>
+      </c>
+      <c r="B127" s="4">
+        <v>51.713014999999999</v>
+      </c>
+      <c r="C127" s="5">
+        <v>388.93691699999999</v>
+      </c>
+      <c r="D127" s="6"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="6">
+        <f t="shared" si="71"/>
+        <v>2075</v>
+      </c>
+      <c r="B128" s="4">
+        <v>51.614967</v>
+      </c>
+      <c r="C128" s="5">
+        <v>389.39058</v>
+      </c>
+      <c r="D128" s="6"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="6">
+        <f t="shared" si="71"/>
+        <v>2076</v>
+      </c>
+      <c r="B129" s="4">
+        <v>51.510299000000003</v>
+      </c>
+      <c r="C129" s="5">
+        <v>389.810991</v>
+      </c>
+      <c r="D129" s="6"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="6">
+        <f t="shared" si="71"/>
+        <v>2077</v>
+      </c>
+      <c r="B130" s="4">
+        <v>51.400731999999998</v>
+      </c>
+      <c r="C130" s="5">
+        <v>390.19957299999999</v>
+      </c>
+      <c r="D130" s="6"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="6">
+        <f t="shared" si="71"/>
+        <v>2078</v>
+      </c>
+      <c r="B131" s="4">
+        <v>51.285048000000003</v>
+      </c>
+      <c r="C131" s="5">
+        <v>390.55928</v>
+      </c>
+      <c r="D131" s="6"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="6">
+        <f t="shared" si="71"/>
+        <v>2079</v>
+      </c>
+      <c r="B132" s="4">
+        <v>51.163665999999999</v>
+      </c>
+      <c r="C132" s="5">
+        <v>390.88269300000002</v>
+      </c>
+      <c r="D132" s="6"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="6">
+        <f t="shared" ref="A133:A153" si="73">A132+1</f>
+        <v>2080</v>
+      </c>
+      <c r="B133" s="4">
+        <v>51.036102999999997</v>
+      </c>
+      <c r="C133" s="5">
+        <v>391.16846600000002</v>
+      </c>
+      <c r="D133" s="6"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="6">
+        <f t="shared" si="73"/>
+        <v>2081</v>
+      </c>
+      <c r="B134" s="4">
+        <v>50.901653000000003</v>
+      </c>
+      <c r="C134" s="5">
+        <v>391.424375</v>
+      </c>
+      <c r="D134" s="6"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="6">
+        <f t="shared" si="73"/>
+        <v>2082</v>
+      </c>
+      <c r="B135" s="4">
+        <v>50.761524000000001</v>
+      </c>
+      <c r="C135" s="5">
+        <v>391.65280000000001</v>
+      </c>
+      <c r="D135" s="6"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="6">
+        <f t="shared" si="73"/>
+        <v>2083</v>
+      </c>
+      <c r="B136" s="4">
+        <v>50.616039000000001</v>
+      </c>
+      <c r="C136" s="5">
+        <v>391.85694100000001</v>
+      </c>
+      <c r="D136" s="6"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="6">
+        <f t="shared" si="73"/>
+        <v>2084</v>
+      </c>
+      <c r="B137" s="4">
+        <v>50.465466999999997</v>
+      </c>
+      <c r="C137" s="5">
+        <v>392.042507</v>
+      </c>
+      <c r="D137" s="6"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="6">
+        <f t="shared" si="73"/>
+        <v>2085</v>
+      </c>
+      <c r="B138" s="4">
+        <v>50.309412000000002</v>
+      </c>
+      <c r="C138" s="5">
+        <v>392.20937300000003</v>
+      </c>
+      <c r="D138" s="6"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="6">
+        <f t="shared" si="73"/>
+        <v>2086</v>
+      </c>
+      <c r="B139" s="4">
+        <v>50.148848999999998</v>
+      </c>
+      <c r="C139" s="5">
+        <v>392.36361599999998</v>
+      </c>
+      <c r="D139" s="6"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="6">
+        <f t="shared" si="73"/>
+        <v>2087</v>
+      </c>
+      <c r="B140" s="4">
+        <v>49.983702000000001</v>
+      </c>
+      <c r="C140" s="5">
+        <v>392.50504699999999</v>
+      </c>
+      <c r="D140" s="6"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="6">
+        <f t="shared" si="73"/>
+        <v>2088</v>
+      </c>
+      <c r="B141" s="4">
+        <v>49.813682999999997</v>
+      </c>
+      <c r="C141" s="5">
+        <v>392.63556499999999</v>
+      </c>
+      <c r="D141" s="6"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="6">
+        <f t="shared" si="73"/>
+        <v>2089</v>
+      </c>
+      <c r="B142" s="4">
+        <v>49.640051</v>
+      </c>
+      <c r="C142" s="5">
+        <v>392.76350100000002</v>
+      </c>
+      <c r="D142" s="6"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="6">
+        <f t="shared" si="73"/>
+        <v>2090</v>
+      </c>
+      <c r="B143" s="4">
+        <v>49.463448999999997</v>
+      </c>
+      <c r="C143" s="5">
+        <v>392.88258400000001</v>
+      </c>
+      <c r="D143" s="6"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="6">
+        <f t="shared" si="73"/>
+        <v>2091</v>
+      </c>
+      <c r="B144" s="4">
+        <v>49.283276000000001</v>
+      </c>
+      <c r="C144" s="5">
+        <v>392.999145</v>
+      </c>
+      <c r="D144" s="6"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="6">
+        <f t="shared" si="73"/>
+        <v>2092</v>
+      </c>
+      <c r="B145" s="4">
+        <v>49.100251999999998</v>
+      </c>
+      <c r="C145" s="5">
+        <v>393.11913199999998</v>
+      </c>
+      <c r="D145" s="6"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="6">
+        <f t="shared" si="73"/>
+        <v>2093</v>
+      </c>
+      <c r="B146" s="4">
+        <v>48.915058000000002</v>
+      </c>
+      <c r="C146" s="5">
+        <v>393.23659300000003</v>
+      </c>
+      <c r="D146" s="6"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="6">
+        <f t="shared" si="73"/>
+        <v>2094</v>
+      </c>
+      <c r="B147" s="4">
+        <v>48.726996999999997</v>
+      </c>
+      <c r="C147" s="5">
+        <v>393.35369800000001</v>
+      </c>
+      <c r="D147" s="6"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="6">
+        <f t="shared" si="73"/>
+        <v>2095</v>
+      </c>
+      <c r="B148" s="4">
+        <v>48.536698999999999</v>
+      </c>
+      <c r="C148" s="5">
+        <v>393.47360200000003</v>
+      </c>
+      <c r="D148" s="6"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="6">
+        <f t="shared" si="73"/>
+        <v>2096</v>
+      </c>
+      <c r="B149" s="4">
+        <v>48.344996000000002</v>
+      </c>
+      <c r="C149" s="5">
+        <v>393.60275300000001</v>
+      </c>
+      <c r="D149" s="6"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="6">
+        <f t="shared" si="73"/>
+        <v>2097</v>
+      </c>
+      <c r="B150" s="4">
+        <v>48.151485000000001</v>
+      </c>
+      <c r="C150" s="5">
+        <v>393.72877899999997</v>
+      </c>
+      <c r="D150" s="6"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="6">
+        <f t="shared" si="73"/>
+        <v>2098</v>
+      </c>
+      <c r="B151" s="4">
+        <v>47.956037000000002</v>
+      </c>
+      <c r="C151" s="5">
+        <v>393.84302700000001</v>
+      </c>
+      <c r="D151" s="6"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="6">
+        <f t="shared" si="73"/>
+        <v>2099</v>
+      </c>
+      <c r="B152" s="4">
+        <v>47.759283000000003</v>
+      </c>
+      <c r="C152" s="5">
+        <v>393.94632300000001</v>
+      </c>
+      <c r="D152" s="6"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="6">
+        <f t="shared" si="73"/>
+        <v>2100</v>
+      </c>
+      <c r="B153" s="4">
+        <v>47.561644999999999</v>
+      </c>
+      <c r="C153" s="5">
+        <v>394.041155</v>
+      </c>
+      <c r="D153" s="6"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D154" s="6"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D155" s="6"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D156" s="6"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D157" s="6"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D158" s="6"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D159" s="6"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D160" s="6"/>
+    </row>
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D161" s="6"/>
+    </row>
+    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D162" s="6"/>
+    </row>
+    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D163" s="6"/>
+    </row>
+    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D164" s="6"/>
+    </row>
+    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D165" s="6"/>
+    </row>
+    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D166" s="6"/>
+    </row>
+    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D167" s="6"/>
+    </row>
+    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D168" s="6"/>
+    </row>
+    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D169" s="6"/>
+    </row>
+    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D170" s="6"/>
+    </row>
+    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D171" s="6"/>
+    </row>
+    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D172" s="6"/>
+    </row>
+    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D173" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Inputdata.xlsx
+++ b/Inputdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12150"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13530" windowHeight="1650" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="30year_US" sheetId="6" r:id="rId1"/>
@@ -23,6 +23,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -557,14 +568,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -889,620 +898,617 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH11" sqref="AH11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="6"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="6">
+      <c r="O1">
         <v>0</v>
       </c>
-      <c r="P1" s="6">
+      <c r="P1">
         <f>O1+1</f>
         <v>1</v>
       </c>
-      <c r="Q1" s="6">
+      <c r="Q1">
         <f t="shared" ref="Q1:T11" si="0">P1+1</f>
         <v>2</v>
       </c>
-      <c r="R1" s="6">
+      <c r="R1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="S1" s="6">
+      <c r="S1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="T1" s="6">
+      <c r="T1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!O1,0)</f>
         <v>1950</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!P1,0)</f>
         <v>1955</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!Q1,0)</f>
         <v>1960</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!R1,0)</f>
         <v>1965</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!S1,0)</f>
         <v>1970</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!T1,0)</f>
         <v>1975</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2">
         <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!O1,0)</f>
-        <v>1.5048400694489636</v>
-      </c>
-      <c r="H2" s="6">
+        <v>1.4970257766027759</v>
+      </c>
+      <c r="H2">
         <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!P1,0)</f>
-        <v>1.4592985137751266</v>
-      </c>
-      <c r="I2" s="6">
+        <v>1.44162129461585</v>
+      </c>
+      <c r="I2">
         <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!Q1,0)</f>
-        <v>1.4080579729748428</v>
-      </c>
-      <c r="J2" s="6">
+        <v>1.3948689347462353</v>
+      </c>
+      <c r="J2">
         <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!R1,0)</f>
-        <v>1.4004004137345372</v>
-      </c>
-      <c r="K2" s="6">
+        <v>1.3917364016736404</v>
+      </c>
+      <c r="K2">
         <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!S1,0)</f>
-        <v>1.4096785008052279</v>
-      </c>
-      <c r="L2" s="6">
+        <v>1.3874139626352016</v>
+      </c>
+      <c r="L2">
         <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!T1,0)</f>
-        <v>1.405009215119043</v>
-      </c>
-      <c r="O2" s="6">
+        <v>1.3759888320148905</v>
+      </c>
+      <c r="O2">
         <f>O1+6</f>
         <v>6</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2">
         <f t="shared" ref="P2:P11" si="1">O2+1</f>
         <v>7</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!O2,0)</f>
         <v>1980</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!P2,0)</f>
         <v>1985</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!Q2,0)</f>
         <v>1990</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!R2,0)</f>
         <v>1995</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!S2,0)</f>
         <v>2000</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!T2,0)</f>
         <v>2005</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3">
         <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!O2,0)</f>
-        <v>1.3945631437566703</v>
-      </c>
-      <c r="H3" s="6">
+        <v>1.3655629139072849</v>
+      </c>
+      <c r="H3">
         <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!P2,0)</f>
-        <v>1.3804509783620471</v>
-      </c>
-      <c r="I3" s="6">
+        <v>1.3466219051615609</v>
+      </c>
+      <c r="I3">
         <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!Q2,0)</f>
-        <v>1.3541476552763243</v>
-      </c>
-      <c r="J3" s="6">
+        <v>1.3298680527788886</v>
+      </c>
+      <c r="J3">
         <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!R2,0)</f>
-        <v>1.2933926254374022</v>
-      </c>
-      <c r="K3" s="6">
+        <v>1.2923712889891017</v>
+      </c>
+      <c r="K3">
         <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!S2,0)</f>
-        <v>1.2470400291072312</v>
-      </c>
-      <c r="L3" s="6">
+        <v>1.2583274273564848</v>
+      </c>
+      <c r="L3">
         <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!T2,0)</f>
-        <v>1.212818965683067</v>
-      </c>
-      <c r="O3" s="6">
+        <v>1.2319918836658776</v>
+      </c>
+      <c r="O3">
         <f t="shared" ref="O3:O11" si="2">O2+6</f>
         <v>12</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!O3,0)</f>
         <v>2010</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!P3,0)</f>
         <v>2015</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!Q3,0)</f>
         <v>2020</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!R3,0)</f>
         <v>2025</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!S3,0)</f>
         <v>2030</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!T3,0)</f>
         <v>2035</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4">
         <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!O3,0)</f>
-        <v>1.1781376958617369</v>
-      </c>
-      <c r="H4" s="6">
+        <v>1.2075654704170709</v>
+      </c>
+      <c r="H4">
         <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!P3,0)</f>
-        <v>1.1451209131073898</v>
-      </c>
-      <c r="I4" s="6">
+        <v>1.1879090059208477</v>
+      </c>
+      <c r="I4">
         <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!Q3,0)</f>
-        <v>1.1174308616674204</v>
-      </c>
-      <c r="J4" s="6">
+        <v>1.1692723992784124</v>
+      </c>
+      <c r="J4">
         <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!R3,0)</f>
-        <v>1.1005952170369069</v>
-      </c>
-      <c r="K4" s="6">
+        <v>1.1535330037801688</v>
+      </c>
+      <c r="K4">
         <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!S3,0)</f>
-        <v>1.0814961281162232</v>
-      </c>
-      <c r="L4" s="6">
+        <v>1.1391157420444944</v>
+      </c>
+      <c r="L4">
         <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!T3,0)</f>
-        <v>1.0660639950811133</v>
-      </c>
-      <c r="O4" s="6">
+        <v>1.1251715618995333</v>
+      </c>
+      <c r="O4">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!O4,0)</f>
         <v>2040</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!P4,0)</f>
         <v>2045</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!Q4,0)</f>
         <v>2050</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!R4,0)</f>
         <v>2055</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!S4,0)</f>
         <v>2060</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!T4,0)</f>
         <v>2065</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5">
         <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!O4,0)</f>
-        <v>1.0550686734444716</v>
-      </c>
-      <c r="H5" s="6">
+        <v>1.1108433734939758</v>
+      </c>
+      <c r="H5">
         <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!P4,0)</f>
-        <v>1.047550996535374</v>
-      </c>
-      <c r="I5" s="6">
+        <v>1.1017838405036726</v>
+      </c>
+      <c r="I5">
         <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!Q4,0)</f>
-        <v>1.0420267468539279</v>
-      </c>
-      <c r="J5" s="6">
+        <v>1.0928259192594498</v>
+      </c>
+      <c r="J5">
         <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!R4,0)</f>
-        <v>1.0371292659215032</v>
-      </c>
-      <c r="K5" s="6">
+        <v>1.0841946054953366</v>
+      </c>
+      <c r="K5">
         <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!S4,0)</f>
-        <v>1.0315610740699328</v>
-      </c>
-      <c r="L5" s="6">
+        <v>1.0758961681087762</v>
+      </c>
+      <c r="L5">
         <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!T4,0)</f>
-        <v>1.0252033489176173</v>
-      </c>
-      <c r="O5" s="6">
+        <v>1.0736765064649916</v>
+      </c>
+      <c r="O5">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!O5,0)</f>
         <v>2070</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!P5,0)</f>
         <v>2075</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!Q5,0)</f>
         <v>2080</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!R5,0)</f>
         <v>2085</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!S5,0)</f>
         <v>2090</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!T5,0)</f>
         <v>2095</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6">
         <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!O5,0)</f>
-        <v>1.0187066847660389</v>
-      </c>
-      <c r="H6" s="6">
+        <v>1.0725476018317668</v>
+      </c>
+      <c r="H6">
         <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!P5,0)</f>
-        <v>1.0187066847660389</v>
-      </c>
-      <c r="I6" s="6">
+        <v>1.0725</v>
+      </c>
+      <c r="I6">
         <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!Q5,0)</f>
-        <v>1.0187066847660389</v>
-      </c>
-      <c r="J6" s="6">
+        <v>1.0725</v>
+      </c>
+      <c r="J6">
         <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!R5,0)</f>
-        <v>1.0187066847660389</v>
-      </c>
-      <c r="K6" s="6">
+        <v>1.0725</v>
+      </c>
+      <c r="K6">
         <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!S5,0)</f>
-        <v>1.0187066847660389</v>
-      </c>
-      <c r="L6" s="6">
+        <v>1.0725</v>
+      </c>
+      <c r="L6">
         <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!T5,0)</f>
-        <v>1.0187066847660389</v>
-      </c>
-      <c r="O6" s="6">
+        <v>1.0725</v>
+      </c>
+      <c r="O6">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!O6,0)</f>
         <v>2100</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!P6,0)</f>
         <v>2105</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!Q6,0)</f>
         <v>2110</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!R6,0)</f>
         <v>2115</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!S6,0)</f>
         <v>2120</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!T6,0)</f>
         <v>2125</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7">
         <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!O6,0)</f>
-        <v>1.0187066847660389</v>
-      </c>
-      <c r="H7" s="6">
+        <v>1.0725</v>
+      </c>
+      <c r="H7">
         <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!P6,0)</f>
-        <v>1.0187066847660389</v>
-      </c>
-      <c r="I7" s="6">
+        <v>1.0725</v>
+      </c>
+      <c r="I7">
         <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!Q6,0)</f>
-        <v>1.0187066847660389</v>
-      </c>
-      <c r="J7" s="6">
+        <v>1.0725</v>
+      </c>
+      <c r="J7">
         <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!R6,0)</f>
-        <v>1.0187066847660389</v>
-      </c>
-      <c r="K7" s="6">
+        <v>1.0725</v>
+      </c>
+      <c r="K7">
         <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!S6,0)</f>
-        <v>1.0187066847660389</v>
-      </c>
-      <c r="L7" s="6">
+        <v>1.0725</v>
+      </c>
+      <c r="L7">
         <f ca="1">OFFSET(PopulationDataUS!$B$2,'30year_US'!T6,0)</f>
-        <v>1.0187066847660389</v>
-      </c>
-      <c r="O7" s="6">
+        <v>1.0725</v>
+      </c>
+      <c r="O7">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O8" s="6">
+      <c r="O8">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O9" s="6">
+      <c r="O9">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O10" s="6">
+      <c r="O10">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O11" s="6">
+      <c r="O11">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
@@ -1520,7 +1526,7 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2140,11 +2146,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2510,7 +2516,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -2533,10 +2539,10 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2551,7 +2557,7 @@
         <v>1950</v>
       </c>
       <c r="B2">
-        <v>1.5048400694489636</v>
+        <v>1.4970257766027759</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2559,7 +2565,7 @@
         <v>1955</v>
       </c>
       <c r="B3">
-        <v>1.4592985137751266</v>
+        <v>1.44162129461585</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2568,7 +2574,7 @@
         <v>1960</v>
       </c>
       <c r="B4">
-        <v>1.4080579729748428</v>
+        <v>1.3948689347462353</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2577,7 +2583,7 @@
         <v>1965</v>
       </c>
       <c r="B5">
-        <v>1.4004004137345372</v>
+        <v>1.3917364016736404</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2586,7 +2592,7 @@
         <v>1970</v>
       </c>
       <c r="B6">
-        <v>1.4096785008052279</v>
+        <v>1.3874139626352016</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2595,7 +2601,7 @@
         <v>1975</v>
       </c>
       <c r="B7">
-        <v>1.405009215119043</v>
+        <v>1.3759888320148905</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2604,7 +2610,7 @@
         <v>1980</v>
       </c>
       <c r="B8">
-        <v>1.3945631437566703</v>
+        <v>1.3655629139072849</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2613,7 +2619,7 @@
         <v>1985</v>
       </c>
       <c r="B9">
-        <v>1.3804509783620471</v>
+        <v>1.3466219051615609</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2622,7 +2628,7 @@
         <v>1990</v>
       </c>
       <c r="B10">
-        <v>1.3541476552763243</v>
+        <v>1.3298680527788886</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2631,7 +2637,7 @@
         <v>1995</v>
       </c>
       <c r="B11">
-        <v>1.2933926254374022</v>
+        <v>1.2923712889891017</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2640,7 +2646,7 @@
         <v>2000</v>
       </c>
       <c r="B12">
-        <v>1.2470400291072312</v>
+        <v>1.2583274273564848</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2649,7 +2655,7 @@
         <v>2005</v>
       </c>
       <c r="B13">
-        <v>1.212818965683067</v>
+        <v>1.2319918836658776</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2658,7 +2664,7 @@
         <v>2010</v>
       </c>
       <c r="B14">
-        <v>1.1781376958617369</v>
+        <v>1.2075654704170709</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2667,7 +2673,7 @@
         <v>2015</v>
       </c>
       <c r="B15">
-        <v>1.1451209131073898</v>
+        <v>1.1879090059208477</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2676,7 +2682,7 @@
         <v>2020</v>
       </c>
       <c r="B16">
-        <v>1.1174308616674204</v>
+        <v>1.1692723992784124</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2685,7 +2691,7 @@
         <v>2025</v>
       </c>
       <c r="B17">
-        <v>1.1005952170369069</v>
+        <v>1.1535330037801688</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2694,7 +2700,7 @@
         <v>2030</v>
       </c>
       <c r="B18">
-        <v>1.0814961281162232</v>
+        <v>1.1391157420444944</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2703,7 +2709,7 @@
         <v>2035</v>
       </c>
       <c r="B19">
-        <v>1.0660639950811133</v>
+        <v>1.1251715618995333</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2712,7 +2718,7 @@
         <v>2040</v>
       </c>
       <c r="B20">
-        <v>1.0550686734444716</v>
+        <v>1.1108433734939758</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2721,7 +2727,7 @@
         <v>2045</v>
       </c>
       <c r="B21">
-        <v>1.047550996535374</v>
+        <v>1.1017838405036726</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2730,7 +2736,7 @@
         <v>2050</v>
       </c>
       <c r="B22">
-        <v>1.0420267468539279</v>
+        <v>1.0928259192594498</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2739,7 +2745,7 @@
         <v>2055</v>
       </c>
       <c r="B23">
-        <v>1.0371292659215032</v>
+        <v>1.0841946054953366</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2748,7 +2754,7 @@
         <v>2060</v>
       </c>
       <c r="B24">
-        <v>1.0315610740699328</v>
+        <v>1.0758961681087762</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2757,7 +2763,7 @@
         <v>2065</v>
       </c>
       <c r="B25">
-        <v>1.0252033489176173</v>
+        <v>1.0736765064649916</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2766,7 +2772,7 @@
         <v>2070</v>
       </c>
       <c r="B26">
-        <v>1.0187066847660389</v>
+        <v>1.0725476018317668</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2775,7 +2781,7 @@
         <v>2075</v>
       </c>
       <c r="B27">
-        <v>1.0187066847660389</v>
+        <v>1.0725</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2784,7 +2790,7 @@
         <v>2080</v>
       </c>
       <c r="B28">
-        <v>1.0187066847660389</v>
+        <v>1.0725</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2793,7 +2799,7 @@
         <v>2085</v>
       </c>
       <c r="B29">
-        <v>1.0187066847660389</v>
+        <v>1.0725</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2802,7 +2808,7 @@
         <v>2090</v>
       </c>
       <c r="B30">
-        <v>1.0187066847660389</v>
+        <v>1.0725</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2811,7 +2817,7 @@
         <v>2095</v>
       </c>
       <c r="B31">
-        <v>1.0187066847660389</v>
+        <v>1.0725</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2820,7 +2826,7 @@
         <v>2100</v>
       </c>
       <c r="B32">
-        <v>1.0187066847660389</v>
+        <v>1.0725</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2830,7 +2836,7 @@
       </c>
       <c r="B33">
         <f t="shared" ref="B33:B38" si="1">B32</f>
-        <v>1.0187066847660389</v>
+        <v>1.0725</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2840,7 +2846,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
-        <v>1.0187066847660389</v>
+        <v>1.0725</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2850,7 +2856,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
-        <v>1.0187066847660389</v>
+        <v>1.0725</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2860,7 +2866,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
-        <v>1.0187066847660389</v>
+        <v>1.0725</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2870,7 +2876,7 @@
       </c>
       <c r="B37">
         <f t="shared" si="1"/>
-        <v>1.0187066847660389</v>
+        <v>1.0725</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2880,7 +2886,7 @@
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
-        <v>1.0187066847660389</v>
+        <v>1.0725</v>
       </c>
     </row>
   </sheetData>
@@ -2890,17 +2896,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J173"/>
+  <dimension ref="A2:J153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H3:H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="6"/>
+    <col min="9" max="9" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2922,7 +2928,7 @@
       <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
       <c r="J2" t="s">
@@ -2936,7 +2942,7 @@
       <c r="B3" s="4">
         <v>17.017741999999998</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>148.28155000000001</v>
       </c>
       <c r="D3">
@@ -2955,7 +2961,7 @@
         <f ca="1">OFFSET(D$3,$J3,0)</f>
         <v>1.6467991464437528</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3">
         <f ca="1">OFFSET(E$3,$J3,0)</f>
         <v>1.5048400694489636</v>
       </c>
@@ -2971,7 +2977,7 @@
       <c r="B4" s="4">
         <v>17.354611999999999</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>150.59845300000001</v>
       </c>
       <c r="D4">
@@ -2990,7 +2996,7 @@
         <f t="shared" ref="H4:H15" ca="1" si="2">OFFSET(D$3,$J4,0)</f>
         <v>1.6195721579640365</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4">
         <f t="shared" ref="I4:I17" ca="1" si="3">OFFSET(E$3,$J4,0)</f>
         <v>1.4592985137751266</v>
       </c>
@@ -3000,14 +3006,14 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5">
         <f t="shared" ref="A5:A68" si="4">A4+1</f>
         <v>1952</v>
       </c>
       <c r="B5" s="4">
         <v>17.693853000000001</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>152.94172699999999</v>
       </c>
       <c r="D5">
@@ -3026,7 +3032,7 @@
         <f t="shared" ca="1" si="2"/>
         <v>1.6038362448195906</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5">
         <f t="shared" ca="1" si="3"/>
         <v>1.4080579729748428</v>
       </c>
@@ -3036,14 +3042,14 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6">
         <f t="shared" si="4"/>
         <v>1953</v>
       </c>
       <c r="B6" s="4">
         <v>18.03274</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>155.451199</v>
       </c>
       <c r="D6">
@@ -3062,7 +3068,7 @@
         <f t="shared" ca="1" si="2"/>
         <v>1.5845945033797333</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6">
         <f t="shared" ca="1" si="3"/>
         <v>1.4004004137345372</v>
       </c>
@@ -3072,14 +3078,14 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7">
         <f t="shared" si="4"/>
         <v>1954</v>
       </c>
       <c r="B7" s="4">
         <v>18.369249</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>158.205873</v>
       </c>
       <c r="D7">
@@ -3098,7 +3104,7 @@
         <f t="shared" ca="1" si="2"/>
         <v>1.554799324559281</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7">
         <f t="shared" ca="1" si="3"/>
         <v>1.4096785008052279</v>
       </c>
@@ -3108,14 +3114,14 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8">
         <f t="shared" si="4"/>
         <v>1955</v>
       </c>
       <c r="B8" s="4">
         <v>18.700686999999999</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>161.13645</v>
       </c>
       <c r="D8">
@@ -3134,7 +3140,7 @@
         <f t="shared" ca="1" si="2"/>
         <v>1.5099384326344409</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8">
         <f t="shared" ca="1" si="3"/>
         <v>1.405009215119043</v>
       </c>
@@ -3144,14 +3150,14 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9">
         <f t="shared" si="4"/>
         <v>1956</v>
       </c>
       <c r="B9" s="4">
         <v>19.031192000000001</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>164.063412</v>
       </c>
       <c r="D9">
@@ -3170,7 +3176,7 @@
         <f t="shared" ca="1" si="2"/>
         <v>1.4665624232933949</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9">
         <f t="shared" ca="1" si="3"/>
         <v>1.3945631437566703</v>
       </c>
@@ -3180,14 +3186,14 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10">
         <f t="shared" si="4"/>
         <v>1957</v>
       </c>
       <c r="B10" s="4">
         <v>19.363786000000001</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>166.94912099999999</v>
       </c>
       <c r="D10">
@@ -3206,7 +3212,7 @@
         <f t="shared" ca="1" si="2"/>
         <v>1.4282334347362007</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10">
         <f t="shared" ca="1" si="3"/>
         <v>1.3804509783620471</v>
       </c>
@@ -3216,14 +3222,14 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11">
         <f t="shared" si="4"/>
         <v>1958</v>
       </c>
       <c r="B11" s="4">
         <v>19.695352</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>170.14710099999999</v>
       </c>
       <c r="D11">
@@ -3242,7 +3248,7 @@
         <f t="shared" ca="1" si="2"/>
         <v>1.3798794441647573</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11">
         <f t="shared" ca="1" si="3"/>
         <v>1.3541476552763243</v>
       </c>
@@ -3252,14 +3258,14 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12">
         <f t="shared" si="4"/>
         <v>1959</v>
       </c>
       <c r="B12" s="4">
         <v>20.024525000000001</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>173.32460800000001</v>
       </c>
       <c r="D12">
@@ -3278,7 +3284,7 @@
         <f t="shared" ca="1" si="2"/>
         <v>1.3259707589771794</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12">
         <f t="shared" ca="1" si="3"/>
         <v>1.2933926254374022</v>
       </c>
@@ -3288,14 +3294,14 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13">
         <f t="shared" si="4"/>
         <v>1960</v>
       </c>
       <c r="B13" s="4">
         <v>20.349744000000001</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>176.18857800000001</v>
       </c>
       <c r="D13">
@@ -3314,7 +3320,7 @@
         <f t="shared" ca="1" si="2"/>
         <v>1.286149595905389</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13">
         <f t="shared" ca="1" si="3"/>
         <v>1.2470400291072312</v>
       </c>
@@ -3324,14 +3330,14 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14">
         <f t="shared" si="4"/>
         <v>1961</v>
       </c>
       <c r="B14" s="4">
         <v>20.680653</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>179.087279</v>
       </c>
       <c r="D14">
@@ -3350,7 +3356,7 @@
         <f t="shared" ca="1" si="2"/>
         <v>1.2519153004974266</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14">
         <f t="shared" ca="1" si="3"/>
         <v>1.212818965683067</v>
       </c>
@@ -3360,14 +3366,14 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15">
         <f t="shared" si="4"/>
         <v>1962</v>
       </c>
       <c r="B15" s="4">
         <v>21.02036</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>181.91780900000001</v>
       </c>
       <c r="D15">
@@ -3386,7 +3392,7 @@
         <f t="shared" ca="1" si="2"/>
         <v>1.2168939007798101</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15">
         <f t="shared" ca="1" si="3"/>
         <v>1.1781376958617369</v>
       </c>
@@ -3396,14 +3402,14 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16">
         <f t="shared" si="4"/>
         <v>1963</v>
       </c>
       <c r="B16" s="4">
         <v>21.364017</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>184.64987400000001</v>
       </c>
       <c r="D16">
@@ -3418,11 +3424,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>2015</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16">
         <f t="shared" ref="H16:H17" ca="1" si="18">OFFSET(D$3,$J16,0)</f>
         <v>1.1772593869403902</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16">
         <f ca="1">OFFSET(E$3,$J16,0)</f>
         <v>1.1451209131073898</v>
       </c>
@@ -3432,14 +3438,14 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17">
         <f t="shared" si="4"/>
         <v>1964</v>
       </c>
       <c r="B17" s="4">
         <v>21.708487000000002</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>187.277379</v>
       </c>
       <c r="D17">
@@ -3454,11 +3460,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>2020</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17">
         <f t="shared" ca="1" si="18"/>
         <v>1.1462194315875787</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17">
         <f t="shared" ca="1" si="3"/>
         <v>1.1174308616674204</v>
       </c>
@@ -3468,14 +3474,14 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18">
         <f t="shared" si="4"/>
         <v>1965</v>
       </c>
       <c r="B18" s="4">
         <v>22.053661000000002</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>189.703283</v>
       </c>
       <c r="D18">
@@ -3486,32 +3492,32 @@
         <f t="shared" si="20"/>
         <v>1.4004004137345372</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18">
         <f t="shared" ref="G18:G33" ca="1" si="21">OFFSET(A$3,$J18,0)</f>
         <v>2025</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18">
         <f t="shared" ref="H18:H23" ca="1" si="22">OFFSET(D$3,$J18,0)</f>
         <v>1.123669005160397</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18">
         <f t="shared" ref="I18:I23" ca="1" si="23">OFFSET(E$3,$J18,0)</f>
         <v>1.1005952170369069</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18">
         <f t="shared" si="6"/>
         <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19">
         <f t="shared" si="4"/>
         <v>1966</v>
       </c>
       <c r="B19" s="4">
         <v>22.403116000000001</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>191.830975</v>
       </c>
       <c r="D19">
@@ -3522,32 +3528,32 @@
         <f t="shared" si="24"/>
         <v>1.4021945517401453</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19">
         <f t="shared" ca="1" si="21"/>
         <v>2030</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19">
         <f t="shared" ca="1" si="22"/>
         <v>1.0962117543774024</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19">
         <f t="shared" ca="1" si="23"/>
         <v>1.0814961281162232</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20">
         <f t="shared" si="4"/>
         <v>1967</v>
       </c>
       <c r="B20" s="4">
         <v>22.757014000000002</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>193.78243800000001</v>
       </c>
       <c r="D20">
@@ -3558,32 +3564,32 @@
         <f t="shared" si="25"/>
         <v>1.4056766021284137</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20">
         <f t="shared" ca="1" si="21"/>
         <v>2035</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20">
         <f t="shared" ca="1" si="22"/>
         <v>1.0681295128378863</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20">
         <f t="shared" ca="1" si="23"/>
         <v>1.0660639950811133</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20">
         <f t="shared" si="6"/>
         <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21">
         <f t="shared" si="4"/>
         <v>1968</v>
       </c>
       <c r="B21" s="4">
         <v>23.112971000000002</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>195.74342799999999</v>
       </c>
       <c r="D21">
@@ -3594,32 +3600,32 @@
         <f t="shared" si="26"/>
         <v>1.4091661764501233</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21">
         <f t="shared" ca="1" si="21"/>
         <v>2040</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21">
         <f t="shared" ca="1" si="22"/>
         <v>1.04026415225396</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21">
         <f t="shared" ca="1" si="23"/>
         <v>1.0550686734444716</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21">
         <f t="shared" si="6"/>
         <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22">
         <f t="shared" si="4"/>
         <v>1969</v>
       </c>
       <c r="B22" s="4">
         <v>23.472028000000002</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>197.859329</v>
       </c>
       <c r="D22">
@@ -3630,32 +3636,32 @@
         <f t="shared" si="27"/>
         <v>1.4110104558173246</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22">
         <f t="shared" ca="1" si="21"/>
         <v>2045</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22">
         <f t="shared" ca="1" si="22"/>
         <v>1.0135529285571681</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22">
         <f t="shared" ca="1" si="23"/>
         <v>1.047550996535374</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22">
         <f t="shared" si="6"/>
         <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23">
         <f t="shared" si="4"/>
         <v>1970</v>
       </c>
       <c r="B23" s="4">
         <v>23.842803</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>200.32834</v>
       </c>
       <c r="D23">
@@ -3666,32 +3672,32 @@
         <f t="shared" si="28"/>
         <v>1.4096785008052279</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23">
         <f t="shared" ca="1" si="21"/>
         <v>2050</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23">
         <f t="shared" ca="1" si="22"/>
         <v>0.98866604644315048</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23">
         <f t="shared" ca="1" si="23"/>
         <v>1.0420267468539279</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24">
         <f t="shared" si="4"/>
         <v>1971</v>
       </c>
       <c r="B24" s="4">
         <v>24.223379000000001</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>202.907917</v>
       </c>
       <c r="D24">
@@ -3702,32 +3708,32 @@
         <f t="shared" si="29"/>
         <v>1.4068967747571919</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24">
         <f t="shared" ca="1" si="21"/>
         <v>2055</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24">
         <f ca="1">H23</f>
         <v>0.98866604644315048</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24">
         <f t="shared" ref="I24:I33" ca="1" si="30">I23</f>
         <v>1.0420267468539279</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24">
         <f t="shared" si="6"/>
         <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25">
         <f t="shared" si="4"/>
         <v>1972</v>
       </c>
       <c r="B25" s="4">
         <v>24.612794000000001</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>205.23839000000001</v>
       </c>
       <c r="D25">
@@ -3738,32 +3744,32 @@
         <f t="shared" si="31"/>
         <v>1.4049528063438814</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25">
         <f t="shared" ca="1" si="21"/>
         <v>2060</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25">
         <f t="shared" ref="H25:H33" ca="1" si="32">H24</f>
         <v>0.98866604644315048</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25">
         <f t="shared" ca="1" si="30"/>
         <v>1.0420267468539279</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26">
         <f t="shared" si="4"/>
         <v>1973</v>
       </c>
       <c r="B26" s="4">
         <v>25.020588</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>207.31476499999999</v>
       </c>
       <c r="D26">
@@ -3774,32 +3780,32 @@
         <f t="shared" si="33"/>
         <v>1.4041924172646363</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26">
         <f t="shared" ca="1" si="21"/>
         <v>2065</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26">
         <f t="shared" ca="1" si="32"/>
         <v>0.98866604644315048</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26">
         <f t="shared" ca="1" si="30"/>
         <v>1.0420267468539279</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26">
         <f t="shared" si="6"/>
         <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27">
         <f t="shared" si="4"/>
         <v>1974</v>
       </c>
       <c r="B27" s="4">
         <v>25.449755</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>209.27796900000001</v>
       </c>
       <c r="D27">
@@ -3810,32 +3816,32 @@
         <f t="shared" si="34"/>
         <v>1.4045811291297459</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27">
         <f t="shared" ca="1" si="21"/>
         <v>2070</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27">
         <f t="shared" ca="1" si="32"/>
         <v>0.98866604644315048</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27">
         <f t="shared" ca="1" si="30"/>
         <v>1.0420267468539279</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="A28">
         <f t="shared" si="4"/>
         <v>1975</v>
       </c>
       <c r="B28" s="4">
         <v>25.875558999999999</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>211.27453600000001</v>
       </c>
       <c r="D28">
@@ -3846,32 +3852,32 @@
         <f t="shared" si="35"/>
         <v>1.405009215119043</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28">
         <f t="shared" ca="1" si="21"/>
         <v>2075</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28">
         <f t="shared" ca="1" si="32"/>
         <v>0.98866604644315048</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28">
         <f t="shared" ca="1" si="30"/>
         <v>1.0420267468539279</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28">
         <f t="shared" si="6"/>
         <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="A29">
         <f t="shared" si="4"/>
         <v>1976</v>
       </c>
       <c r="B29" s="4">
         <v>26.290257</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>213.27002200000001</v>
       </c>
       <c r="D29">
@@ -3882,32 +3888,32 @@
         <f t="shared" si="36"/>
         <v>1.4055097626425903</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29">
         <f t="shared" ca="1" si="21"/>
         <v>2080</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29">
         <f t="shared" ca="1" si="32"/>
         <v>0.98866604644315048</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29">
         <f t="shared" ca="1" si="30"/>
         <v>1.0420267468539279</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29">
         <f t="shared" si="6"/>
         <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="A30">
         <f t="shared" si="4"/>
         <v>1977</v>
       </c>
       <c r="B30" s="4">
         <v>26.71378</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>215.43740600000001</v>
       </c>
       <c r="D30">
@@ -3918,32 +3924,32 @@
         <f t="shared" si="37"/>
         <v>1.4052499267467042</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30">
         <f t="shared" ca="1" si="21"/>
         <v>2085</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30">
         <f t="shared" ca="1" si="32"/>
         <v>0.98866604644315048</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30">
         <f t="shared" ca="1" si="30"/>
         <v>1.0420267468539279</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30">
         <f t="shared" si="6"/>
         <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="A31">
         <f t="shared" si="4"/>
         <v>1978</v>
       </c>
       <c r="B31" s="4">
         <v>27.146121000000001</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>217.88143700000001</v>
       </c>
       <c r="D31">
@@ -3954,32 +3960,32 @@
         <f t="shared" si="38"/>
         <v>1.4030332928270526</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31">
         <f t="shared" ca="1" si="21"/>
         <v>2090</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31">
         <f t="shared" ca="1" si="32"/>
         <v>0.98866604644315048</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31">
         <f t="shared" ca="1" si="30"/>
         <v>1.0420267468539279</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31">
         <f t="shared" si="6"/>
         <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+      <c r="A32">
         <f t="shared" si="4"/>
         <v>1979</v>
       </c>
       <c r="B32" s="4">
         <v>27.584133999999999</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>220.46311499999999</v>
       </c>
       <c r="D32">
@@ -3990,32 +3996,32 @@
         <f t="shared" si="39"/>
         <v>1.3993816425935923</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32">
         <f t="shared" ca="1" si="21"/>
         <v>2095</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32">
         <f t="shared" ca="1" si="32"/>
         <v>0.98866604644315048</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32">
         <f t="shared" ca="1" si="30"/>
         <v>1.0420267468539279</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32">
         <f t="shared" si="6"/>
         <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+      <c r="A33">
         <f t="shared" si="4"/>
         <v>1980</v>
       </c>
       <c r="B33" s="4">
         <v>28.024802999999999</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>223.140018</v>
       </c>
       <c r="D33">
@@ -4026,32 +4032,32 @@
         <f t="shared" si="40"/>
         <v>1.3945631437566703</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33">
         <f t="shared" ca="1" si="21"/>
         <v>2100</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33">
         <f t="shared" ca="1" si="32"/>
         <v>0.98866604644315048</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33">
         <f t="shared" ca="1" si="30"/>
         <v>1.0420267468539279</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33">
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+      <c r="A34">
         <f t="shared" si="4"/>
         <v>1981</v>
       </c>
       <c r="B34" s="4">
         <v>28.471285000000002</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>225.654008</v>
       </c>
       <c r="D34">
@@ -4062,18 +4068,16 @@
         <f t="shared" si="41"/>
         <v>1.3909640328657489</v>
       </c>
-      <c r="G34" s="6"/>
-      <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+      <c r="A35">
         <f t="shared" si="4"/>
         <v>1982</v>
       </c>
       <c r="B35" s="4">
         <v>28.922761999999999</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>228.001419</v>
       </c>
       <c r="D35">
@@ -4084,18 +4088,16 @@
         <f t="shared" si="42"/>
         <v>1.3888129398001685</v>
       </c>
-      <c r="G35" s="6"/>
-      <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+      <c r="A36">
         <f t="shared" si="4"/>
         <v>1983</v>
       </c>
       <c r="B36" s="4">
         <v>29.377137000000001</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>230.38996399999999</v>
       </c>
       <c r="D36">
@@ -4106,18 +4108,16 @@
         <f t="shared" si="43"/>
         <v>1.38623731891377</v>
       </c>
-      <c r="G36" s="6"/>
-      <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+      <c r="A37">
         <f t="shared" si="4"/>
         <v>1984</v>
       </c>
       <c r="B37" s="4">
         <v>29.832197000000001</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>232.76627999999999</v>
       </c>
       <c r="D37">
@@ -4128,18 +4128,16 @@
         <f t="shared" si="44"/>
         <v>1.3835078001848036</v>
       </c>
-      <c r="G37" s="6"/>
-      <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+      <c r="A38">
         <f t="shared" si="4"/>
         <v>1985</v>
       </c>
       <c r="B38" s="4">
         <v>30.287112</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>235.14618200000001</v>
       </c>
       <c r="D38">
@@ -4150,18 +4148,16 @@
         <f t="shared" si="45"/>
         <v>1.3804509783620471</v>
       </c>
-      <c r="G38" s="6"/>
-      <c r="J38" s="6"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+      <c r="A39">
         <f t="shared" si="4"/>
         <v>1986</v>
       </c>
       <c r="B39" s="4">
         <v>30.748327</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>237.51278300000001</v>
       </c>
       <c r="D39">
@@ -4172,18 +4168,16 @@
         <f t="shared" si="46"/>
         <v>1.3776529998387497</v>
       </c>
-      <c r="G39" s="6"/>
-      <c r="J39" s="6"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
+      <c r="A40">
         <f t="shared" si="4"/>
         <v>1987</v>
       </c>
       <c r="B40" s="4">
         <v>31.216453999999999</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <v>239.85316900000001</v>
       </c>
       <c r="D40">
@@ -4194,18 +4188,16 @@
         <f t="shared" si="47"/>
         <v>1.3749713308978626</v>
       </c>
-      <c r="G40" s="6"/>
-      <c r="J40" s="6"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
+      <c r="A41">
         <f t="shared" si="4"/>
         <v>1988</v>
       </c>
       <c r="B41" s="4">
         <v>31.690792999999999</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <v>242.287814</v>
       </c>
       <c r="D41">
@@ -4216,18 +4208,16 @@
         <f t="shared" si="48"/>
         <v>1.3708491257426592</v>
       </c>
-      <c r="G41" s="6"/>
-      <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
+      <c r="A42">
         <f t="shared" si="4"/>
         <v>1989</v>
       </c>
       <c r="B42" s="4">
         <v>32.165765999999998</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <v>244.954094</v>
       </c>
       <c r="D42">
@@ -4238,18 +4228,16 @@
         <f t="shared" si="49"/>
         <v>1.3648258150770081</v>
       </c>
-      <c r="G42" s="6"/>
-      <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
+      <c r="A43">
         <f t="shared" si="4"/>
         <v>1990</v>
       </c>
       <c r="B43" s="4">
         <v>32.637656999999997</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="4">
         <v>248.083732</v>
       </c>
       <c r="D43">
@@ -4260,18 +4248,16 @@
         <f t="shared" si="50"/>
         <v>1.3541476552763243</v>
       </c>
-      <c r="G43" s="6"/>
-      <c r="J43" s="6"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
+      <c r="A44">
         <f t="shared" si="4"/>
         <v>1991</v>
       </c>
       <c r="B44" s="4">
         <v>33.105763000000003</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="4">
         <v>251.56018900000001</v>
       </c>
       <c r="D44">
@@ -4282,18 +4268,16 @@
         <f t="shared" si="51"/>
         <v>1.3396301908486798</v>
       </c>
-      <c r="G44" s="6"/>
-      <c r="J44" s="6"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
+      <c r="A45">
         <f t="shared" si="4"/>
         <v>1992</v>
       </c>
       <c r="B45" s="4">
         <v>33.568286000000001</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="4">
         <v>255.17533900000001</v>
       </c>
       <c r="D45">
@@ -4304,18 +4288,16 @@
         <f t="shared" si="52"/>
         <v>1.325715323141003</v>
       </c>
-      <c r="G45" s="6"/>
-      <c r="J45" s="6"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
+      <c r="A46">
         <f t="shared" si="4"/>
         <v>1993</v>
       </c>
       <c r="B46" s="4">
         <v>34.027239999999999</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="4">
         <v>258.77975400000003</v>
       </c>
       <c r="D46">
@@ -4326,18 +4308,16 @@
         <f t="shared" si="53"/>
         <v>1.3138453018237275</v>
       </c>
-      <c r="G46" s="6"/>
-      <c r="J46" s="6"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
+      <c r="A47">
         <f t="shared" si="4"/>
         <v>1994</v>
       </c>
       <c r="B47" s="4">
         <v>34.488695999999997</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="4">
         <v>262.27358900000002</v>
       </c>
       <c r="D47">
@@ -4348,18 +4328,16 @@
         <f t="shared" si="54"/>
         <v>1.3032742690687011</v>
       </c>
-      <c r="G47" s="6"/>
-      <c r="J47" s="6"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
+      <c r="A48">
         <f t="shared" si="4"/>
         <v>1995</v>
       </c>
       <c r="B48" s="4">
         <v>34.946109999999997</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="4">
         <v>265.66055599999999</v>
       </c>
       <c r="D48">
@@ -4370,18 +4348,16 @@
         <f t="shared" si="55"/>
         <v>1.2933926254374022</v>
       </c>
-      <c r="G48" s="6"/>
-      <c r="J48" s="6"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
         <f t="shared" si="4"/>
         <v>1996</v>
       </c>
       <c r="B49" s="4">
         <v>35.389361999999998</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="4">
         <v>268.98434800000001</v>
       </c>
       <c r="D49">
@@ -4392,18 +4368,16 @@
         <f t="shared" si="56"/>
         <v>1.2839592324531834</v>
       </c>
-      <c r="G49" s="6"/>
-      <c r="J49" s="6"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
         <f t="shared" si="4"/>
         <v>1997</v>
       </c>
       <c r="B50" s="4">
         <v>35.815970999999998</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="4">
         <v>272.39543900000001</v>
       </c>
       <c r="D50">
@@ -4414,18 +4388,16 @@
         <f t="shared" si="57"/>
         <v>1.2742440265308552</v>
       </c>
-      <c r="G50" s="6"/>
-      <c r="J50" s="6"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
         <f t="shared" si="4"/>
         <v>1998</v>
       </c>
       <c r="B51" s="4">
         <v>36.233195000000002</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="4">
         <v>275.83501799999999</v>
       </c>
       <c r="D51">
@@ -4436,18 +4408,16 @@
         <f t="shared" si="58"/>
         <v>1.2645415818813839</v>
       </c>
-      <c r="G51" s="6"/>
-      <c r="J51" s="6"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
         <f t="shared" si="4"/>
         <v>1999</v>
       </c>
       <c r="B52" s="4">
         <v>36.653030999999999</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="4">
         <v>279.18158199999999</v>
       </c>
       <c r="D52">
@@ -4458,18 +4428,16 @@
         <f t="shared" si="59"/>
         <v>1.2554314274213119</v>
       </c>
-      <c r="G52" s="6"/>
-      <c r="J52" s="6"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
       <c r="B53" s="4">
         <v>37.070774</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="4">
         <v>282.39855399999999</v>
       </c>
       <c r="D53">
@@ -4480,18 +4448,16 @@
         <f t="shared" si="60"/>
         <v>1.2470400291072312</v>
       </c>
-      <c r="G53" s="6"/>
-      <c r="J53" s="6"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
         <f t="shared" si="4"/>
         <v>2001</v>
       </c>
       <c r="B54" s="4">
         <v>37.480493000000003</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="4">
         <v>285.47049399999997</v>
       </c>
       <c r="D54">
@@ -4502,18 +4468,16 @@
         <f t="shared" si="61"/>
         <v>1.239367925709338</v>
       </c>
-      <c r="G54" s="6"/>
-      <c r="J54" s="6"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
         <f t="shared" si="4"/>
         <v>2002</v>
       </c>
       <c r="B55" s="4">
         <v>37.885027999999998</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="4">
         <v>288.35025200000001</v>
       </c>
       <c r="D55">
@@ -4524,18 +4488,16 @@
         <f t="shared" si="62"/>
         <v>1.2325711440682214</v>
       </c>
-      <c r="G55" s="6"/>
-      <c r="J55" s="6"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="6">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
         <f t="shared" si="4"/>
         <v>2003</v>
       </c>
       <c r="B56" s="4">
         <v>38.278163999999997</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="4">
         <v>291.10982100000001</v>
       </c>
       <c r="D56">
@@ -4546,18 +4508,16 @@
         <f t="shared" si="63"/>
         <v>1.2263105991192238</v>
       </c>
-      <c r="G56" s="6"/>
-      <c r="J56" s="6"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="6">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
         <f t="shared" si="4"/>
         <v>2004</v>
       </c>
       <c r="B57" s="4">
         <v>38.668796999999998</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="4">
         <v>293.94788599999998</v>
       </c>
       <c r="D57">
@@ -4568,18 +4528,16 @@
         <f t="shared" si="64"/>
         <v>1.2197018351749602</v>
       </c>
-      <c r="G57" s="6"/>
-      <c r="J57" s="6"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
         <f t="shared" si="4"/>
         <v>2005</v>
       </c>
       <c r="B58" s="4">
         <v>39.070501</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="4">
         <v>296.84267</v>
       </c>
       <c r="D58">
@@ -4590,18 +4548,16 @@
         <f t="shared" si="65"/>
         <v>1.212818965683067</v>
       </c>
-      <c r="G58" s="6"/>
-      <c r="J58" s="6"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
         <f t="shared" si="4"/>
         <v>2006</v>
       </c>
       <c r="B59" s="4">
         <v>39.476851000000003</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="4">
         <v>299.75309800000002</v>
       </c>
       <c r="D59">
@@ -4612,18 +4568,16 @@
         <f t="shared" si="66"/>
         <v>1.2058476673358685</v>
       </c>
-      <c r="G59" s="6"/>
-      <c r="J59" s="6"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
         <f t="shared" si="4"/>
         <v>2007</v>
       </c>
       <c r="B60" s="4">
         <v>39.876111999999999</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="4">
         <v>302.74339900000001</v>
       </c>
       <c r="D60">
@@ -4634,18 +4588,16 @@
         <f t="shared" si="67"/>
         <v>1.1985127973013212</v>
       </c>
-      <c r="G60" s="6"/>
-      <c r="J60" s="6"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="6">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
         <f t="shared" si="4"/>
         <v>2008</v>
       </c>
       <c r="B61" s="4">
         <v>40.273769000000001</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="4">
         <v>305.69490999999999</v>
       </c>
       <c r="D61">
@@ -4656,18 +4608,16 @@
         <f t="shared" si="68"/>
         <v>1.1912569103620338</v>
       </c>
-      <c r="G61" s="6"/>
-      <c r="J61" s="6"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="6">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
         <f t="shared" si="4"/>
         <v>2009</v>
       </c>
       <c r="B62" s="4">
         <v>40.684339000000001</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="4">
         <v>308.51203600000002</v>
       </c>
       <c r="D62">
@@ -4678,18 +4628,16 @@
         <f t="shared" si="69"/>
         <v>1.1844622489866163</v>
       </c>
-      <c r="G62" s="6"/>
-      <c r="J62" s="6"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="6">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
         <f t="shared" si="4"/>
         <v>2010</v>
       </c>
       <c r="B63" s="4">
         <v>41.100123000000004</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="4">
         <v>311.18284499999999</v>
       </c>
       <c r="D63">
@@ -4700,1676 +4648,1566 @@
         <f t="shared" si="70"/>
         <v>1.1781376958617369</v>
       </c>
-      <c r="G63" s="6"/>
-      <c r="J63" s="6"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="6">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
         <f t="shared" si="4"/>
         <v>2011</v>
       </c>
       <c r="B64" s="4">
         <v>41.520740000000004</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="4">
         <v>313.87660899999997</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64">
         <f t="shared" si="70"/>
         <v>1.2093457149366797</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64">
         <f t="shared" si="70"/>
         <v>1.1716368421706762</v>
       </c>
-      <c r="G64" s="6"/>
-      <c r="J64" s="6"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="6">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
         <f t="shared" si="4"/>
         <v>2012</v>
       </c>
       <c r="B65" s="4">
         <v>41.952365</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="4">
         <v>316.651321</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65">
         <f t="shared" si="70"/>
         <v>1.2014289778418927</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65">
         <f t="shared" si="70"/>
         <v>1.164789715183282</v>
       </c>
-      <c r="G65" s="6"/>
-      <c r="J65" s="6"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="6">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
         <f t="shared" si="4"/>
         <v>2013</v>
       </c>
       <c r="B66" s="4">
         <v>42.388269000000001</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="4">
         <v>319.37516599999998</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66">
         <f t="shared" si="70"/>
         <v>1.1933685473214297</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66">
         <f t="shared" si="70"/>
         <v>1.1580519976935215</v>
       </c>
-      <c r="G66" s="6"/>
-      <c r="J66" s="6"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="6">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
         <f t="shared" si="4"/>
         <v>2014</v>
       </c>
       <c r="B67" s="4">
         <v>42.824053999999997</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="4">
         <v>322.03396400000003</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67">
         <f t="shared" si="70"/>
         <v>1.1852955350747505</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67">
         <f t="shared" si="70"/>
         <v>1.1514789663614486</v>
       </c>
-      <c r="G67" s="6"/>
-      <c r="J67" s="6"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="6">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
         <f t="shared" si="4"/>
         <v>2015</v>
       </c>
       <c r="B68" s="4">
         <v>43.257066000000002</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="4">
         <v>324.607777</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68">
         <f t="shared" si="70"/>
         <v>1.1772593869403902</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68">
         <f t="shared" si="70"/>
         <v>1.1451209131073898</v>
       </c>
-      <c r="G68" s="6"/>
-      <c r="J68" s="6"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="6">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
         <f t="shared" ref="A69:A132" si="71">A68+1</f>
         <v>2016</v>
       </c>
       <c r="B69" s="4">
         <v>43.668241999999999</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="4">
         <v>327.21019799999999</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69">
         <f t="shared" si="70"/>
         <v>1.1697726233174213</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69">
         <f t="shared" si="70"/>
         <v>1.1385706108096301</v>
       </c>
-      <c r="G69" s="6"/>
-      <c r="J69" s="6"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="6">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
         <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="B70" s="4">
         <v>44.054616000000003</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="4">
         <v>329.79123099999998</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70">
         <f t="shared" si="70"/>
         <v>1.1629036557712815</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E70">
         <f t="shared" si="70"/>
         <v>1.1320360819417907</v>
       </c>
-      <c r="G70" s="6"/>
-      <c r="J70" s="6"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="6">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
         <f t="shared" si="71"/>
         <v>2018</v>
       </c>
       <c r="B71" s="4">
         <v>44.413595999999998</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="4">
         <v>332.140038</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71">
         <f t="shared" si="70"/>
         <v>1.1566637387344181</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E71">
         <f t="shared" si="70"/>
         <v>1.1262240055503334</v>
       </c>
-      <c r="G71" s="6"/>
-      <c r="J71" s="6"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="6">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
         <f t="shared" si="71"/>
         <v>2019</v>
       </c>
       <c r="B72" s="4">
         <v>44.745519999999999</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="4">
         <v>334.31967100000003</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72">
         <f t="shared" si="70"/>
         <v>1.1509827352548367</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E72">
         <f t="shared" si="70"/>
         <v>1.1209319148917205</v>
       </c>
-      <c r="G72" s="6"/>
-      <c r="J72" s="6"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="6">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
         <f t="shared" si="71"/>
         <v>2020</v>
       </c>
       <c r="B73" s="4">
         <v>45.036031999999999</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="4">
         <v>335.942004</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73">
         <f t="shared" si="70"/>
         <v>1.1462194315875787</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E73">
         <f t="shared" si="70"/>
         <v>1.1174308616674204</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="6">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
         <f t="shared" si="71"/>
         <v>2021</v>
       </c>
       <c r="B74" s="4">
         <v>45.276780000000002</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="4">
         <v>336.99762399999997</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74">
         <f t="shared" si="70"/>
         <v>1.1425490063560173</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E74">
         <f t="shared" si="70"/>
         <v>1.1156990026730871</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="6">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
         <f t="shared" si="71"/>
         <v>2022</v>
       </c>
       <c r="B75" s="4">
         <v>45.510317999999998</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="4">
         <v>338.28985699999998</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75">
         <f t="shared" si="70"/>
         <v>1.138878682412195</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E75">
         <f t="shared" si="70"/>
         <v>1.1131136190110482</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="6">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
         <f t="shared" si="71"/>
         <v>2023</v>
       </c>
       <c r="B76" s="4">
         <v>45.773884000000002</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="4">
         <v>339.99656399999998</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76">
         <f t="shared" si="70"/>
         <v>1.134272175810993</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E76">
         <f t="shared" si="70"/>
         <v>1.1091345205476841</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="6">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
         <f t="shared" si="71"/>
         <v>2024</v>
       </c>
       <c r="B77" s="4">
         <v>46.057867000000002</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="4">
         <v>341.81441999999998</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77">
         <f t="shared" si="70"/>
         <v>1.1289984401578996</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E77">
         <f t="shared" si="70"/>
         <v>1.1048042180315272</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="6">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
         <f t="shared" si="71"/>
         <v>2025</v>
       </c>
       <c r="B78" s="4">
         <v>46.337519999999998</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="4">
         <v>343.60340400000001</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D78">
         <f t="shared" si="70"/>
         <v>1.123669005160397</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E78">
         <f t="shared" si="70"/>
         <v>1.1005952170369069</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="6">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
         <f t="shared" si="71"/>
         <v>2026</v>
       </c>
       <c r="B79" s="4">
         <v>46.613495</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79" s="4">
         <v>345.364937</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D79">
         <f t="shared" ref="D79:E123" si="72">B109/B79</f>
         <v>1.1182741821869397</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E79">
         <f t="shared" si="72"/>
         <v>1.0965124638579047</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="6">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
         <f t="shared" si="71"/>
         <v>2027</v>
       </c>
       <c r="B80" s="4">
         <v>46.885958000000002</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C80" s="4">
         <v>347.09826099999998</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D80">
         <f t="shared" si="72"/>
         <v>1.1128297303853747</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E80">
         <f t="shared" si="72"/>
         <v>1.0925731921197959</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="6">
+      <c r="A81">
         <f t="shared" si="71"/>
         <v>2028</v>
       </c>
       <c r="B81" s="4">
         <v>47.154446</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81" s="4">
         <v>348.80484999999999</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D81">
         <f t="shared" si="72"/>
         <v>1.1073270164174975</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E81">
         <f t="shared" si="72"/>
         <v>1.0887668907126722</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="6">
+      <c r="A82">
         <f t="shared" si="71"/>
         <v>2029</v>
       </c>
       <c r="B82" s="4">
         <v>47.418599999999998</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82" s="4">
         <v>350.49333200000001</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D82">
         <f t="shared" si="72"/>
         <v>1.1017829501503629</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E82">
         <f t="shared" si="72"/>
         <v>1.0850722404042767</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="6">
+      <c r="A83">
         <f t="shared" si="71"/>
         <v>2030</v>
       </c>
       <c r="B83" s="4">
         <v>47.678561000000002</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C83" s="4">
         <v>352.16230100000001</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D83">
         <f t="shared" si="72"/>
         <v>1.0962117543774024</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E83">
         <f t="shared" si="72"/>
         <v>1.0814961281162232</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="6">
+      <c r="A84">
         <f t="shared" si="71"/>
         <v>2031</v>
       </c>
       <c r="B84" s="4">
         <v>47.933520000000001</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="4">
         <v>353.80297400000001</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D84">
         <f t="shared" si="72"/>
         <v>1.0906315246616565</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E84">
         <f t="shared" si="72"/>
         <v>1.0780641318181796</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="6">
+      <c r="A85">
         <f t="shared" si="71"/>
         <v>2032</v>
       </c>
       <c r="B85" s="4">
         <v>48.184275</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85" s="4">
         <v>355.41219999999998</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D85">
         <f t="shared" si="72"/>
         <v>1.0850232155615083</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E85">
         <f t="shared" si="72"/>
         <v>1.074795654172817</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="6">
+      <c r="A86">
         <f t="shared" si="71"/>
         <v>2033</v>
       </c>
       <c r="B86" s="4">
         <v>48.431562</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="4">
         <v>356.99105900000001</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86">
         <f t="shared" si="72"/>
         <v>1.0793905841814477</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E86">
         <f t="shared" si="72"/>
         <v>1.0716988292975707</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="6">
+      <c r="A87">
         <f t="shared" si="71"/>
         <v>2034</v>
       </c>
       <c r="B87" s="4">
         <v>48.674650999999997</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C87" s="4">
         <v>358.52877599999999</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D87">
         <f t="shared" si="72"/>
         <v>1.0737507496458476</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E87">
         <f t="shared" si="72"/>
         <v>1.0687878844068015</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="6">
+      <c r="A88">
         <f t="shared" si="71"/>
         <v>2035</v>
       </c>
       <c r="B88" s="4">
         <v>48.912958000000003</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C88" s="4">
         <v>360.01641999999998</v>
       </c>
-      <c r="D88" s="6">
+      <c r="D88">
         <f t="shared" si="72"/>
         <v>1.0681295128378863</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E88">
         <f t="shared" si="72"/>
         <v>1.0660639950811133</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="6">
+      <c r="A89">
         <f t="shared" si="71"/>
         <v>2036</v>
       </c>
       <c r="B89" s="4">
         <v>49.145854999999997</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C89" s="4">
         <v>361.45657399999999</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D89">
         <f t="shared" si="72"/>
         <v>1.0625158113537756</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E89">
         <f t="shared" si="72"/>
         <v>1.0635083953404594</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="6">
+      <c r="A90">
         <f t="shared" si="71"/>
         <v>2037</v>
       </c>
       <c r="B90" s="4">
         <v>49.373724000000003</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C90" s="4">
         <v>362.841838</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D90">
         <f t="shared" si="72"/>
         <v>1.0568989084153344</v>
       </c>
-      <c r="E90" s="6">
+      <c r="E90">
         <f t="shared" si="72"/>
         <v>1.0611332312785826</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="6">
+      <c r="A91">
         <f t="shared" si="71"/>
         <v>2038</v>
       </c>
       <c r="B91" s="4">
         <v>49.595170000000003</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C91" s="4">
         <v>364.16117400000002</v>
       </c>
-      <c r="D91" s="6">
+      <c r="D91">
         <f t="shared" si="72"/>
         <v>1.0513117708841404</v>
       </c>
-      <c r="E91" s="6">
+      <c r="E91">
         <f t="shared" si="72"/>
         <v>1.0589664756517947</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="6">
+      <c r="A92">
         <f t="shared" si="71"/>
         <v>2039</v>
       </c>
       <c r="B92" s="4">
         <v>49.808557999999998</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C92" s="4">
         <v>365.42086</v>
       </c>
-      <c r="D92" s="6">
+      <c r="D92">
         <f t="shared" si="72"/>
         <v>1.0457687612638775</v>
       </c>
-      <c r="E92" s="6">
+      <c r="E92">
         <f t="shared" si="72"/>
         <v>1.0569503667634081</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="6">
+      <c r="A93">
         <f t="shared" si="71"/>
         <v>2040</v>
       </c>
       <c r="B93" s="4">
         <v>50.014488999999998</v>
       </c>
-      <c r="C93" s="5">
+      <c r="C93" s="4">
         <v>366.61624</v>
       </c>
-      <c r="D93" s="6">
+      <c r="D93">
         <f t="shared" si="72"/>
         <v>1.04026415225396</v>
       </c>
-      <c r="E93" s="6">
+      <c r="E93">
         <f t="shared" si="72"/>
         <v>1.0550686734444716</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="6">
+      <c r="A94">
         <f t="shared" si="71"/>
         <v>2041</v>
       </c>
       <c r="B94" s="4">
         <v>50.212929000000003</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C94" s="4">
         <v>367.74939899999998</v>
       </c>
-      <c r="D94" s="6">
+      <c r="D94">
         <f t="shared" si="72"/>
         <v>1.0348039446175306</v>
       </c>
-      <c r="E94" s="6">
+      <c r="E94">
         <f t="shared" si="72"/>
         <v>1.0533582462768349</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="6">
+      <c r="A95">
         <f t="shared" si="71"/>
         <v>2042</v>
       </c>
       <c r="B95" s="4">
         <v>50.402786999999996</v>
       </c>
-      <c r="C95" s="5">
+      <c r="C95" s="4">
         <v>368.832202</v>
       </c>
-      <c r="D95" s="6">
+      <c r="D95">
         <f t="shared" si="72"/>
         <v>1.0294135322318587</v>
       </c>
-      <c r="E95" s="6">
+      <c r="E95">
         <f t="shared" si="72"/>
         <v>1.0517665510128098</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="6">
+      <c r="A96">
         <f t="shared" si="71"/>
         <v>2043</v>
       </c>
       <c r="B96" s="4">
         <v>50.584826999999997</v>
       </c>
-      <c r="C96" s="5">
+      <c r="C96" s="4">
         <v>369.853049</v>
       </c>
-      <c r="D96" s="6">
+      <c r="D96">
         <f t="shared" si="72"/>
         <v>1.0240797304693756</v>
       </c>
-      <c r="E96" s="6">
+      <c r="E96">
         <f t="shared" si="72"/>
         <v>1.0502781443880973</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="6">
+      <c r="A97">
         <f t="shared" si="71"/>
         <v>2044</v>
       </c>
       <c r="B97" s="4">
         <v>50.759160000000001</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C97" s="4">
         <v>370.815336</v>
       </c>
-      <c r="D97" s="6">
+      <c r="D97">
         <f t="shared" si="72"/>
         <v>1.0187917806362436</v>
       </c>
-      <c r="E97" s="6">
+      <c r="E97">
         <f t="shared" si="72"/>
         <v>1.0488695564630046</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="6">
+      <c r="A98">
         <f t="shared" si="71"/>
         <v>2045</v>
       </c>
       <c r="B98" s="4">
         <v>50.924787000000002</v>
       </c>
-      <c r="C98" s="5">
+      <c r="C98" s="4">
         <v>371.71515399999998</v>
       </c>
-      <c r="D98" s="6">
+      <c r="D98">
         <f t="shared" si="72"/>
         <v>1.0135529285571681</v>
       </c>
-      <c r="E98" s="6">
+      <c r="E98">
         <f t="shared" si="72"/>
         <v>1.047550996535374</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="6">
+      <c r="A99">
         <f t="shared" si="71"/>
         <v>2046</v>
       </c>
       <c r="B99" s="4">
         <v>51.081913999999998</v>
       </c>
-      <c r="C99" s="5">
+      <c r="C99" s="4">
         <v>372.55191500000001</v>
       </c>
-      <c r="D99" s="6">
+      <c r="D99">
         <f t="shared" si="72"/>
         <v>1.0083862362714131</v>
       </c>
-      <c r="E99" s="6">
+      <c r="E99">
         <f t="shared" si="72"/>
         <v>1.046326633430404</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="6">
+      <c r="A100">
         <f t="shared" si="71"/>
         <v>2047</v>
       </c>
       <c r="B100" s="4">
         <v>51.231273999999999</v>
       </c>
-      <c r="C100" s="5">
+      <c r="C100" s="4">
         <v>373.33557300000001</v>
       </c>
-      <c r="D100" s="6">
+      <c r="D100">
         <f t="shared" si="72"/>
         <v>1.0033077061483968</v>
       </c>
-      <c r="E100" s="6">
+      <c r="E100">
         <f t="shared" si="72"/>
         <v>1.0451711575848144</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="6">
+      <c r="A101">
         <f t="shared" si="71"/>
         <v>2048</v>
       </c>
       <c r="B101" s="4">
         <v>51.371595999999997</v>
       </c>
-      <c r="C101" s="5">
+      <c r="C101" s="4">
         <v>374.06408399999998</v>
       </c>
-      <c r="D101" s="6">
+      <c r="D101">
         <f t="shared" si="72"/>
         <v>0.99831525576896629</v>
       </c>
-      <c r="E101" s="6">
+      <c r="E101">
         <f t="shared" si="72"/>
         <v>1.0440972461820206</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="6">
+      <c r="A102">
         <f t="shared" si="71"/>
         <v>2049</v>
       </c>
       <c r="B102" s="4">
         <v>51.501320999999997</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C102" s="4">
         <v>374.74958900000001</v>
       </c>
-      <c r="D102" s="6">
+      <c r="D102">
         <f t="shared" si="72"/>
         <v>0.99344376040373805</v>
       </c>
-      <c r="E102" s="6">
+      <c r="E102">
         <f t="shared" si="72"/>
         <v>1.0430503580885848</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="6">
+      <c r="A103">
         <f t="shared" si="71"/>
         <v>2050</v>
       </c>
       <c r="B103" s="4">
         <v>51.621175000000001</v>
       </c>
-      <c r="C103" s="5">
+      <c r="C103" s="4">
         <v>375.39196299999998</v>
       </c>
-      <c r="D103" s="6">
+      <c r="D103">
         <f t="shared" si="72"/>
         <v>0.98866604644315048</v>
       </c>
-      <c r="E103" s="6">
+      <c r="E103">
         <f t="shared" si="72"/>
         <v>1.0420267468539279</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="6">
+      <c r="A104">
         <f t="shared" si="71"/>
         <v>2051</v>
       </c>
       <c r="B104" s="4">
         <v>51.730939999999997</v>
       </c>
-      <c r="C104" s="5">
+      <c r="C104" s="4">
         <v>375.98791299999999</v>
       </c>
-      <c r="D104" s="6">
+      <c r="D104">
         <f t="shared" si="72"/>
         <v>0.98396922615363269</v>
       </c>
-      <c r="E104" s="6">
+      <c r="E104">
         <f t="shared" si="72"/>
         <v>1.04105574000194</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="6">
+      <c r="A105">
         <f t="shared" si="71"/>
         <v>2052</v>
       </c>
       <c r="B105" s="4">
         <v>51.830731</v>
       </c>
-      <c r="C105" s="5">
+      <c r="C105" s="4">
         <v>376.555047</v>
       </c>
-      <c r="D105" s="6">
+      <c r="D105">
         <f t="shared" si="72"/>
         <v>0.97937117653231631</v>
       </c>
-      <c r="E105" s="6">
+      <c r="E105">
         <f t="shared" si="72"/>
         <v>1.0400944114818889</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="6">
+      <c r="A106">
         <f t="shared" si="71"/>
         <v>2053</v>
       </c>
       <c r="B106" s="4">
         <v>51.920043</v>
       </c>
-      <c r="C106" s="5">
+      <c r="C106" s="4">
         <v>377.10192599999999</v>
       </c>
-      <c r="D106" s="6">
+      <c r="D106">
         <f t="shared" si="72"/>
         <v>0.97488438135538524</v>
       </c>
-      <c r="E106" s="6">
+      <c r="E106">
         <f t="shared" si="72"/>
         <v>1.0391273923114357</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="6">
+      <c r="A107">
         <f t="shared" si="71"/>
         <v>2054</v>
       </c>
       <c r="B107" s="4">
         <v>51.99926</v>
       </c>
-      <c r="C107" s="5">
+      <c r="C107" s="4">
         <v>377.638013</v>
       </c>
-      <c r="D107" s="6">
+      <c r="D107">
         <f t="shared" si="72"/>
         <v>0.97050356101221436</v>
       </c>
-      <c r="E107" s="6">
+      <c r="E107">
         <f t="shared" si="72"/>
         <v>1.0381436547808549</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="6">
+      <c r="A108">
         <f t="shared" si="71"/>
         <v>2055</v>
       </c>
       <c r="B108" s="4">
         <v>52.068035000000002</v>
       </c>
-      <c r="C108" s="5">
+      <c r="C108" s="4">
         <v>378.16826300000002</v>
       </c>
-      <c r="D108" s="6">
+      <c r="D108">
         <f t="shared" si="72"/>
         <v>0.96622451759510419</v>
       </c>
-      <c r="E108" s="6">
+      <c r="E108">
         <f t="shared" si="72"/>
         <v>1.0371292659215032</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="6">
+      <c r="A109">
         <f t="shared" si="71"/>
         <v>2056</v>
       </c>
       <c r="B109" s="4">
         <v>52.126668000000002</v>
       </c>
-      <c r="C109" s="5">
+      <c r="C109" s="4">
         <v>378.696958</v>
       </c>
-      <c r="D109" s="6">
+      <c r="D109">
         <f t="shared" si="72"/>
         <v>0.96205744437760721</v>
       </c>
-      <c r="E109" s="6">
+      <c r="E109">
         <f t="shared" si="72"/>
         <v>1.036088639507899</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="6">
+      <c r="A110">
         <f t="shared" si="71"/>
         <v>2057</v>
       </c>
       <c r="B110" s="4">
         <v>52.176088</v>
       </c>
-      <c r="C110" s="5">
+      <c r="C110" s="4">
         <v>379.230255</v>
       </c>
-      <c r="D110" s="6">
+      <c r="D110">
         <f t="shared" si="72"/>
         <v>0.95798101996454776</v>
       </c>
-      <c r="E110" s="6">
+      <c r="E110">
         <f t="shared" si="72"/>
         <v>1.0350045699808419</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="6">
+      <c r="A111">
         <f t="shared" si="71"/>
         <v>2058</v>
       </c>
       <c r="B111" s="4">
         <v>52.215392000000001</v>
       </c>
-      <c r="C111" s="5">
+      <c r="C111" s="4">
         <v>379.76717200000002</v>
       </c>
-      <c r="D111" s="6">
+      <c r="D111">
         <f t="shared" si="72"/>
         <v>0.95400381174960813</v>
       </c>
-      <c r="E111" s="6">
+      <c r="E111">
         <f t="shared" si="72"/>
         <v>1.0338849535946724</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="6">
+      <c r="A112">
         <f t="shared" si="71"/>
         <v>2059</v>
       </c>
       <c r="B112" s="4">
         <v>52.245004999999999</v>
       </c>
-      <c r="C112" s="5">
+      <c r="C112" s="4">
         <v>380.310585</v>
       </c>
-      <c r="D112" s="6">
+      <c r="D112">
         <f t="shared" si="72"/>
         <v>0.95013965449902815</v>
       </c>
-      <c r="E112" s="6">
+      <c r="E112">
         <f t="shared" si="72"/>
         <v>1.0327440689035778</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="6">
+      <c r="A113">
         <f t="shared" si="71"/>
         <v>2060</v>
       </c>
       <c r="B113" s="4">
         <v>52.265799000000001</v>
       </c>
-      <c r="C113" s="5">
+      <c r="C113" s="4">
         <v>380.862165</v>
       </c>
-      <c r="D113" s="6">
+      <c r="D113">
         <f t="shared" si="72"/>
         <v>0.9463827196059893</v>
       </c>
-      <c r="E113" s="6">
+      <c r="E113">
         <f t="shared" si="72"/>
         <v>1.0315610740699328</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="6">
+      <c r="A114">
         <f t="shared" si="71"/>
         <v>2061</v>
       </c>
       <c r="B114" s="4">
         <v>52.277808</v>
       </c>
-      <c r="C114" s="5">
+      <c r="C114" s="4">
         <v>381.42229600000002</v>
       </c>
-      <c r="D114" s="6">
+      <c r="D114">
         <f t="shared" si="72"/>
         <v>0.94271886839631835</v>
       </c>
-      <c r="E114" s="6">
+      <c r="E114">
         <f t="shared" si="72"/>
         <v>1.0303517888739258</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="6">
+      <c r="A115">
         <f t="shared" si="71"/>
         <v>2062</v>
       </c>
       <c r="B115" s="4">
         <v>52.281056999999997</v>
       </c>
-      <c r="C115" s="5">
+      <c r="C115" s="4">
         <v>381.99548800000002</v>
       </c>
-      <c r="D115" s="6">
+      <c r="D115">
         <f t="shared" si="72"/>
         <v>0.93915951240236017</v>
       </c>
-      <c r="E115" s="6">
+      <c r="E115">
         <f t="shared" si="72"/>
         <v>1.0291198308604104</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="6">
+      <c r="A116">
         <f t="shared" si="71"/>
         <v>2063</v>
       </c>
       <c r="B116" s="4">
         <v>52.276572000000002</v>
       </c>
-      <c r="C116" s="5">
+      <c r="C116" s="4">
         <v>382.58690000000001</v>
       </c>
-      <c r="D116" s="6">
+      <c r="D116">
         <f t="shared" si="72"/>
         <v>0.93569750518454042</v>
       </c>
-      <c r="E116" s="6">
+      <c r="E116">
         <f t="shared" si="72"/>
         <v>1.0278360105900124</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="6">
+      <c r="A117">
         <f t="shared" si="71"/>
         <v>2064</v>
       </c>
       <c r="B117" s="4">
         <v>52.264443</v>
       </c>
-      <c r="C117" s="5">
+      <c r="C117" s="4">
         <v>383.19121200000001</v>
       </c>
-      <c r="D117" s="6">
+      <c r="D117">
         <f t="shared" si="72"/>
         <v>0.93231639338431282</v>
       </c>
-      <c r="E117" s="6">
+      <c r="E117">
         <f t="shared" si="72"/>
         <v>1.0265206656148471</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="6">
+      <c r="A118">
         <f t="shared" si="71"/>
         <v>2065</v>
       </c>
       <c r="B118" s="4">
         <v>52.245373999999998</v>
       </c>
-      <c r="C118" s="5">
+      <c r="C118" s="4">
         <v>383.800543</v>
       </c>
-      <c r="D118" s="6">
+      <c r="D118">
         <f t="shared" si="72"/>
         <v>0.92901428937995545</v>
       </c>
-      <c r="E118" s="6">
+      <c r="E118">
         <f t="shared" si="72"/>
         <v>1.0252033489176173</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="6">
+      <c r="A119">
         <f t="shared" si="71"/>
         <v>2066</v>
       </c>
       <c r="B119" s="4">
         <v>52.218248000000003</v>
       </c>
-      <c r="C119" s="5">
+      <c r="C119" s="4">
         <v>384.41210100000001</v>
       </c>
-      <c r="D119" s="6">
+      <c r="D119">
         <f t="shared" si="72"/>
         <v>0.92582569985879259</v>
       </c>
-      <c r="E119" s="6">
+      <c r="E119">
         <f t="shared" si="72"/>
         <v>1.0239083316474473</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="6">
+      <c r="A120">
         <f t="shared" si="71"/>
         <v>2067</v>
       </c>
       <c r="B120" s="4">
         <v>52.183034999999997</v>
       </c>
-      <c r="C120" s="5">
+      <c r="C120" s="4">
         <v>385.02353199999999</v>
       </c>
-      <c r="D120" s="6">
+      <c r="D120">
         <f t="shared" si="72"/>
         <v>0.92274213257239646</v>
       </c>
-      <c r="E120" s="6">
+      <c r="E120">
         <f t="shared" si="72"/>
         <v>1.0226096492200898</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="6">
+      <c r="A121">
         <f t="shared" si="71"/>
         <v>2068</v>
       </c>
       <c r="B121" s="4">
         <v>52.139986</v>
       </c>
-      <c r="C121" s="5">
+      <c r="C121" s="4">
         <v>385.63447500000001</v>
       </c>
-      <c r="D121" s="6">
+      <c r="D121">
         <f t="shared" si="72"/>
         <v>0.91975546368577854</v>
       </c>
-      <c r="E121" s="6">
+      <c r="E121">
         <f t="shared" si="72"/>
         <v>1.021285835505241</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="6">
+      <c r="A122">
         <f t="shared" si="71"/>
         <v>2069</v>
       </c>
       <c r="B122" s="4">
         <v>52.088234</v>
       </c>
-      <c r="C122" s="5">
+      <c r="C122" s="4">
         <v>386.23171200000002</v>
       </c>
-      <c r="D122" s="6">
+      <c r="D122">
         <f t="shared" si="72"/>
         <v>0.91689196066812328</v>
       </c>
-      <c r="E122" s="6">
+      <c r="E122">
         <f t="shared" si="72"/>
         <v>1.0199740486353435</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="6">
+      <c r="A123">
         <f t="shared" si="71"/>
         <v>2070</v>
       </c>
       <c r="B123" s="4">
         <v>52.028280000000002</v>
       </c>
-      <c r="C123" s="5">
+      <c r="C123" s="4">
         <v>386.80531000000002</v>
       </c>
-      <c r="D123" s="6">
+      <c r="D123">
         <f t="shared" si="72"/>
         <v>0.91414986234409434</v>
       </c>
-      <c r="E123" s="6">
+      <c r="E123">
         <f t="shared" si="72"/>
         <v>1.0187066847660389</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="6">
+      <c r="A124">
         <f t="shared" si="71"/>
         <v>2071</v>
       </c>
       <c r="B124" s="4">
         <v>51.960537000000002</v>
       </c>
-      <c r="C124" s="5">
+      <c r="C124" s="4">
         <v>387.37186200000002</v>
       </c>
-      <c r="D124" s="6"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="6">
+      <c r="A125">
         <f t="shared" si="71"/>
         <v>2072</v>
       </c>
       <c r="B125" s="4">
         <v>51.885311000000002</v>
       </c>
-      <c r="C125" s="5">
+      <c r="C125" s="4">
         <v>387.92537299999998</v>
       </c>
-      <c r="D125" s="6"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="6">
+      <c r="A126">
         <f t="shared" si="71"/>
         <v>2073</v>
       </c>
       <c r="B126" s="4">
         <v>51.802895999999997</v>
       </c>
-      <c r="C126" s="5">
+      <c r="C126" s="4">
         <v>388.44857400000001</v>
       </c>
-      <c r="D126" s="6"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="6">
+      <c r="A127">
         <f t="shared" si="71"/>
         <v>2074</v>
       </c>
       <c r="B127" s="4">
         <v>51.713014999999999</v>
       </c>
-      <c r="C127" s="5">
+      <c r="C127" s="4">
         <v>388.93691699999999</v>
       </c>
-      <c r="D127" s="6"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="6">
+      <c r="A128">
         <f t="shared" si="71"/>
         <v>2075</v>
       </c>
       <c r="B128" s="4">
         <v>51.614967</v>
       </c>
-      <c r="C128" s="5">
+      <c r="C128" s="4">
         <v>389.39058</v>
       </c>
-      <c r="D128" s="6"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="6">
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
         <f t="shared" si="71"/>
         <v>2076</v>
       </c>
       <c r="B129" s="4">
         <v>51.510299000000003</v>
       </c>
-      <c r="C129" s="5">
+      <c r="C129" s="4">
         <v>389.810991</v>
       </c>
-      <c r="D129" s="6"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="6">
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
         <f t="shared" si="71"/>
         <v>2077</v>
       </c>
       <c r="B130" s="4">
         <v>51.400731999999998</v>
       </c>
-      <c r="C130" s="5">
+      <c r="C130" s="4">
         <v>390.19957299999999</v>
       </c>
-      <c r="D130" s="6"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="6">
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
         <f t="shared" si="71"/>
         <v>2078</v>
       </c>
       <c r="B131" s="4">
         <v>51.285048000000003</v>
       </c>
-      <c r="C131" s="5">
+      <c r="C131" s="4">
         <v>390.55928</v>
       </c>
-      <c r="D131" s="6"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="6">
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
         <f t="shared" si="71"/>
         <v>2079</v>
       </c>
       <c r="B132" s="4">
         <v>51.163665999999999</v>
       </c>
-      <c r="C132" s="5">
+      <c r="C132" s="4">
         <v>390.88269300000002</v>
       </c>
-      <c r="D132" s="6"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="6">
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
         <f t="shared" ref="A133:A153" si="73">A132+1</f>
         <v>2080</v>
       </c>
       <c r="B133" s="4">
         <v>51.036102999999997</v>
       </c>
-      <c r="C133" s="5">
+      <c r="C133" s="4">
         <v>391.16846600000002</v>
       </c>
-      <c r="D133" s="6"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="6">
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
         <f t="shared" si="73"/>
         <v>2081</v>
       </c>
       <c r="B134" s="4">
         <v>50.901653000000003</v>
       </c>
-      <c r="C134" s="5">
+      <c r="C134" s="4">
         <v>391.424375</v>
       </c>
-      <c r="D134" s="6"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="6">
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
         <f t="shared" si="73"/>
         <v>2082</v>
       </c>
       <c r="B135" s="4">
         <v>50.761524000000001</v>
       </c>
-      <c r="C135" s="5">
+      <c r="C135" s="4">
         <v>391.65280000000001</v>
       </c>
-      <c r="D135" s="6"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="6">
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
         <f t="shared" si="73"/>
         <v>2083</v>
       </c>
       <c r="B136" s="4">
         <v>50.616039000000001</v>
       </c>
-      <c r="C136" s="5">
+      <c r="C136" s="4">
         <v>391.85694100000001</v>
       </c>
-      <c r="D136" s="6"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="6">
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
         <f t="shared" si="73"/>
         <v>2084</v>
       </c>
       <c r="B137" s="4">
         <v>50.465466999999997</v>
       </c>
-      <c r="C137" s="5">
+      <c r="C137" s="4">
         <v>392.042507</v>
       </c>
-      <c r="D137" s="6"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="6">
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
         <f t="shared" si="73"/>
         <v>2085</v>
       </c>
       <c r="B138" s="4">
         <v>50.309412000000002</v>
       </c>
-      <c r="C138" s="5">
+      <c r="C138" s="4">
         <v>392.20937300000003</v>
       </c>
-      <c r="D138" s="6"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="6">
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
         <f t="shared" si="73"/>
         <v>2086</v>
       </c>
       <c r="B139" s="4">
         <v>50.148848999999998</v>
       </c>
-      <c r="C139" s="5">
+      <c r="C139" s="4">
         <v>392.36361599999998</v>
       </c>
-      <c r="D139" s="6"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="6">
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
         <f t="shared" si="73"/>
         <v>2087</v>
       </c>
       <c r="B140" s="4">
         <v>49.983702000000001</v>
       </c>
-      <c r="C140" s="5">
+      <c r="C140" s="4">
         <v>392.50504699999999</v>
       </c>
-      <c r="D140" s="6"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="6">
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
         <f t="shared" si="73"/>
         <v>2088</v>
       </c>
       <c r="B141" s="4">
         <v>49.813682999999997</v>
       </c>
-      <c r="C141" s="5">
+      <c r="C141" s="4">
         <v>392.63556499999999</v>
       </c>
-      <c r="D141" s="6"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="6">
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
         <f t="shared" si="73"/>
         <v>2089</v>
       </c>
       <c r="B142" s="4">
         <v>49.640051</v>
       </c>
-      <c r="C142" s="5">
+      <c r="C142" s="4">
         <v>392.76350100000002</v>
       </c>
-      <c r="D142" s="6"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="6">
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
         <f t="shared" si="73"/>
         <v>2090</v>
       </c>
       <c r="B143" s="4">
         <v>49.463448999999997</v>
       </c>
-      <c r="C143" s="5">
+      <c r="C143" s="4">
         <v>392.88258400000001</v>
       </c>
-      <c r="D143" s="6"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="6">
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
         <f t="shared" si="73"/>
         <v>2091</v>
       </c>
       <c r="B144" s="4">
         <v>49.283276000000001</v>
       </c>
-      <c r="C144" s="5">
+      <c r="C144" s="4">
         <v>392.999145</v>
       </c>
-      <c r="D144" s="6"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="6">
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
         <f t="shared" si="73"/>
         <v>2092</v>
       </c>
       <c r="B145" s="4">
         <v>49.100251999999998</v>
       </c>
-      <c r="C145" s="5">
+      <c r="C145" s="4">
         <v>393.11913199999998</v>
       </c>
-      <c r="D145" s="6"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="6">
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
         <f t="shared" si="73"/>
         <v>2093</v>
       </c>
       <c r="B146" s="4">
         <v>48.915058000000002</v>
       </c>
-      <c r="C146" s="5">
+      <c r="C146" s="4">
         <v>393.23659300000003</v>
       </c>
-      <c r="D146" s="6"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="6">
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
         <f t="shared" si="73"/>
         <v>2094</v>
       </c>
       <c r="B147" s="4">
         <v>48.726996999999997</v>
       </c>
-      <c r="C147" s="5">
+      <c r="C147" s="4">
         <v>393.35369800000001</v>
       </c>
-      <c r="D147" s="6"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="6">
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
         <f t="shared" si="73"/>
         <v>2095</v>
       </c>
       <c r="B148" s="4">
         <v>48.536698999999999</v>
       </c>
-      <c r="C148" s="5">
+      <c r="C148" s="4">
         <v>393.47360200000003</v>
       </c>
-      <c r="D148" s="6"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="6">
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
         <f t="shared" si="73"/>
         <v>2096</v>
       </c>
       <c r="B149" s="4">
         <v>48.344996000000002</v>
       </c>
-      <c r="C149" s="5">
+      <c r="C149" s="4">
         <v>393.60275300000001</v>
       </c>
-      <c r="D149" s="6"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="6">
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
         <f t="shared" si="73"/>
         <v>2097</v>
       </c>
       <c r="B150" s="4">
         <v>48.151485000000001</v>
       </c>
-      <c r="C150" s="5">
+      <c r="C150" s="4">
         <v>393.72877899999997</v>
       </c>
-      <c r="D150" s="6"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="6">
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
         <f t="shared" si="73"/>
         <v>2098</v>
       </c>
       <c r="B151" s="4">
         <v>47.956037000000002</v>
       </c>
-      <c r="C151" s="5">
+      <c r="C151" s="4">
         <v>393.84302700000001</v>
       </c>
-      <c r="D151" s="6"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="6">
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
         <f t="shared" si="73"/>
         <v>2099</v>
       </c>
       <c r="B152" s="4">
         <v>47.759283000000003</v>
       </c>
-      <c r="C152" s="5">
+      <c r="C152" s="4">
         <v>393.94632300000001</v>
       </c>
-      <c r="D152" s="6"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="6">
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
         <f t="shared" si="73"/>
         <v>2100</v>
       </c>
       <c r="B153" s="4">
         <v>47.561644999999999</v>
       </c>
-      <c r="C153" s="5">
+      <c r="C153" s="4">
         <v>394.041155</v>
       </c>
-      <c r="D153" s="6"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D154" s="6"/>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D155" s="6"/>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D156" s="6"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D157" s="6"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D158" s="6"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D159" s="6"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D160" s="6"/>
-    </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D161" s="6"/>
-    </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D162" s="6"/>
-    </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D163" s="6"/>
-    </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D164" s="6"/>
-    </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D165" s="6"/>
-    </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D166" s="6"/>
-    </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D167" s="6"/>
-    </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D168" s="6"/>
-    </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D169" s="6"/>
-    </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D170" s="6"/>
-    </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D171" s="6"/>
-    </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D172" s="6"/>
-    </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D173" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inputdata.xlsx
+++ b/Inputdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13530" windowHeight="1650" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13534" windowHeight="1654" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="30year_US" sheetId="6" r:id="rId1"/>
@@ -902,9 +902,9 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -965,7 +965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!O1,0)</f>
         <v>1950</v>
@@ -1039,7 +1039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!O2,0)</f>
         <v>1980</v>
@@ -1113,7 +1113,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!O3,0)</f>
         <v>2010</v>
@@ -1187,7 +1187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!O4,0)</f>
         <v>2040</v>
@@ -1261,7 +1261,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!O5,0)</f>
         <v>2070</v>
@@ -1335,7 +1335,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7">
         <f ca="1">OFFSET(PopulationDataUS!$A$2,'30year_US'!O6,0)</f>
         <v>2100</v>
@@ -1409,7 +1409,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="O8">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -1435,7 +1435,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="O9">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -1461,7 +1461,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="O10">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -1487,7 +1487,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="O11">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -1526,9 +1526,9 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2">
         <f ca="1">OFFSET(PopulationData!$A$2,'30year'!O1,0)</f>
         <v>1950</v>
@@ -1663,7 +1663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3">
         <f ca="1">OFFSET(PopulationData!$A$2,'30year'!$O2,0)</f>
         <v>1980</v>
@@ -1737,7 +1737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4">
         <f ca="1">OFFSET(PopulationData!$A$2,'30year'!$O3,0)</f>
         <v>2010</v>
@@ -1811,7 +1811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5">
         <f ca="1">OFFSET(PopulationData!$A$2,'30year'!$O4,0)</f>
         <v>2040</v>
@@ -1850,15 +1850,15 @@
       </c>
       <c r="J5">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!R4,0)</f>
-        <v>0.98866604644315048</v>
+        <v>0.96622451759510419</v>
       </c>
       <c r="K5">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!S4,0)</f>
-        <v>0.98866604644315048</v>
+        <v>0.9463827196059893</v>
       </c>
       <c r="L5">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!T4,0)</f>
-        <v>0.98866604644315048</v>
+        <v>0.92901428937995545</v>
       </c>
       <c r="O5">
         <f t="shared" si="2"/>
@@ -1885,7 +1885,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6">
         <f ca="1">OFFSET(PopulationData!$A$2,'30year'!$O5,0)</f>
         <v>2070</v>
@@ -1912,27 +1912,27 @@
       </c>
       <c r="G6">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!O5,0)</f>
-        <v>0.98866604644315048</v>
+        <v>0.91414986234409434</v>
       </c>
       <c r="H6">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!P5,0)</f>
-        <v>0.98866604644315048</v>
+        <v>0.91414986234409434</v>
       </c>
       <c r="I6">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!Q5,0)</f>
-        <v>0.98866604644315048</v>
+        <v>0.91414986234409434</v>
       </c>
       <c r="J6">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!R5,0)</f>
-        <v>0.98866604644315048</v>
+        <v>0.91414986234409434</v>
       </c>
       <c r="K6">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!S5,0)</f>
-        <v>0.98866604644315048</v>
+        <v>0.91414986234409434</v>
       </c>
       <c r="L6">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!T5,0)</f>
-        <v>0.98866604644315048</v>
+        <v>0.91414986234409434</v>
       </c>
       <c r="O6">
         <f t="shared" si="2"/>
@@ -1959,7 +1959,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7">
         <f ca="1">OFFSET(PopulationData!$A$2,'30year'!$O6,0)</f>
         <v>2100</v>
@@ -1986,27 +1986,27 @@
       </c>
       <c r="G7">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!O6,0)</f>
-        <v>0.98866604644315048</v>
+        <v>0.91414986234409434</v>
       </c>
       <c r="H7">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!P6,0)</f>
-        <v>0.98866604644315048</v>
+        <v>0.91414986234409434</v>
       </c>
       <c r="I7">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!Q6,0)</f>
-        <v>0.98866604644315048</v>
+        <v>0.91414986234409434</v>
       </c>
       <c r="J7">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!R6,0)</f>
-        <v>0.98866604644315048</v>
+        <v>0.91414986234409434</v>
       </c>
       <c r="K7">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!S6,0)</f>
-        <v>0.98866604644315048</v>
+        <v>0.91414986234409434</v>
       </c>
       <c r="L7">
         <f ca="1">OFFSET(PopulationData!$B$2,'30year'!T6,0)</f>
-        <v>0.98866604644315048</v>
+        <v>0.91414986234409434</v>
       </c>
       <c r="O7">
         <f t="shared" si="2"/>
@@ -2033,7 +2033,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="O8">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -2059,7 +2059,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="O9">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -2085,7 +2085,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="O10">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -2111,7 +2111,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="O11">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -2146,13 +2146,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1950</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>1.6467991464437528</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1955</v>
       </c>
@@ -2178,7 +2178,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <f>A3+5</f>
         <v>1960</v>
@@ -2189,7 +2189,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" ref="A5:A32" si="0">A4+5</f>
         <v>1965</v>
@@ -2200,7 +2200,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>1970</v>
@@ -2211,7 +2211,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>1975</v>
@@ -2220,7 +2220,7 @@
         <v>1.5099384326344409</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>1980</v>
@@ -2229,7 +2229,7 @@
         <v>1.4665624232933949</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>1985</v>
@@ -2238,7 +2238,7 @@
         <v>1.4282334347362007</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -2247,7 +2247,7 @@
         <v>1.3798794441647573</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>1995</v>
@@ -2256,7 +2256,7 @@
         <v>1.3259707589771794</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>2000</v>
@@ -2265,7 +2265,7 @@
         <v>1.286149595905389</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -2274,7 +2274,7 @@
         <v>1.2519153004974266</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -2283,7 +2283,7 @@
         <v>1.2168939007798101</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -2292,7 +2292,7 @@
         <v>1.1772593869403902</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -2301,7 +2301,7 @@
         <v>1.1462194315875787</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>2025</v>
@@ -2310,7 +2310,7 @@
         <v>1.123669005160397</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>2030</v>
@@ -2319,7 +2319,7 @@
         <v>1.0962117543774024</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>2035</v>
@@ -2328,7 +2328,7 @@
         <v>1.0681295128378863</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>2040</v>
@@ -2337,7 +2337,7 @@
         <v>1.04026415225396</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>2045</v>
@@ -2346,7 +2346,7 @@
         <v>1.0135529285571681</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>2050</v>
@@ -2355,154 +2355,148 @@
         <v>0.98866604644315048</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>2055</v>
       </c>
       <c r="B23">
-        <v>0.98866604644315048</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.96622451759510419</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>2060</v>
       </c>
       <c r="B24">
-        <v>0.98866604644315048</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.9463827196059893</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>2065</v>
       </c>
       <c r="B25">
-        <v>0.98866604644315048</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.92901428937995545</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>2070</v>
       </c>
       <c r="B26">
-        <v>0.98866604644315048</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.91414986234409434</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>2075</v>
       </c>
       <c r="B27">
-        <v>0.98866604644315048</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.91414986234409434</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>2080</v>
       </c>
       <c r="B28">
-        <v>0.98866604644315048</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.91414986234409434</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>2085</v>
       </c>
       <c r="B29">
-        <v>0.98866604644315048</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.91414986234409434</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>2090</v>
       </c>
       <c r="B30">
-        <v>0.98866604644315048</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.91414986234409434</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>2095</v>
       </c>
       <c r="B31">
-        <v>0.98866604644315048</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.91414986234409434</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>2100</v>
       </c>
       <c r="B32">
-        <v>0.98866604644315048</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.91414986234409434</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <f>A32+5</f>
         <v>2105</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33:B38" si="1">B32</f>
-        <v>0.98866604644315048</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.91414986234409434</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
-        <f t="shared" ref="A34:A38" si="2">A33+5</f>
+        <f t="shared" ref="A34:A38" si="1">A33+5</f>
         <v>2110</v>
       </c>
       <c r="B34">
+        <v>0.91414986234409434</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35">
         <f t="shared" si="1"/>
-        <v>0.98866604644315048</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f t="shared" si="2"/>
         <v>2115</v>
       </c>
       <c r="B35">
+        <v>0.91414986234409434</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36">
         <f t="shared" si="1"/>
-        <v>0.98866604644315048</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f t="shared" si="2"/>
         <v>2120</v>
       </c>
       <c r="B36">
+        <v>0.91414986234409434</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37">
         <f t="shared" si="1"/>
-        <v>0.98866604644315048</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f t="shared" si="2"/>
         <v>2125</v>
       </c>
       <c r="B37">
+        <v>0.91414986234409434</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38">
         <f t="shared" si="1"/>
-        <v>0.98866604644315048</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <f t="shared" si="2"/>
         <v>2130</v>
       </c>
       <c r="B38">
-        <f t="shared" si="1"/>
-        <v>0.98866604644315048</v>
+        <v>0.91414986234409434</v>
       </c>
     </row>
   </sheetData>
@@ -2516,9 +2510,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>0.2</v>
       </c>
@@ -2526,7 +2520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" s="3"/>
     </row>
   </sheetData>
@@ -2538,13 +2532,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2552,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1950</v>
       </c>
@@ -2560,7 +2552,7 @@
         <v>1.4970257766027759</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1955</v>
       </c>
@@ -2568,7 +2560,7 @@
         <v>1.44162129461585</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <f>A3+5</f>
         <v>1960</v>
@@ -2577,7 +2569,7 @@
         <v>1.3948689347462353</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" ref="A5:A32" si="0">A4+5</f>
         <v>1965</v>
@@ -2586,7 +2578,7 @@
         <v>1.3917364016736404</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>1970</v>
@@ -2595,7 +2587,7 @@
         <v>1.3874139626352016</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>1975</v>
@@ -2604,7 +2596,7 @@
         <v>1.3759888320148905</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>1980</v>
@@ -2613,7 +2605,7 @@
         <v>1.3655629139072849</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>1985</v>
@@ -2622,7 +2614,7 @@
         <v>1.3466219051615609</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -2631,7 +2623,7 @@
         <v>1.3298680527788886</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>1995</v>
@@ -2640,7 +2632,7 @@
         <v>1.2923712889891017</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>2000</v>
@@ -2649,7 +2641,7 @@
         <v>1.2583274273564848</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -2658,7 +2650,7 @@
         <v>1.2319918836658776</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -2667,7 +2659,7 @@
         <v>1.2075654704170709</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -2676,7 +2668,7 @@
         <v>1.1879090059208477</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -2685,7 +2677,7 @@
         <v>1.1692723992784124</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>2025</v>
@@ -2694,7 +2686,7 @@
         <v>1.1535330037801688</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>2030</v>
@@ -2703,7 +2695,7 @@
         <v>1.1391157420444944</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>2035</v>
@@ -2712,7 +2704,7 @@
         <v>1.1251715618995333</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>2040</v>
@@ -2721,7 +2713,7 @@
         <v>1.1108433734939758</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>2045</v>
@@ -2730,7 +2722,7 @@
         <v>1.1017838405036726</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>2050</v>
@@ -2739,7 +2731,7 @@
         <v>1.0928259192594498</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>2055</v>
@@ -2748,7 +2740,7 @@
         <v>1.0841946054953366</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>2060</v>
@@ -2757,7 +2749,7 @@
         <v>1.0758961681087762</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>2065</v>
@@ -2766,7 +2758,7 @@
         <v>1.0736765064649916</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>2070</v>
@@ -2775,7 +2767,7 @@
         <v>1.0725476018317668</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>2075</v>
@@ -2784,7 +2776,7 @@
         <v>1.0725</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>2080</v>
@@ -2793,7 +2785,7 @@
         <v>1.0725</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>2085</v>
@@ -2802,7 +2794,7 @@
         <v>1.0725</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>2090</v>
@@ -2811,7 +2803,7 @@
         <v>1.0725</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>2095</v>
@@ -2820,7 +2812,7 @@
         <v>1.0725</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>2100</v>
@@ -2829,7 +2821,7 @@
         <v>1.0725</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <f>A32+5</f>
         <v>2105</v>
@@ -2839,7 +2831,7 @@
         <v>1.0725</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <f t="shared" ref="A34:A38" si="2">A33+5</f>
         <v>2110</v>
@@ -2849,7 +2841,7 @@
         <v>1.0725</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <f t="shared" si="2"/>
         <v>2115</v>
@@ -2859,7 +2851,7 @@
         <v>1.0725</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <f t="shared" si="2"/>
         <v>2120</v>
@@ -2869,7 +2861,7 @@
         <v>1.0725</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <f t="shared" si="2"/>
         <v>2125</v>
@@ -2879,7 +2871,7 @@
         <v>1.0725</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <f t="shared" si="2"/>
         <v>2130</v>
@@ -2898,18 +2890,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23:H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625"/>
+    <col min="2" max="2" width="24.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.84375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.15234375"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -2935,7 +2927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1950</v>
       </c>
@@ -2969,7 +2961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <f>A3+1</f>
         <v>1951</v>
@@ -3005,7 +2997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" ref="A5:A68" si="4">A4+1</f>
         <v>1952</v>
@@ -3041,7 +3033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="4"/>
         <v>1953</v>
@@ -3077,7 +3069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="4"/>
         <v>1954</v>
@@ -3113,7 +3105,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="4"/>
         <v>1955</v>
@@ -3149,7 +3141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="4"/>
         <v>1956</v>
@@ -3185,7 +3177,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="4"/>
         <v>1957</v>
@@ -3221,7 +3213,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="4"/>
         <v>1958</v>
@@ -3257,7 +3249,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="4"/>
         <v>1959</v>
@@ -3293,7 +3285,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="4"/>
         <v>1960</v>
@@ -3329,7 +3321,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="4"/>
         <v>1961</v>
@@ -3365,7 +3357,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="4"/>
         <v>1962</v>
@@ -3401,7 +3393,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16">
         <f t="shared" si="4"/>
         <v>1963</v>
@@ -3437,7 +3429,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="4"/>
         <v>1964</v>
@@ -3473,7 +3465,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18">
         <f t="shared" si="4"/>
         <v>1965</v>
@@ -3497,7 +3489,7 @@
         <v>2025</v>
       </c>
       <c r="H18">
-        <f t="shared" ref="H18:H23" ca="1" si="22">OFFSET(D$3,$J18,0)</f>
+        <f t="shared" ref="H18:H33" ca="1" si="22">OFFSET(D$3,$J18,0)</f>
         <v>1.123669005160397</v>
       </c>
       <c r="I18">
@@ -3509,7 +3501,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19">
         <f t="shared" si="4"/>
         <v>1966</v>
@@ -3545,7 +3537,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20">
         <f t="shared" si="4"/>
         <v>1967</v>
@@ -3581,7 +3573,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21">
         <f t="shared" si="4"/>
         <v>1968</v>
@@ -3617,7 +3609,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22">
         <f t="shared" si="4"/>
         <v>1969</v>
@@ -3653,7 +3645,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23">
         <f t="shared" si="4"/>
         <v>1970</v>
@@ -3689,7 +3681,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24">
         <f t="shared" si="4"/>
         <v>1971</v>
@@ -3713,11 +3705,11 @@
         <v>2055</v>
       </c>
       <c r="H24">
-        <f ca="1">H23</f>
-        <v>0.98866604644315048</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>0.96622451759510419</v>
       </c>
       <c r="I24">
-        <f t="shared" ref="I24:I33" ca="1" si="30">I23</f>
+        <f t="shared" ref="H24:I33" ca="1" si="30">I23</f>
         <v>1.0420267468539279</v>
       </c>
       <c r="J24">
@@ -3725,7 +3717,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25">
         <f t="shared" si="4"/>
         <v>1972</v>
@@ -3749,8 +3741,8 @@
         <v>2060</v>
       </c>
       <c r="H25">
-        <f t="shared" ref="H25:H33" ca="1" si="32">H24</f>
-        <v>0.98866604644315048</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>0.9463827196059893</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="30"/>
@@ -3761,7 +3753,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26">
         <f t="shared" si="4"/>
         <v>1973</v>
@@ -3773,11 +3765,11 @@
         <v>207.31476499999999</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="D26:E26" si="33">B56/B26</f>
+        <f t="shared" ref="D26:E26" si="32">B56/B26</f>
         <v>1.5298666841882371</v>
       </c>
       <c r="E26">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>1.4041924172646363</v>
       </c>
       <c r="G26">
@@ -3785,8 +3777,8 @@
         <v>2065</v>
       </c>
       <c r="H26">
-        <f t="shared" ca="1" si="32"/>
-        <v>0.98866604644315048</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>0.92901428937995545</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="30"/>
@@ -3797,7 +3789,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27">
         <f t="shared" si="4"/>
         <v>1974</v>
@@ -3809,11 +3801,11 @@
         <v>209.27796900000001</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="D27:E27" si="34">B57/B27</f>
+        <f t="shared" ref="D27:E27" si="33">B57/B27</f>
         <v>1.5194172596160551</v>
       </c>
       <c r="E27">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>1.4045811291297459</v>
       </c>
       <c r="G27">
@@ -3821,8 +3813,8 @@
         <v>2070</v>
       </c>
       <c r="H27">
-        <f t="shared" ca="1" si="32"/>
-        <v>0.98866604644315048</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>0.91414986234409434</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="30"/>
@@ -3833,7 +3825,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28">
         <f t="shared" si="4"/>
         <v>1975</v>
@@ -3845,11 +3837,11 @@
         <v>211.27453600000001</v>
       </c>
       <c r="D28">
-        <f t="shared" ref="D28:E28" si="35">B58/B28</f>
+        <f t="shared" ref="D28:E28" si="34">B58/B28</f>
         <v>1.5099384326344409</v>
       </c>
       <c r="E28">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>1.405009215119043</v>
       </c>
       <c r="G28">
@@ -3857,8 +3849,8 @@
         <v>2075</v>
       </c>
       <c r="H28">
-        <f t="shared" ca="1" si="32"/>
-        <v>0.98866604644315048</v>
+        <f t="shared" ca="1" si="30"/>
+        <v>0.91414986234409434</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="30"/>
@@ -3869,7 +3861,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29">
         <f t="shared" si="4"/>
         <v>1976</v>
@@ -3881,11 +3873,11 @@
         <v>213.27002200000001</v>
       </c>
       <c r="D29">
-        <f t="shared" ref="D29:E29" si="36">B59/B29</f>
+        <f t="shared" ref="D29:E29" si="35">B59/B29</f>
         <v>1.5015772192717631</v>
       </c>
       <c r="E29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>1.4055097626425903</v>
       </c>
       <c r="G29">
@@ -3893,8 +3885,8 @@
         <v>2080</v>
       </c>
       <c r="H29">
-        <f t="shared" ca="1" si="32"/>
-        <v>0.98866604644315048</v>
+        <f t="shared" ca="1" si="30"/>
+        <v>0.91414986234409434</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="30"/>
@@ -3905,7 +3897,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30">
         <f t="shared" si="4"/>
         <v>1977</v>
@@ -3917,11 +3909,11 @@
         <v>215.43740600000001</v>
       </c>
       <c r="D30">
-        <f t="shared" ref="D30:E30" si="37">B60/B30</f>
+        <f t="shared" ref="D30:E30" si="36">B60/B30</f>
         <v>1.4927169423421169</v>
       </c>
       <c r="E30">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>1.4052499267467042</v>
       </c>
       <c r="G30">
@@ -3929,8 +3921,8 @@
         <v>2085</v>
       </c>
       <c r="H30">
-        <f t="shared" ca="1" si="32"/>
-        <v>0.98866604644315048</v>
+        <f t="shared" ref="H30" ca="1" si="37">H29</f>
+        <v>0.91414986234409434</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="30"/>
@@ -3941,7 +3933,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31">
         <f t="shared" si="4"/>
         <v>1978</v>
@@ -3965,8 +3957,8 @@
         <v>2090</v>
       </c>
       <c r="H31">
-        <f t="shared" ca="1" si="32"/>
-        <v>0.98866604644315048</v>
+        <f t="shared" ref="H31" ca="1" si="39">H30</f>
+        <v>0.91414986234409434</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="30"/>
@@ -3977,7 +3969,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32">
         <f t="shared" si="4"/>
         <v>1979</v>
@@ -3989,11 +3981,11 @@
         <v>220.46311499999999</v>
       </c>
       <c r="D32">
-        <f t="shared" ref="D32:E32" si="39">B62/B32</f>
+        <f t="shared" ref="D32:E32" si="40">B62/B32</f>
         <v>1.4749181177846657</v>
       </c>
       <c r="E32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.3993816425935923</v>
       </c>
       <c r="G32">
@@ -4001,8 +3993,8 @@
         <v>2095</v>
       </c>
       <c r="H32">
-        <f t="shared" ca="1" si="32"/>
-        <v>0.98866604644315048</v>
+        <f t="shared" ref="H32" ca="1" si="41">H31</f>
+        <v>0.91414986234409434</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="30"/>
@@ -4013,7 +4005,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33">
         <f t="shared" si="4"/>
         <v>1980</v>
@@ -4025,11 +4017,11 @@
         <v>223.140018</v>
       </c>
       <c r="D33">
-        <f t="shared" ref="D33:E33" si="40">B63/B33</f>
+        <f t="shared" ref="D33:E33" si="42">B63/B33</f>
         <v>1.4665624232933949</v>
       </c>
       <c r="E33">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.3945631437566703</v>
       </c>
       <c r="G33">
@@ -4037,8 +4029,8 @@
         <v>2100</v>
       </c>
       <c r="H33">
-        <f t="shared" ca="1" si="32"/>
-        <v>0.98866604644315048</v>
+        <f t="shared" ref="H33" ca="1" si="43">H32</f>
+        <v>0.91414986234409434</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="30"/>
@@ -4049,7 +4041,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34">
         <f t="shared" si="4"/>
         <v>1981</v>
@@ -4061,15 +4053,15 @@
         <v>225.654008</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34:E34" si="41">B64/B34</f>
+        <f t="shared" ref="D34:E34" si="44">B64/B34</f>
         <v>1.458337409077251</v>
       </c>
       <c r="E34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1.3909640328657489</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35">
         <f t="shared" si="4"/>
         <v>1982</v>
@@ -4081,15 +4073,15 @@
         <v>228.001419</v>
       </c>
       <c r="D35">
-        <f t="shared" ref="D35:E35" si="42">B65/B35</f>
+        <f t="shared" ref="D35:E35" si="45">B65/B35</f>
         <v>1.4504964982251696</v>
       </c>
       <c r="E35">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>1.3888129398001685</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36">
         <f t="shared" si="4"/>
         <v>1983</v>
@@ -4101,15 +4093,15 @@
         <v>230.38996399999999</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:E36" si="43">B66/B36</f>
+        <f t="shared" ref="D36:E36" si="46">B66/B36</f>
         <v>1.442899932692556</v>
       </c>
       <c r="E36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>1.38623731891377</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37">
         <f t="shared" si="4"/>
         <v>1984</v>
@@ -4121,15 +4113,15 @@
         <v>232.76627999999999</v>
       </c>
       <c r="D37">
-        <f t="shared" ref="D37:E37" si="44">B67/B37</f>
+        <f t="shared" ref="D37:E37" si="47">B67/B37</f>
         <v>1.4354978280681103</v>
       </c>
       <c r="E37">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>1.3835078001848036</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38">
         <f t="shared" si="4"/>
         <v>1985</v>
@@ -4141,15 +4133,15 @@
         <v>235.14618200000001</v>
       </c>
       <c r="D38">
-        <f t="shared" ref="D38:E38" si="45">B68/B38</f>
+        <f t="shared" ref="D38:E38" si="48">B68/B38</f>
         <v>1.4282334347362007</v>
       </c>
       <c r="E38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>1.3804509783620471</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39">
         <f t="shared" si="4"/>
         <v>1986</v>
@@ -4161,15 +4153,15 @@
         <v>237.51278300000001</v>
       </c>
       <c r="D39">
-        <f t="shared" ref="D39:E39" si="46">B69/B39</f>
+        <f t="shared" ref="D39:E39" si="49">B69/B39</f>
         <v>1.4201826980700445</v>
       </c>
       <c r="E39">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>1.3776529998387497</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40">
         <f t="shared" si="4"/>
         <v>1987</v>
@@ -4181,15 +4173,15 @@
         <v>239.85316900000001</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:E40" si="47">B70/B40</f>
+        <f t="shared" ref="D40:E40" si="50">B70/B40</f>
         <v>1.411262662953326</v>
       </c>
       <c r="E40">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>1.3749713308978626</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41">
         <f t="shared" si="4"/>
         <v>1988</v>
@@ -4201,15 +4193,15 @@
         <v>242.287814</v>
       </c>
       <c r="D41">
-        <f t="shared" ref="D41:E41" si="48">B71/B41</f>
+        <f t="shared" ref="D41:E41" si="51">B71/B41</f>
         <v>1.4014668550578713</v>
       </c>
       <c r="E41">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>1.3708491257426592</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42">
         <f t="shared" si="4"/>
         <v>1989</v>
@@ -4221,15 +4213,15 @@
         <v>244.954094</v>
       </c>
       <c r="D42">
-        <f t="shared" ref="D42:E42" si="49">B72/B42</f>
+        <f t="shared" ref="D42:E42" si="52">B72/B42</f>
         <v>1.3910913857919629</v>
       </c>
       <c r="E42">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>1.3648258150770081</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43">
         <f t="shared" si="4"/>
         <v>1990</v>
@@ -4241,15 +4233,15 @@
         <v>248.083732</v>
       </c>
       <c r="D43">
-        <f t="shared" ref="D43:E43" si="50">B73/B43</f>
+        <f t="shared" ref="D43:E43" si="53">B73/B43</f>
         <v>1.3798794441647573</v>
       </c>
       <c r="E43">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>1.3541476552763243</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44">
         <f t="shared" si="4"/>
         <v>1991</v>
@@ -4261,15 +4253,15 @@
         <v>251.56018900000001</v>
       </c>
       <c r="D44">
-        <f t="shared" ref="D44:E44" si="51">B74/B44</f>
+        <f t="shared" ref="D44:E44" si="54">B74/B44</f>
         <v>1.3676404316674411</v>
       </c>
       <c r="E44">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>1.3396301908486798</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45">
         <f t="shared" si="4"/>
         <v>1992</v>
@@ -4281,15 +4273,15 @@
         <v>255.17533900000001</v>
       </c>
       <c r="D45">
-        <f t="shared" ref="D45:E45" si="52">B75/B45</f>
+        <f t="shared" ref="D45:E45" si="55">B75/B45</f>
         <v>1.3557534036739318</v>
       </c>
       <c r="E45">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>1.325715323141003</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46">
         <f t="shared" si="4"/>
         <v>1993</v>
@@ -4301,15 +4293,15 @@
         <v>258.77975400000003</v>
       </c>
       <c r="D46">
-        <f t="shared" ref="D46:E46" si="53">B76/B46</f>
+        <f t="shared" ref="D46:E46" si="56">B76/B46</f>
         <v>1.3452129529165457</v>
       </c>
       <c r="E46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>1.3138453018237275</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47">
         <f t="shared" si="4"/>
         <v>1994</v>
@@ -4321,15 +4313,15 @@
         <v>262.27358900000002</v>
       </c>
       <c r="D47">
-        <f t="shared" ref="D47:E47" si="54">B77/B47</f>
+        <f t="shared" ref="D47:E47" si="57">B77/B47</f>
         <v>1.3354482001870991</v>
       </c>
       <c r="E47">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>1.3032742690687011</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48">
         <f t="shared" si="4"/>
         <v>1995</v>
@@ -4341,15 +4333,15 @@
         <v>265.66055599999999</v>
       </c>
       <c r="D48">
-        <f t="shared" ref="D48:E48" si="55">B78/B48</f>
+        <f t="shared" ref="D48:E48" si="58">B78/B48</f>
         <v>1.3259707589771794</v>
       </c>
       <c r="E48">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>1.2933926254374022</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49">
         <f t="shared" si="4"/>
         <v>1996</v>
@@ -4361,15 +4353,15 @@
         <v>268.98434800000001</v>
       </c>
       <c r="D49">
-        <f t="shared" ref="D49:E49" si="56">B79/B49</f>
+        <f t="shared" ref="D49:E49" si="59">B79/B49</f>
         <v>1.3171612135872921</v>
       </c>
       <c r="E49">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>1.2839592324531834</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50">
         <f t="shared" si="4"/>
         <v>1997</v>
@@ -4381,15 +4373,15 @@
         <v>272.39543900000001</v>
       </c>
       <c r="D50">
-        <f t="shared" ref="D50:E50" si="57">B80/B50</f>
+        <f t="shared" ref="D50:E50" si="60">B80/B50</f>
         <v>1.3090796281915686</v>
       </c>
       <c r="E50">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>1.2742440265308552</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51">
         <f t="shared" si="4"/>
         <v>1998</v>
@@ -4401,15 +4393,15 @@
         <v>275.83501799999999</v>
       </c>
       <c r="D51">
-        <f t="shared" ref="D51:E51" si="58">B81/B51</f>
+        <f t="shared" ref="D51:E51" si="61">B81/B51</f>
         <v>1.3014156217799726</v>
       </c>
       <c r="E51">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>1.2645415818813839</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52">
         <f t="shared" si="4"/>
         <v>1999</v>
@@ -4421,15 +4413,15 @@
         <v>279.18158199999999</v>
       </c>
       <c r="D52">
-        <f t="shared" ref="D52:E52" si="59">B82/B52</f>
+        <f t="shared" ref="D52:E52" si="62">B82/B52</f>
         <v>1.293715654784457</v>
       </c>
       <c r="E52">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>1.2554314274213119</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53">
         <f t="shared" si="4"/>
         <v>2000</v>
@@ -4441,15 +4433,15 @@
         <v>282.39855399999999</v>
       </c>
       <c r="D53">
-        <f t="shared" ref="D53:E53" si="60">B83/B53</f>
+        <f t="shared" ref="D53:E53" si="63">B83/B53</f>
         <v>1.286149595905389</v>
       </c>
       <c r="E53">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>1.2470400291072312</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54">
         <f t="shared" si="4"/>
         <v>2001</v>
@@ -4461,15 +4453,15 @@
         <v>285.47049399999997</v>
       </c>
       <c r="D54">
-        <f t="shared" ref="D54:E54" si="61">B84/B54</f>
+        <f t="shared" ref="D54:E54" si="64">B84/B54</f>
         <v>1.2788924628072529</v>
       </c>
       <c r="E54">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>1.239367925709338</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55">
         <f t="shared" si="4"/>
         <v>2002</v>
@@ -4481,15 +4473,15 @@
         <v>288.35025200000001</v>
       </c>
       <c r="D55">
-        <f t="shared" ref="D55:E55" si="62">B85/B55</f>
+        <f t="shared" ref="D55:E55" si="65">B85/B55</f>
         <v>1.2718553355695026</v>
       </c>
       <c r="E55">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>1.2325711440682214</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56">
         <f t="shared" si="4"/>
         <v>2003</v>
@@ -4501,15 +4493,15 @@
         <v>291.10982100000001</v>
       </c>
       <c r="D56">
-        <f t="shared" ref="D56:E56" si="63">B86/B56</f>
+        <f t="shared" ref="D56:E56" si="66">B86/B56</f>
         <v>1.2652530042976984</v>
       </c>
       <c r="E56">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>1.2263105991192238</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57">
         <f t="shared" si="4"/>
         <v>2004</v>
@@ -4521,15 +4513,15 @@
         <v>293.94788599999998</v>
       </c>
       <c r="D57">
-        <f t="shared" ref="D57:E57" si="64">B87/B57</f>
+        <f t="shared" ref="D57:E57" si="67">B87/B57</f>
         <v>1.2587578299888666</v>
       </c>
       <c r="E57">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>1.2197018351749602</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58">
         <f t="shared" si="4"/>
         <v>2005</v>
@@ -4541,15 +4533,15 @@
         <v>296.84267</v>
       </c>
       <c r="D58">
-        <f t="shared" ref="D58:E58" si="65">B88/B58</f>
+        <f t="shared" ref="D58:E58" si="68">B88/B58</f>
         <v>1.2519153004974266</v>
       </c>
       <c r="E58">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>1.212818965683067</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59">
         <f t="shared" si="4"/>
         <v>2006</v>
@@ -4561,15 +4553,15 @@
         <v>299.75309800000002</v>
       </c>
       <c r="D59">
-        <f t="shared" ref="D59:E59" si="66">B89/B59</f>
+        <f t="shared" ref="D59:E59" si="69">B89/B59</f>
         <v>1.2449284518666393</v>
       </c>
       <c r="E59">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>1.2058476673358685</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60">
         <f t="shared" si="4"/>
         <v>2007</v>
@@ -4581,15 +4573,15 @@
         <v>302.74339900000001</v>
       </c>
       <c r="D60">
-        <f t="shared" ref="D60:E60" si="67">B90/B60</f>
+        <f t="shared" ref="D60:E60" si="70">B90/B60</f>
         <v>1.2381779848546921</v>
       </c>
       <c r="E60">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>1.1985127973013212</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61">
         <f t="shared" si="4"/>
         <v>2008</v>
@@ -4601,15 +4593,15 @@
         <v>305.69490999999999</v>
       </c>
       <c r="D61">
-        <f t="shared" ref="D61:E61" si="68">B91/B61</f>
+        <f t="shared" ref="D61:E61" si="71">B91/B61</f>
         <v>1.2314509228078454</v>
       </c>
       <c r="E61">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>1.1912569103620338</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62">
         <f t="shared" si="4"/>
         <v>2009</v>
@@ -4621,15 +4613,15 @@
         <v>308.51203600000002</v>
       </c>
       <c r="D62">
-        <f t="shared" ref="D62:E62" si="69">B92/B62</f>
+        <f t="shared" ref="D62:E62" si="72">B92/B62</f>
         <v>1.2242685815787739</v>
       </c>
       <c r="E62">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>1.1844622489866163</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63">
         <f t="shared" si="4"/>
         <v>2010</v>
@@ -4641,15 +4633,15 @@
         <v>311.18284499999999</v>
       </c>
       <c r="D63">
-        <f t="shared" ref="D63:E78" si="70">B93/B63</f>
+        <f t="shared" ref="D63:E78" si="73">B93/B63</f>
         <v>1.2168939007798101</v>
       </c>
       <c r="E63">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>1.1781376958617369</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64">
         <f t="shared" si="4"/>
         <v>2011</v>
@@ -4661,15 +4653,15 @@
         <v>313.87660899999997</v>
       </c>
       <c r="D64">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>1.2093457149366797</v>
       </c>
       <c r="E64">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>1.1716368421706762</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65">
         <f t="shared" si="4"/>
         <v>2012</v>
@@ -4681,15 +4673,15 @@
         <v>316.651321</v>
       </c>
       <c r="D65">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>1.2014289778418927</v>
       </c>
       <c r="E65">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>1.164789715183282</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66">
         <f t="shared" si="4"/>
         <v>2013</v>
@@ -4701,15 +4693,15 @@
         <v>319.37516599999998</v>
       </c>
       <c r="D66">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>1.1933685473214297</v>
       </c>
       <c r="E66">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>1.1580519976935215</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67">
         <f t="shared" si="4"/>
         <v>2014</v>
@@ -4721,15 +4713,15 @@
         <v>322.03396400000003</v>
       </c>
       <c r="D67">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>1.1852955350747505</v>
       </c>
       <c r="E67">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>1.1514789663614486</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68">
         <f t="shared" si="4"/>
         <v>2015</v>
@@ -4741,17 +4733,17 @@
         <v>324.607777</v>
       </c>
       <c r="D68">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>1.1772593869403902</v>
       </c>
       <c r="E68">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>1.1451209131073898</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69">
-        <f t="shared" ref="A69:A132" si="71">A68+1</f>
+        <f t="shared" ref="A69:A132" si="74">A68+1</f>
         <v>2016</v>
       </c>
       <c r="B69" s="4">
@@ -4761,17 +4753,17 @@
         <v>327.21019799999999</v>
       </c>
       <c r="D69">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>1.1697726233174213</v>
       </c>
       <c r="E69">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>1.1385706108096301</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2017</v>
       </c>
       <c r="B70" s="4">
@@ -4781,17 +4773,17 @@
         <v>329.79123099999998</v>
       </c>
       <c r="D70">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>1.1629036557712815</v>
       </c>
       <c r="E70">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>1.1320360819417907</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2018</v>
       </c>
       <c r="B71" s="4">
@@ -4801,17 +4793,17 @@
         <v>332.140038</v>
       </c>
       <c r="D71">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>1.1566637387344181</v>
       </c>
       <c r="E71">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>1.1262240055503334</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2019</v>
       </c>
       <c r="B72" s="4">
@@ -4821,17 +4813,17 @@
         <v>334.31967100000003</v>
       </c>
       <c r="D72">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>1.1509827352548367</v>
       </c>
       <c r="E72">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>1.1209319148917205</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2020</v>
       </c>
       <c r="B73" s="4">
@@ -4841,17 +4833,17 @@
         <v>335.942004</v>
       </c>
       <c r="D73">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>1.1462194315875787</v>
       </c>
       <c r="E73">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>1.1174308616674204</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2021</v>
       </c>
       <c r="B74" s="4">
@@ -4861,17 +4853,17 @@
         <v>336.99762399999997</v>
       </c>
       <c r="D74">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>1.1425490063560173</v>
       </c>
       <c r="E74">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>1.1156990026730871</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2022</v>
       </c>
       <c r="B75" s="4">
@@ -4881,17 +4873,17 @@
         <v>338.28985699999998</v>
       </c>
       <c r="D75">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>1.138878682412195</v>
       </c>
       <c r="E75">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>1.1131136190110482</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2023</v>
       </c>
       <c r="B76" s="4">
@@ -4901,17 +4893,17 @@
         <v>339.99656399999998</v>
       </c>
       <c r="D76">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>1.134272175810993</v>
       </c>
       <c r="E76">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>1.1091345205476841</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2024</v>
       </c>
       <c r="B77" s="4">
@@ -4921,17 +4913,17 @@
         <v>341.81441999999998</v>
       </c>
       <c r="D77">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>1.1289984401578996</v>
       </c>
       <c r="E77">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>1.1048042180315272</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2025</v>
       </c>
       <c r="B78" s="4">
@@ -4941,17 +4933,17 @@
         <v>343.60340400000001</v>
       </c>
       <c r="D78">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>1.123669005160397</v>
       </c>
       <c r="E78">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>1.1005952170369069</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2026</v>
       </c>
       <c r="B79" s="4">
@@ -4961,17 +4953,17 @@
         <v>345.364937</v>
       </c>
       <c r="D79">
-        <f t="shared" ref="D79:E123" si="72">B109/B79</f>
+        <f t="shared" ref="D79:E123" si="75">B109/B79</f>
         <v>1.1182741821869397</v>
       </c>
       <c r="E79">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0965124638579047</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2027</v>
       </c>
       <c r="B80" s="4">
@@ -4981,17 +4973,17 @@
         <v>347.09826099999998</v>
       </c>
       <c r="D80">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.1128297303853747</v>
       </c>
       <c r="E80">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0925731921197959</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2028</v>
       </c>
       <c r="B81" s="4">
@@ -5001,17 +4993,17 @@
         <v>348.80484999999999</v>
       </c>
       <c r="D81">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.1073270164174975</v>
       </c>
       <c r="E81">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0887668907126722</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2029</v>
       </c>
       <c r="B82" s="4">
@@ -5021,17 +5013,17 @@
         <v>350.49333200000001</v>
       </c>
       <c r="D82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.1017829501503629</v>
       </c>
       <c r="E82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0850722404042767</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2030</v>
       </c>
       <c r="B83" s="4">
@@ -5041,17 +5033,17 @@
         <v>352.16230100000001</v>
       </c>
       <c r="D83">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0962117543774024</v>
       </c>
       <c r="E83">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0814961281162232</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2031</v>
       </c>
       <c r="B84" s="4">
@@ -5061,17 +5053,17 @@
         <v>353.80297400000001</v>
       </c>
       <c r="D84">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0906315246616565</v>
       </c>
       <c r="E84">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0780641318181796</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2032</v>
       </c>
       <c r="B85" s="4">
@@ -5081,17 +5073,17 @@
         <v>355.41219999999998</v>
       </c>
       <c r="D85">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0850232155615083</v>
       </c>
       <c r="E85">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.074795654172817</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2033</v>
       </c>
       <c r="B86" s="4">
@@ -5101,17 +5093,17 @@
         <v>356.99105900000001</v>
       </c>
       <c r="D86">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0793905841814477</v>
       </c>
       <c r="E86">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0716988292975707</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2034</v>
       </c>
       <c r="B87" s="4">
@@ -5121,17 +5113,17 @@
         <v>358.52877599999999</v>
       </c>
       <c r="D87">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0737507496458476</v>
       </c>
       <c r="E87">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0687878844068015</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2035</v>
       </c>
       <c r="B88" s="4">
@@ -5141,17 +5133,17 @@
         <v>360.01641999999998</v>
       </c>
       <c r="D88">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0681295128378863</v>
       </c>
       <c r="E88">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0660639950811133</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2036</v>
       </c>
       <c r="B89" s="4">
@@ -5161,17 +5153,17 @@
         <v>361.45657399999999</v>
       </c>
       <c r="D89">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0625158113537756</v>
       </c>
       <c r="E89">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0635083953404594</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2037</v>
       </c>
       <c r="B90" s="4">
@@ -5181,17 +5173,17 @@
         <v>362.841838</v>
       </c>
       <c r="D90">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0568989084153344</v>
       </c>
       <c r="E90">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0611332312785826</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2038</v>
       </c>
       <c r="B91" s="4">
@@ -5201,17 +5193,17 @@
         <v>364.16117400000002</v>
       </c>
       <c r="D91">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0513117708841404</v>
       </c>
       <c r="E91">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0589664756517947</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2039</v>
       </c>
       <c r="B92" s="4">
@@ -5221,17 +5213,17 @@
         <v>365.42086</v>
       </c>
       <c r="D92">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0457687612638775</v>
       </c>
       <c r="E92">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0569503667634081</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2040</v>
       </c>
       <c r="B93" s="4">
@@ -5241,17 +5233,17 @@
         <v>366.61624</v>
       </c>
       <c r="D93">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.04026415225396</v>
       </c>
       <c r="E93">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0550686734444716</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2041</v>
       </c>
       <c r="B94" s="4">
@@ -5261,17 +5253,17 @@
         <v>367.74939899999998</v>
       </c>
       <c r="D94">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0348039446175306</v>
       </c>
       <c r="E94">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0533582462768349</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2042</v>
       </c>
       <c r="B95" s="4">
@@ -5281,17 +5273,17 @@
         <v>368.832202</v>
       </c>
       <c r="D95">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0294135322318587</v>
       </c>
       <c r="E95">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0517665510128098</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2043</v>
       </c>
       <c r="B96" s="4">
@@ -5301,17 +5293,17 @@
         <v>369.853049</v>
       </c>
       <c r="D96">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0240797304693756</v>
       </c>
       <c r="E96">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0502781443880973</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2044</v>
       </c>
       <c r="B97" s="4">
@@ -5321,17 +5313,17 @@
         <v>370.815336</v>
       </c>
       <c r="D97">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0187917806362436</v>
       </c>
       <c r="E97">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0488695564630046</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2045</v>
       </c>
       <c r="B98" s="4">
@@ -5341,17 +5333,17 @@
         <v>371.71515399999998</v>
       </c>
       <c r="D98">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0135529285571681</v>
       </c>
       <c r="E98">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.047550996535374</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2046</v>
       </c>
       <c r="B99" s="4">
@@ -5361,17 +5353,17 @@
         <v>372.55191500000001</v>
       </c>
       <c r="D99">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0083862362714131</v>
       </c>
       <c r="E99">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.046326633430404</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2047</v>
       </c>
       <c r="B100" s="4">
@@ -5381,17 +5373,17 @@
         <v>373.33557300000001</v>
       </c>
       <c r="D100">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0033077061483968</v>
       </c>
       <c r="E100">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0451711575848144</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2048</v>
       </c>
       <c r="B101" s="4">
@@ -5401,17 +5393,17 @@
         <v>374.06408399999998</v>
       </c>
       <c r="D101">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.99831525576896629</v>
       </c>
       <c r="E101">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0440972461820206</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2049</v>
       </c>
       <c r="B102" s="4">
@@ -5421,17 +5413,17 @@
         <v>374.74958900000001</v>
       </c>
       <c r="D102">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.99344376040373805</v>
       </c>
       <c r="E102">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0430503580885848</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A103">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2050</v>
       </c>
       <c r="B103" s="4">
@@ -5441,17 +5433,17 @@
         <v>375.39196299999998</v>
       </c>
       <c r="D103">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.98866604644315048</v>
       </c>
       <c r="E103">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0420267468539279</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2051</v>
       </c>
       <c r="B104" s="4">
@@ -5461,17 +5453,17 @@
         <v>375.98791299999999</v>
       </c>
       <c r="D104">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.98396922615363269</v>
       </c>
       <c r="E104">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.04105574000194</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2052</v>
       </c>
       <c r="B105" s="4">
@@ -5481,17 +5473,17 @@
         <v>376.555047</v>
       </c>
       <c r="D105">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.97937117653231631</v>
       </c>
       <c r="E105">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0400944114818889</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A106">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2053</v>
       </c>
       <c r="B106" s="4">
@@ -5501,17 +5493,17 @@
         <v>377.10192599999999</v>
       </c>
       <c r="D106">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.97488438135538524</v>
       </c>
       <c r="E106">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0391273923114357</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A107">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2054</v>
       </c>
       <c r="B107" s="4">
@@ -5521,17 +5513,17 @@
         <v>377.638013</v>
       </c>
       <c r="D107">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.97050356101221436</v>
       </c>
       <c r="E107">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0381436547808549</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A108">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2055</v>
       </c>
       <c r="B108" s="4">
@@ -5541,17 +5533,17 @@
         <v>378.16826300000002</v>
       </c>
       <c r="D108">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.96622451759510419</v>
       </c>
       <c r="E108">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0371292659215032</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A109">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2056</v>
       </c>
       <c r="B109" s="4">
@@ -5561,17 +5553,17 @@
         <v>378.696958</v>
       </c>
       <c r="D109">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.96205744437760721</v>
       </c>
       <c r="E109">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.036088639507899</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2057</v>
       </c>
       <c r="B110" s="4">
@@ -5581,17 +5573,17 @@
         <v>379.230255</v>
       </c>
       <c r="D110">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.95798101996454776</v>
       </c>
       <c r="E110">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0350045699808419</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A111">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2058</v>
       </c>
       <c r="B111" s="4">
@@ -5601,17 +5593,17 @@
         <v>379.76717200000002</v>
       </c>
       <c r="D111">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.95400381174960813</v>
       </c>
       <c r="E111">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0338849535946724</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A112">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2059</v>
       </c>
       <c r="B112" s="4">
@@ -5621,17 +5613,17 @@
         <v>380.310585</v>
       </c>
       <c r="D112">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.95013965449902815</v>
       </c>
       <c r="E112">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0327440689035778</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2060</v>
       </c>
       <c r="B113" s="4">
@@ -5641,17 +5633,17 @@
         <v>380.862165</v>
       </c>
       <c r="D113">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.9463827196059893</v>
       </c>
       <c r="E113">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0315610740699328</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2061</v>
       </c>
       <c r="B114" s="4">
@@ -5661,17 +5653,17 @@
         <v>381.42229600000002</v>
       </c>
       <c r="D114">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.94271886839631835</v>
       </c>
       <c r="E114">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0303517888739258</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A115">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2062</v>
       </c>
       <c r="B115" s="4">
@@ -5681,17 +5673,17 @@
         <v>381.99548800000002</v>
       </c>
       <c r="D115">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.93915951240236017</v>
       </c>
       <c r="E115">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0291198308604104</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A116">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2063</v>
       </c>
       <c r="B116" s="4">
@@ -5701,17 +5693,17 @@
         <v>382.58690000000001</v>
       </c>
       <c r="D116">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.93569750518454042</v>
       </c>
       <c r="E116">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0278360105900124</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A117">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2064</v>
       </c>
       <c r="B117" s="4">
@@ -5721,17 +5713,17 @@
         <v>383.19121200000001</v>
       </c>
       <c r="D117">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.93231639338431282</v>
       </c>
       <c r="E117">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0265206656148471</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2065</v>
       </c>
       <c r="B118" s="4">
@@ -5741,17 +5733,17 @@
         <v>383.800543</v>
       </c>
       <c r="D118">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.92901428937995545</v>
       </c>
       <c r="E118">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0252033489176173</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2066</v>
       </c>
       <c r="B119" s="4">
@@ -5761,17 +5753,17 @@
         <v>384.41210100000001</v>
       </c>
       <c r="D119">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.92582569985879259</v>
       </c>
       <c r="E119">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0239083316474473</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A120">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2067</v>
       </c>
       <c r="B120" s="4">
@@ -5781,17 +5773,17 @@
         <v>385.02353199999999</v>
       </c>
       <c r="D120">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.92274213257239646</v>
       </c>
       <c r="E120">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0226096492200898</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A121">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2068</v>
       </c>
       <c r="B121" s="4">
@@ -5801,17 +5793,17 @@
         <v>385.63447500000001</v>
       </c>
       <c r="D121">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.91975546368577854</v>
       </c>
       <c r="E121">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.021285835505241</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A122">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2069</v>
       </c>
       <c r="B122" s="4">
@@ -5821,17 +5813,17 @@
         <v>386.23171200000002</v>
       </c>
       <c r="D122">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.91689196066812328</v>
       </c>
       <c r="E122">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0199740486353435</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A123">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2070</v>
       </c>
       <c r="B123" s="4">
@@ -5841,17 +5833,17 @@
         <v>386.80531000000002</v>
       </c>
       <c r="D123">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.91414986234409434</v>
       </c>
       <c r="E123">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.0187066847660389</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A124">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2071</v>
       </c>
       <c r="B124" s="4">
@@ -5861,9 +5853,9 @@
         <v>387.37186200000002</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A125">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2072</v>
       </c>
       <c r="B125" s="4">
@@ -5873,9 +5865,9 @@
         <v>387.92537299999998</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A126">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2073</v>
       </c>
       <c r="B126" s="4">
@@ -5885,9 +5877,9 @@
         <v>388.44857400000001</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A127">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2074</v>
       </c>
       <c r="B127" s="4">
@@ -5897,9 +5889,9 @@
         <v>388.93691699999999</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A128">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2075</v>
       </c>
       <c r="B128" s="4">
@@ -5909,9 +5901,9 @@
         <v>389.39058</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2076</v>
       </c>
       <c r="B129" s="4">
@@ -5921,9 +5913,9 @@
         <v>389.810991</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2077</v>
       </c>
       <c r="B130" s="4">
@@ -5933,9 +5925,9 @@
         <v>390.19957299999999</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2078</v>
       </c>
       <c r="B131" s="4">
@@ -5945,9 +5937,9 @@
         <v>390.55928</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2079</v>
       </c>
       <c r="B132" s="4">
@@ -5957,9 +5949,9 @@
         <v>390.88269300000002</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133">
-        <f t="shared" ref="A133:A153" si="73">A132+1</f>
+        <f t="shared" ref="A133:A153" si="76">A132+1</f>
         <v>2080</v>
       </c>
       <c r="B133" s="4">
@@ -5969,9 +5961,9 @@
         <v>391.16846600000002</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>2081</v>
       </c>
       <c r="B134" s="4">
@@ -5981,9 +5973,9 @@
         <v>391.424375</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>2082</v>
       </c>
       <c r="B135" s="4">
@@ -5993,9 +5985,9 @@
         <v>391.65280000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>2083</v>
       </c>
       <c r="B136" s="4">
@@ -6005,9 +5997,9 @@
         <v>391.85694100000001</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>2084</v>
       </c>
       <c r="B137" s="4">
@@ -6017,9 +6009,9 @@
         <v>392.042507</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>2085</v>
       </c>
       <c r="B138" s="4">
@@ -6029,9 +6021,9 @@
         <v>392.20937300000003</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>2086</v>
       </c>
       <c r="B139" s="4">
@@ -6041,9 +6033,9 @@
         <v>392.36361599999998</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>2087</v>
       </c>
       <c r="B140" s="4">
@@ -6053,9 +6045,9 @@
         <v>392.50504699999999</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>2088</v>
       </c>
       <c r="B141" s="4">
@@ -6065,9 +6057,9 @@
         <v>392.63556499999999</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>2089</v>
       </c>
       <c r="B142" s="4">
@@ -6077,9 +6069,9 @@
         <v>392.76350100000002</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>2090</v>
       </c>
       <c r="B143" s="4">
@@ -6089,9 +6081,9 @@
         <v>392.88258400000001</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>2091</v>
       </c>
       <c r="B144" s="4">
@@ -6101,9 +6093,9 @@
         <v>392.999145</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>2092</v>
       </c>
       <c r="B145" s="4">
@@ -6113,9 +6105,9 @@
         <v>393.11913199999998</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>2093</v>
       </c>
       <c r="B146" s="4">
@@ -6125,9 +6117,9 @@
         <v>393.23659300000003</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>2094</v>
       </c>
       <c r="B147" s="4">
@@ -6137,9 +6129,9 @@
         <v>393.35369800000001</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>2095</v>
       </c>
       <c r="B148" s="4">
@@ -6149,9 +6141,9 @@
         <v>393.47360200000003</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>2096</v>
       </c>
       <c r="B149" s="4">
@@ -6161,9 +6153,9 @@
         <v>393.60275300000001</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>2097</v>
       </c>
       <c r="B150" s="4">
@@ -6173,9 +6165,9 @@
         <v>393.72877899999997</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>2098</v>
       </c>
       <c r="B151" s="4">
@@ -6185,9 +6177,9 @@
         <v>393.84302700000001</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>2099</v>
       </c>
       <c r="B152" s="4">
@@ -6197,9 +6189,9 @@
         <v>393.94632300000001</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>2100</v>
       </c>
       <c r="B153" s="4">
